--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Projects\excel2calender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F0698-2D0E-4365-95EB-8F54E000CB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEEE172-D6D0-413A-A136-918F01BA0305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6005,16 +6005,56 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -6033,48 +6073,52 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -6085,49 +6129,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6144,9 +6168,6 @@
     <xf numFmtId="0" fontId="31" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6167,27 +6188,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="170" fontId="67" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6291,6 +6291,111 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="98" fillId="11" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="11" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="89" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="90" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="66" fillId="11" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -6339,110 +6444,66 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="11" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="11" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="89" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="11" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="25" fillId="11" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="90" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="25" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="25" fillId="11" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6452,48 +6513,48 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="135" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="135" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="108" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="108" fillId="11" borderId="135" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="108" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="170" fontId="58" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="58" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="64" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="62" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="170" fontId="60" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6516,108 +6577,47 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="58" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="58" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="64" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="62" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="62" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="135" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="11" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="11" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="108" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="108" fillId="11" borderId="135" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="11" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="108" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="135" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -9023,36 +9023,36 @@
       <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:28" ht="14.55" customHeight="1">
-      <c r="A4" s="671"/>
-      <c r="B4" s="671"/>
-      <c r="C4" s="671"/>
+      <c r="A4" s="681"/>
+      <c r="B4" s="681"/>
+      <c r="C4" s="681"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="668" t="str">
+      <c r="E4" s="678" t="str">
         <f>IF($A$1,"ÉTAPES POUR ÉTABLIR L’HORAIRE DE L'ÉQUIPE DE GESTION","STEPS FOR COMPLETING THE MANAGER’S SCHEDULE")</f>
         <v>STEPS FOR COMPLETING THE MANAGER’S SCHEDULE</v>
       </c>
-      <c r="F4" s="668"/>
-      <c r="G4" s="668"/>
-      <c r="H4" s="668"/>
-      <c r="I4" s="668"/>
-      <c r="J4" s="668"/>
-      <c r="K4" s="668"/>
-      <c r="L4" s="668"/>
-      <c r="M4" s="668"/>
-      <c r="N4" s="668"/>
-      <c r="O4" s="668"/>
-      <c r="P4" s="668"/>
-      <c r="Q4" s="668"/>
-      <c r="R4" s="668"/>
-      <c r="S4" s="668"/>
-      <c r="T4" s="668"/>
-      <c r="U4" s="668"/>
-      <c r="V4" s="668"/>
-      <c r="W4" s="668"/>
-      <c r="X4" s="668"/>
-      <c r="Y4" s="668"/>
-      <c r="Z4" s="668"/>
-      <c r="AA4" s="668"/>
+      <c r="F4" s="678"/>
+      <c r="G4" s="678"/>
+      <c r="H4" s="678"/>
+      <c r="I4" s="678"/>
+      <c r="J4" s="678"/>
+      <c r="K4" s="678"/>
+      <c r="L4" s="678"/>
+      <c r="M4" s="678"/>
+      <c r="N4" s="678"/>
+      <c r="O4" s="678"/>
+      <c r="P4" s="678"/>
+      <c r="Q4" s="678"/>
+      <c r="R4" s="678"/>
+      <c r="S4" s="678"/>
+      <c r="T4" s="678"/>
+      <c r="U4" s="678"/>
+      <c r="V4" s="678"/>
+      <c r="W4" s="678"/>
+      <c r="X4" s="678"/>
+      <c r="Y4" s="678"/>
+      <c r="Z4" s="678"/>
+      <c r="AA4" s="678"/>
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28" ht="14.55" customHeight="1">
@@ -9060,29 +9060,29 @@
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="61"/>
-      <c r="E5" s="668"/>
-      <c r="F5" s="668"/>
-      <c r="G5" s="668"/>
-      <c r="H5" s="668"/>
-      <c r="I5" s="668"/>
-      <c r="J5" s="668"/>
-      <c r="K5" s="668"/>
-      <c r="L5" s="668"/>
-      <c r="M5" s="668"/>
-      <c r="N5" s="668"/>
-      <c r="O5" s="668"/>
-      <c r="P5" s="668"/>
-      <c r="Q5" s="668"/>
-      <c r="R5" s="668"/>
-      <c r="S5" s="668"/>
-      <c r="T5" s="668"/>
-      <c r="U5" s="668"/>
-      <c r="V5" s="668"/>
-      <c r="W5" s="668"/>
-      <c r="X5" s="668"/>
-      <c r="Y5" s="668"/>
-      <c r="Z5" s="668"/>
-      <c r="AA5" s="668"/>
+      <c r="E5" s="678"/>
+      <c r="F5" s="678"/>
+      <c r="G5" s="678"/>
+      <c r="H5" s="678"/>
+      <c r="I5" s="678"/>
+      <c r="J5" s="678"/>
+      <c r="K5" s="678"/>
+      <c r="L5" s="678"/>
+      <c r="M5" s="678"/>
+      <c r="N5" s="678"/>
+      <c r="O5" s="678"/>
+      <c r="P5" s="678"/>
+      <c r="Q5" s="678"/>
+      <c r="R5" s="678"/>
+      <c r="S5" s="678"/>
+      <c r="T5" s="678"/>
+      <c r="U5" s="678"/>
+      <c r="V5" s="678"/>
+      <c r="W5" s="678"/>
+      <c r="X5" s="678"/>
+      <c r="Y5" s="678"/>
+      <c r="Z5" s="678"/>
+      <c r="AA5" s="678"/>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" ht="15.7" customHeight="1">
@@ -9090,38 +9090,38 @@
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="61"/>
-      <c r="E6" s="668"/>
-      <c r="F6" s="668"/>
-      <c r="G6" s="668"/>
-      <c r="H6" s="668"/>
-      <c r="I6" s="668"/>
-      <c r="J6" s="668"/>
-      <c r="K6" s="668"/>
-      <c r="L6" s="668"/>
-      <c r="M6" s="668"/>
-      <c r="N6" s="668"/>
-      <c r="O6" s="668"/>
-      <c r="P6" s="668"/>
-      <c r="Q6" s="668"/>
-      <c r="R6" s="668"/>
-      <c r="S6" s="668"/>
-      <c r="T6" s="668"/>
-      <c r="U6" s="668"/>
-      <c r="V6" s="668"/>
-      <c r="W6" s="668"/>
-      <c r="X6" s="668"/>
-      <c r="Y6" s="668"/>
-      <c r="Z6" s="668"/>
-      <c r="AA6" s="668"/>
+      <c r="E6" s="678"/>
+      <c r="F6" s="678"/>
+      <c r="G6" s="678"/>
+      <c r="H6" s="678"/>
+      <c r="I6" s="678"/>
+      <c r="J6" s="678"/>
+      <c r="K6" s="678"/>
+      <c r="L6" s="678"/>
+      <c r="M6" s="678"/>
+      <c r="N6" s="678"/>
+      <c r="O6" s="678"/>
+      <c r="P6" s="678"/>
+      <c r="Q6" s="678"/>
+      <c r="R6" s="678"/>
+      <c r="S6" s="678"/>
+      <c r="T6" s="678"/>
+      <c r="U6" s="678"/>
+      <c r="V6" s="678"/>
+      <c r="W6" s="678"/>
+      <c r="X6" s="678"/>
+      <c r="Y6" s="678"/>
+      <c r="Z6" s="678"/>
+      <c r="AA6" s="678"/>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="55.5" customHeight="1">
-      <c r="A7" s="669" t="str">
+      <c r="A7" s="679" t="str">
         <f>IF($A$1," UnCheck box for English","Cochez la case pour le français")</f>
         <v>Cochez la case pour le français</v>
       </c>
-      <c r="B7" s="670"/>
-      <c r="C7" s="670"/>
+      <c r="B7" s="680"/>
+      <c r="C7" s="680"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="61"/>
@@ -9149,145 +9149,145 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A8" s="678" t="str">
+      <c r="A8" s="672" t="str">
         <f>IF($A$1,"Avant de commencer l’horaire","Prior to Starting Schedule")</f>
         <v>Prior to Starting Schedule</v>
       </c>
-      <c r="B8" s="678"/>
-      <c r="C8" s="678"/>
-      <c r="D8" s="678"/>
-      <c r="E8" s="678"/>
-      <c r="F8" s="678"/>
-      <c r="G8" s="678"/>
-      <c r="H8" s="678"/>
-      <c r="I8" s="678"/>
-      <c r="J8" s="678"/>
-      <c r="K8" s="678"/>
-      <c r="L8" s="678"/>
-      <c r="M8" s="678"/>
-      <c r="N8" s="678"/>
-      <c r="O8" s="678"/>
-      <c r="P8" s="678"/>
-      <c r="Q8" s="678"/>
-      <c r="R8" s="678"/>
-      <c r="S8" s="678"/>
-      <c r="T8" s="678"/>
-      <c r="U8" s="678"/>
-      <c r="V8" s="678"/>
-      <c r="W8" s="678"/>
-      <c r="X8" s="678"/>
-      <c r="Y8" s="678"/>
-      <c r="Z8" s="678"/>
-      <c r="AA8" s="678"/>
+      <c r="B8" s="672"/>
+      <c r="C8" s="672"/>
+      <c r="D8" s="672"/>
+      <c r="E8" s="672"/>
+      <c r="F8" s="672"/>
+      <c r="G8" s="672"/>
+      <c r="H8" s="672"/>
+      <c r="I8" s="672"/>
+      <c r="J8" s="672"/>
+      <c r="K8" s="672"/>
+      <c r="L8" s="672"/>
+      <c r="M8" s="672"/>
+      <c r="N8" s="672"/>
+      <c r="O8" s="672"/>
+      <c r="P8" s="672"/>
+      <c r="Q8" s="672"/>
+      <c r="R8" s="672"/>
+      <c r="S8" s="672"/>
+      <c r="T8" s="672"/>
+      <c r="U8" s="672"/>
+      <c r="V8" s="672"/>
+      <c r="W8" s="672"/>
+      <c r="X8" s="672"/>
+      <c r="Y8" s="672"/>
+      <c r="Z8" s="672"/>
+      <c r="AA8" s="672"/>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" ht="31.05" customHeight="1">
       <c r="A9" s="63">
         <v>1</v>
       </c>
-      <c r="B9" s="676" t="str">
+      <c r="B9" s="673" t="str">
         <f>IF($A$1,"Fournissez à vos gérants la « formule de demande de calendrier », qu’ils devront remplir et remettre au plus tard le 15 de chaque mois.","Provide you managers with the 'Planner Request Form' to be completed, by the 15 of the month.")</f>
         <v>Provide you managers with the 'Planner Request Form' to be completed, by the 15 of the month.</v>
       </c>
-      <c r="C9" s="676"/>
-      <c r="D9" s="676"/>
-      <c r="E9" s="676"/>
-      <c r="F9" s="676"/>
-      <c r="G9" s="676"/>
-      <c r="H9" s="676"/>
-      <c r="I9" s="676"/>
-      <c r="J9" s="676"/>
-      <c r="K9" s="676"/>
-      <c r="L9" s="676"/>
-      <c r="M9" s="676"/>
-      <c r="N9" s="676"/>
-      <c r="O9" s="676"/>
-      <c r="P9" s="676"/>
-      <c r="Q9" s="676"/>
-      <c r="R9" s="676"/>
-      <c r="S9" s="676"/>
-      <c r="T9" s="676"/>
-      <c r="U9" s="676"/>
-      <c r="V9" s="676"/>
-      <c r="W9" s="676"/>
-      <c r="X9" s="676"/>
-      <c r="Y9" s="676"/>
-      <c r="Z9" s="676"/>
-      <c r="AA9" s="676"/>
+      <c r="C9" s="673"/>
+      <c r="D9" s="673"/>
+      <c r="E9" s="673"/>
+      <c r="F9" s="673"/>
+      <c r="G9" s="673"/>
+      <c r="H9" s="673"/>
+      <c r="I9" s="673"/>
+      <c r="J9" s="673"/>
+      <c r="K9" s="673"/>
+      <c r="L9" s="673"/>
+      <c r="M9" s="673"/>
+      <c r="N9" s="673"/>
+      <c r="O9" s="673"/>
+      <c r="P9" s="673"/>
+      <c r="Q9" s="673"/>
+      <c r="R9" s="673"/>
+      <c r="S9" s="673"/>
+      <c r="T9" s="673"/>
+      <c r="U9" s="673"/>
+      <c r="V9" s="673"/>
+      <c r="W9" s="673"/>
+      <c r="X9" s="673"/>
+      <c r="Y9" s="673"/>
+      <c r="Z9" s="673"/>
+      <c r="AA9" s="673"/>
       <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A10" s="679" t="str">
+      <c r="A10" s="674" t="str">
         <f>IF($A$1,"ONGLETS DES PRÉVISIONS- Entrez les données dans les cases surlignées en jaune.","Enter Projections - TAB"
 )</f>
         <v>Enter Projections - TAB</v>
       </c>
-      <c r="B10" s="679"/>
-      <c r="C10" s="679"/>
-      <c r="D10" s="679"/>
-      <c r="E10" s="679"/>
-      <c r="F10" s="679"/>
-      <c r="G10" s="679"/>
-      <c r="H10" s="679"/>
-      <c r="I10" s="679"/>
-      <c r="J10" s="679"/>
-      <c r="K10" s="679"/>
-      <c r="L10" s="679"/>
-      <c r="M10" s="679"/>
-      <c r="N10" s="679"/>
-      <c r="O10" s="679"/>
-      <c r="P10" s="679"/>
-      <c r="Q10" s="679"/>
-      <c r="R10" s="679"/>
-      <c r="S10" s="679"/>
-      <c r="T10" s="679"/>
-      <c r="U10" s="679"/>
-      <c r="V10" s="679"/>
-      <c r="W10" s="679"/>
-      <c r="X10" s="679"/>
-      <c r="Y10" s="679"/>
-      <c r="Z10" s="679"/>
-      <c r="AA10" s="679"/>
+      <c r="B10" s="674"/>
+      <c r="C10" s="674"/>
+      <c r="D10" s="674"/>
+      <c r="E10" s="674"/>
+      <c r="F10" s="674"/>
+      <c r="G10" s="674"/>
+      <c r="H10" s="674"/>
+      <c r="I10" s="674"/>
+      <c r="J10" s="674"/>
+      <c r="K10" s="674"/>
+      <c r="L10" s="674"/>
+      <c r="M10" s="674"/>
+      <c r="N10" s="674"/>
+      <c r="O10" s="674"/>
+      <c r="P10" s="674"/>
+      <c r="Q10" s="674"/>
+      <c r="R10" s="674"/>
+      <c r="S10" s="674"/>
+      <c r="T10" s="674"/>
+      <c r="U10" s="674"/>
+      <c r="V10" s="674"/>
+      <c r="W10" s="674"/>
+      <c r="X10" s="674"/>
+      <c r="Y10" s="674"/>
+      <c r="Z10" s="674"/>
+      <c r="AA10" s="674"/>
       <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A11" s="672">
+      <c r="A11" s="669">
         <v>2</v>
       </c>
-      <c r="B11" s="680" t="str">
+      <c r="B11" s="675" t="str">
         <f>IF($A$1,"Entrez :","Enter:")</f>
         <v>Enter:</v>
       </c>
-      <c r="C11" s="680"/>
-      <c r="D11" s="680"/>
-      <c r="E11" s="680"/>
-      <c r="F11" s="680"/>
-      <c r="G11" s="680"/>
-      <c r="H11" s="680"/>
-      <c r="I11" s="680"/>
-      <c r="J11" s="680"/>
-      <c r="K11" s="680"/>
-      <c r="L11" s="680"/>
-      <c r="M11" s="680"/>
-      <c r="N11" s="680"/>
-      <c r="O11" s="680"/>
-      <c r="P11" s="680"/>
-      <c r="Q11" s="680"/>
-      <c r="R11" s="680"/>
-      <c r="S11" s="680"/>
-      <c r="T11" s="680"/>
-      <c r="U11" s="680"/>
-      <c r="V11" s="680"/>
-      <c r="W11" s="680"/>
-      <c r="X11" s="680"/>
-      <c r="Y11" s="680"/>
-      <c r="Z11" s="680"/>
-      <c r="AA11" s="680"/>
+      <c r="C11" s="675"/>
+      <c r="D11" s="675"/>
+      <c r="E11" s="675"/>
+      <c r="F11" s="675"/>
+      <c r="G11" s="675"/>
+      <c r="H11" s="675"/>
+      <c r="I11" s="675"/>
+      <c r="J11" s="675"/>
+      <c r="K11" s="675"/>
+      <c r="L11" s="675"/>
+      <c r="M11" s="675"/>
+      <c r="N11" s="675"/>
+      <c r="O11" s="675"/>
+      <c r="P11" s="675"/>
+      <c r="Q11" s="675"/>
+      <c r="R11" s="675"/>
+      <c r="S11" s="675"/>
+      <c r="T11" s="675"/>
+      <c r="U11" s="675"/>
+      <c r="V11" s="675"/>
+      <c r="W11" s="675"/>
+      <c r="X11" s="675"/>
+      <c r="Y11" s="675"/>
+      <c r="Z11" s="675"/>
+      <c r="AA11" s="675"/>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:28" ht="62.2" customHeight="1">
-      <c r="A12" s="672"/>
-      <c r="B12" s="681" t="str">
+      <c r="A12" s="669"/>
+      <c r="B12" s="676" t="str">
         <f>IF($A$1,"1) Tendances des ventes et du nombre de clients actuelles en %
 2) Ventes et nombre de clients de l'année précédente tirés de Clearview","
 1. Current Trending % for Sales and Guest Counts.
@@ -9296,167 +9296,167 @@
 1. Current Trending % for Sales and Guest Counts.
 2. Previous Year Sales and Guest Counts from Clearview.</v>
       </c>
-      <c r="C12" s="681"/>
-      <c r="D12" s="681"/>
-      <c r="E12" s="681"/>
-      <c r="F12" s="681"/>
-      <c r="G12" s="681"/>
-      <c r="H12" s="681"/>
-      <c r="I12" s="681"/>
-      <c r="J12" s="681"/>
-      <c r="K12" s="681"/>
-      <c r="L12" s="681"/>
-      <c r="M12" s="681"/>
-      <c r="N12" s="681"/>
-      <c r="O12" s="681"/>
-      <c r="P12" s="681"/>
-      <c r="Q12" s="681"/>
-      <c r="R12" s="681"/>
-      <c r="S12" s="681"/>
-      <c r="T12" s="681"/>
-      <c r="U12" s="681"/>
-      <c r="V12" s="681"/>
-      <c r="W12" s="681"/>
-      <c r="X12" s="681"/>
-      <c r="Y12" s="681"/>
-      <c r="Z12" s="681"/>
-      <c r="AA12" s="681"/>
+      <c r="C12" s="676"/>
+      <c r="D12" s="676"/>
+      <c r="E12" s="676"/>
+      <c r="F12" s="676"/>
+      <c r="G12" s="676"/>
+      <c r="H12" s="676"/>
+      <c r="I12" s="676"/>
+      <c r="J12" s="676"/>
+      <c r="K12" s="676"/>
+      <c r="L12" s="676"/>
+      <c r="M12" s="676"/>
+      <c r="N12" s="676"/>
+      <c r="O12" s="676"/>
+      <c r="P12" s="676"/>
+      <c r="Q12" s="676"/>
+      <c r="R12" s="676"/>
+      <c r="S12" s="676"/>
+      <c r="T12" s="676"/>
+      <c r="U12" s="676"/>
+      <c r="V12" s="676"/>
+      <c r="W12" s="676"/>
+      <c r="X12" s="676"/>
+      <c r="Y12" s="676"/>
+      <c r="Z12" s="676"/>
+      <c r="AA12" s="676"/>
       <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A13" s="672"/>
-      <c r="B13" s="675" t="str">
+      <c r="A13" s="669"/>
+      <c r="B13" s="677" t="str">
         <f>IF($A$1,"Les ventes et le nombre de clients prévus se calculent automatiquement pour vous.","Projected Sales and Guest counts are automatically calculated for you.")</f>
         <v>Projected Sales and Guest counts are automatically calculated for you.</v>
       </c>
-      <c r="C13" s="675"/>
-      <c r="D13" s="675"/>
-      <c r="E13" s="675"/>
-      <c r="F13" s="675"/>
-      <c r="G13" s="675"/>
-      <c r="H13" s="675"/>
-      <c r="I13" s="675"/>
-      <c r="J13" s="675"/>
-      <c r="K13" s="675"/>
-      <c r="L13" s="675"/>
-      <c r="M13" s="675"/>
-      <c r="N13" s="675"/>
-      <c r="O13" s="675"/>
-      <c r="P13" s="675"/>
-      <c r="Q13" s="675"/>
-      <c r="R13" s="675"/>
-      <c r="S13" s="675"/>
-      <c r="T13" s="675"/>
-      <c r="U13" s="675"/>
-      <c r="V13" s="675"/>
-      <c r="W13" s="675"/>
-      <c r="X13" s="675"/>
-      <c r="Y13" s="675"/>
-      <c r="Z13" s="675"/>
-      <c r="AA13" s="675"/>
+      <c r="C13" s="677"/>
+      <c r="D13" s="677"/>
+      <c r="E13" s="677"/>
+      <c r="F13" s="677"/>
+      <c r="G13" s="677"/>
+      <c r="H13" s="677"/>
+      <c r="I13" s="677"/>
+      <c r="J13" s="677"/>
+      <c r="K13" s="677"/>
+      <c r="L13" s="677"/>
+      <c r="M13" s="677"/>
+      <c r="N13" s="677"/>
+      <c r="O13" s="677"/>
+      <c r="P13" s="677"/>
+      <c r="Q13" s="677"/>
+      <c r="R13" s="677"/>
+      <c r="S13" s="677"/>
+      <c r="T13" s="677"/>
+      <c r="U13" s="677"/>
+      <c r="V13" s="677"/>
+      <c r="W13" s="677"/>
+      <c r="X13" s="677"/>
+      <c r="Y13" s="677"/>
+      <c r="Z13" s="677"/>
+      <c r="AA13" s="677"/>
       <c r="AB13" s="5"/>
     </row>
     <row r="14" spans="1:28" ht="49.05" customHeight="1">
-      <c r="A14" s="672"/>
-      <c r="B14" s="673" t="str">
+      <c r="A14" s="669"/>
+      <c r="B14" s="665" t="str">
         <f>IF($A$1,"3) Données sur les cibles (ventes prévues à l'état des résultats/salaire moyen (sans les jours fériés en $/vacances en $/TPÉH ciblées/vacances et cours payés (heures))/main-d'œuvre prévue à l'état des résultats en %)","3. Targets information (P&amp;L Planned Sales / Av. Wage (W/O Stat Hol. $ / Stat. Holiday Dollars / Targeted TPCH / Salary Holidays and Classes (Hours) / P&amp;L Planned Labour %.")</f>
         <v>3. Targets information (P&amp;L Planned Sales / Av. Wage (W/O Stat Hol. $ / Stat. Holiday Dollars / Targeted TPCH / Salary Holidays and Classes (Hours) / P&amp;L Planned Labour %.</v>
       </c>
-      <c r="C14" s="673"/>
-      <c r="D14" s="673"/>
-      <c r="E14" s="673"/>
-      <c r="F14" s="673"/>
-      <c r="G14" s="673"/>
-      <c r="H14" s="673"/>
-      <c r="I14" s="673"/>
-      <c r="J14" s="673"/>
-      <c r="K14" s="673"/>
-      <c r="L14" s="673"/>
-      <c r="M14" s="673"/>
-      <c r="N14" s="673"/>
-      <c r="O14" s="673"/>
-      <c r="P14" s="673"/>
-      <c r="Q14" s="673"/>
-      <c r="R14" s="673"/>
-      <c r="S14" s="673"/>
-      <c r="T14" s="673"/>
-      <c r="U14" s="673"/>
-      <c r="V14" s="673"/>
-      <c r="W14" s="673"/>
-      <c r="X14" s="673"/>
-      <c r="Y14" s="673"/>
-      <c r="Z14" s="673"/>
-      <c r="AA14" s="673"/>
+      <c r="C14" s="665"/>
+      <c r="D14" s="665"/>
+      <c r="E14" s="665"/>
+      <c r="F14" s="665"/>
+      <c r="G14" s="665"/>
+      <c r="H14" s="665"/>
+      <c r="I14" s="665"/>
+      <c r="J14" s="665"/>
+      <c r="K14" s="665"/>
+      <c r="L14" s="665"/>
+      <c r="M14" s="665"/>
+      <c r="N14" s="665"/>
+      <c r="O14" s="665"/>
+      <c r="P14" s="665"/>
+      <c r="Q14" s="665"/>
+      <c r="R14" s="665"/>
+      <c r="S14" s="665"/>
+      <c r="T14" s="665"/>
+      <c r="U14" s="665"/>
+      <c r="V14" s="665"/>
+      <c r="W14" s="665"/>
+      <c r="X14" s="665"/>
+      <c r="Y14" s="665"/>
+      <c r="Z14" s="665"/>
+      <c r="AA14" s="665"/>
       <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:28" ht="44.2" customHeight="1">
-      <c r="A15" s="672"/>
-      <c r="B15" s="675" t="str">
+      <c r="A15" s="669"/>
+      <c r="B15" s="677" t="str">
         <f>IF($A$1,"Les valeurs calculées s'entrent automatiquement dans l’Agenda de planification et l'horaire de l'équipe de gestion.","The calculated values will automatically populate to the 'Planner' and 'Management Schedule'.")</f>
         <v>The calculated values will automatically populate to the 'Planner' and 'Management Schedule'.</v>
       </c>
-      <c r="C15" s="675"/>
-      <c r="D15" s="675"/>
-      <c r="E15" s="675"/>
-      <c r="F15" s="675"/>
-      <c r="G15" s="675"/>
-      <c r="H15" s="675"/>
-      <c r="I15" s="675"/>
-      <c r="J15" s="675"/>
-      <c r="K15" s="675"/>
-      <c r="L15" s="675"/>
-      <c r="M15" s="675"/>
-      <c r="N15" s="675"/>
-      <c r="O15" s="675"/>
-      <c r="P15" s="675"/>
-      <c r="Q15" s="675"/>
-      <c r="R15" s="675"/>
-      <c r="S15" s="675"/>
-      <c r="T15" s="675"/>
-      <c r="U15" s="675"/>
-      <c r="V15" s="675"/>
-      <c r="W15" s="675"/>
-      <c r="X15" s="675"/>
-      <c r="Y15" s="675"/>
-      <c r="Z15" s="675"/>
-      <c r="AA15" s="675"/>
+      <c r="C15" s="677"/>
+      <c r="D15" s="677"/>
+      <c r="E15" s="677"/>
+      <c r="F15" s="677"/>
+      <c r="G15" s="677"/>
+      <c r="H15" s="677"/>
+      <c r="I15" s="677"/>
+      <c r="J15" s="677"/>
+      <c r="K15" s="677"/>
+      <c r="L15" s="677"/>
+      <c r="M15" s="677"/>
+      <c r="N15" s="677"/>
+      <c r="O15" s="677"/>
+      <c r="P15" s="677"/>
+      <c r="Q15" s="677"/>
+      <c r="R15" s="677"/>
+      <c r="S15" s="677"/>
+      <c r="T15" s="677"/>
+      <c r="U15" s="677"/>
+      <c r="V15" s="677"/>
+      <c r="W15" s="677"/>
+      <c r="X15" s="677"/>
+      <c r="Y15" s="677"/>
+      <c r="Z15" s="677"/>
+      <c r="AA15" s="677"/>
       <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A16" s="665" t="str">
+      <c r="A16" s="666" t="str">
         <f>IF($A$1,"Entrée (vacances, jours de congé, cours de formation, MB) - ONGLET ","Enter (Vac, Book Offs, TRCL, MB) - TAB")</f>
         <v>Enter (Vac, Book Offs, TRCL, MB) - TAB</v>
       </c>
-      <c r="B16" s="665"/>
-      <c r="C16" s="665"/>
-      <c r="D16" s="665"/>
-      <c r="E16" s="665"/>
-      <c r="F16" s="665"/>
-      <c r="G16" s="665"/>
-      <c r="H16" s="665"/>
-      <c r="I16" s="665"/>
-      <c r="J16" s="665"/>
-      <c r="K16" s="665"/>
-      <c r="L16" s="665"/>
-      <c r="M16" s="665"/>
-      <c r="N16" s="665"/>
-      <c r="O16" s="665"/>
-      <c r="P16" s="665"/>
-      <c r="Q16" s="665"/>
-      <c r="R16" s="665"/>
-      <c r="S16" s="665"/>
-      <c r="T16" s="665"/>
-      <c r="U16" s="665"/>
-      <c r="V16" s="665"/>
-      <c r="W16" s="665"/>
-      <c r="X16" s="665"/>
-      <c r="Y16" s="665"/>
-      <c r="Z16" s="665"/>
-      <c r="AA16" s="665"/>
+      <c r="B16" s="666"/>
+      <c r="C16" s="666"/>
+      <c r="D16" s="666"/>
+      <c r="E16" s="666"/>
+      <c r="F16" s="666"/>
+      <c r="G16" s="666"/>
+      <c r="H16" s="666"/>
+      <c r="I16" s="666"/>
+      <c r="J16" s="666"/>
+      <c r="K16" s="666"/>
+      <c r="L16" s="666"/>
+      <c r="M16" s="666"/>
+      <c r="N16" s="666"/>
+      <c r="O16" s="666"/>
+      <c r="P16" s="666"/>
+      <c r="Q16" s="666"/>
+      <c r="R16" s="666"/>
+      <c r="S16" s="666"/>
+      <c r="T16" s="666"/>
+      <c r="U16" s="666"/>
+      <c r="V16" s="666"/>
+      <c r="W16" s="666"/>
+      <c r="X16" s="666"/>
+      <c r="Y16" s="666"/>
+      <c r="Z16" s="666"/>
+      <c r="AA16" s="666"/>
       <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A17" s="672">
+      <c r="A17" s="669">
         <v>3</v>
       </c>
       <c r="B17" s="667" t="s">
@@ -9490,7 +9490,7 @@
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A18" s="672"/>
+      <c r="A18" s="669"/>
       <c r="B18" s="667" t="str">
         <f>IF($A$1,"1) Noms des membres de l'équipe de gestion dans la colonne de gauche","1. Management Team names on the left column.")</f>
         <v>1. Management Team names on the left column.</v>
@@ -9522,363 +9522,363 @@
       <c r="AA18" s="667"/>
     </row>
     <row r="19" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A19" s="672"/>
-      <c r="B19" s="673" t="str">
+      <c r="A19" s="669"/>
+      <c r="B19" s="665" t="str">
         <f>IF($A$1,"2) Vacances, jours de congé, cours de formation, etc. Servez-vous du menu déroulant.","2. Vacation, Book Offs, Training Class ect. Using the drop down boxes.")</f>
         <v>2. Vacation, Book Offs, Training Class ect. Using the drop down boxes.</v>
       </c>
-      <c r="C19" s="673"/>
-      <c r="D19" s="673"/>
-      <c r="E19" s="673"/>
-      <c r="F19" s="673"/>
-      <c r="G19" s="673"/>
-      <c r="H19" s="673"/>
-      <c r="I19" s="673"/>
-      <c r="J19" s="673"/>
-      <c r="K19" s="673"/>
-      <c r="L19" s="673"/>
-      <c r="M19" s="673"/>
-      <c r="N19" s="673"/>
-      <c r="O19" s="673"/>
-      <c r="P19" s="673"/>
-      <c r="Q19" s="673"/>
-      <c r="R19" s="673"/>
-      <c r="S19" s="673"/>
-      <c r="T19" s="673"/>
-      <c r="U19" s="673"/>
-      <c r="V19" s="673"/>
-      <c r="W19" s="673"/>
-      <c r="X19" s="673"/>
-      <c r="Y19" s="673"/>
-      <c r="Z19" s="673"/>
-      <c r="AA19" s="673"/>
+      <c r="C19" s="665"/>
+      <c r="D19" s="665"/>
+      <c r="E19" s="665"/>
+      <c r="F19" s="665"/>
+      <c r="G19" s="665"/>
+      <c r="H19" s="665"/>
+      <c r="I19" s="665"/>
+      <c r="J19" s="665"/>
+      <c r="K19" s="665"/>
+      <c r="L19" s="665"/>
+      <c r="M19" s="665"/>
+      <c r="N19" s="665"/>
+      <c r="O19" s="665"/>
+      <c r="P19" s="665"/>
+      <c r="Q19" s="665"/>
+      <c r="R19" s="665"/>
+      <c r="S19" s="665"/>
+      <c r="T19" s="665"/>
+      <c r="U19" s="665"/>
+      <c r="V19" s="665"/>
+      <c r="W19" s="665"/>
+      <c r="X19" s="665"/>
+      <c r="Y19" s="665"/>
+      <c r="Z19" s="665"/>
+      <c r="AA19" s="665"/>
     </row>
     <row r="20" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A20" s="672"/>
-      <c r="B20" s="673" t="str">
+      <c r="A20" s="669"/>
+      <c r="B20" s="665" t="str">
         <f>IF($A$1,"3) Au bas du tableau, sélectionnez les activités de Martin-Brower ","3. At the bottom of the chart select Brower activities")</f>
         <v>3. At the bottom of the chart select Brower activities</v>
       </c>
-      <c r="C20" s="673"/>
-      <c r="D20" s="673"/>
-      <c r="E20" s="673"/>
-      <c r="F20" s="673"/>
-      <c r="G20" s="673"/>
-      <c r="H20" s="673"/>
-      <c r="I20" s="673"/>
-      <c r="J20" s="673"/>
-      <c r="K20" s="673"/>
-      <c r="L20" s="673"/>
-      <c r="M20" s="673"/>
-      <c r="N20" s="673"/>
-      <c r="O20" s="673"/>
-      <c r="P20" s="673"/>
-      <c r="Q20" s="673"/>
-      <c r="R20" s="673"/>
-      <c r="S20" s="673"/>
-      <c r="T20" s="673"/>
-      <c r="U20" s="673"/>
-      <c r="V20" s="673"/>
-      <c r="W20" s="673"/>
-      <c r="X20" s="673"/>
-      <c r="Y20" s="673"/>
-      <c r="Z20" s="673"/>
-      <c r="AA20" s="673"/>
+      <c r="C20" s="665"/>
+      <c r="D20" s="665"/>
+      <c r="E20" s="665"/>
+      <c r="F20" s="665"/>
+      <c r="G20" s="665"/>
+      <c r="H20" s="665"/>
+      <c r="I20" s="665"/>
+      <c r="J20" s="665"/>
+      <c r="K20" s="665"/>
+      <c r="L20" s="665"/>
+      <c r="M20" s="665"/>
+      <c r="N20" s="665"/>
+      <c r="O20" s="665"/>
+      <c r="P20" s="665"/>
+      <c r="Q20" s="665"/>
+      <c r="R20" s="665"/>
+      <c r="S20" s="665"/>
+      <c r="T20" s="665"/>
+      <c r="U20" s="665"/>
+      <c r="V20" s="665"/>
+      <c r="W20" s="665"/>
+      <c r="X20" s="665"/>
+      <c r="Y20" s="665"/>
+      <c r="Z20" s="665"/>
+      <c r="AA20" s="665"/>
     </row>
     <row r="21" spans="1:28" ht="47.55" customHeight="1">
-      <c r="A21" s="672"/>
-      <c r="B21" s="673" t="str">
+      <c r="A21" s="669"/>
+      <c r="B21" s="665" t="str">
         <f>IF($A$1,"(appel, livraisons ou appel/livraisons) et les tâches d'entretien préventif de l'appareil à laits ultra-frappés et à lait glacé pour en faire le suivi (une fois par semaine, par cycle et trousse de mise au point trimestrielle)."," (Call, Delivery, or Call/Delivery) and Shake machine PM tasks for follow up (Weekly, Cycle, and Quarterly Tune up kit).")</f>
         <v xml:space="preserve"> (Call, Delivery, or Call/Delivery) and Shake machine PM tasks for follow up (Weekly, Cycle, and Quarterly Tune up kit).</v>
       </c>
-      <c r="C21" s="673"/>
-      <c r="D21" s="673"/>
-      <c r="E21" s="673"/>
-      <c r="F21" s="673"/>
-      <c r="G21" s="673"/>
-      <c r="H21" s="673"/>
-      <c r="I21" s="673"/>
-      <c r="J21" s="673"/>
-      <c r="K21" s="673"/>
-      <c r="L21" s="673"/>
-      <c r="M21" s="673"/>
-      <c r="N21" s="673"/>
-      <c r="O21" s="673"/>
-      <c r="P21" s="673"/>
-      <c r="Q21" s="673"/>
-      <c r="R21" s="673"/>
-      <c r="S21" s="673"/>
-      <c r="T21" s="673"/>
-      <c r="U21" s="673"/>
-      <c r="V21" s="673"/>
-      <c r="W21" s="673"/>
-      <c r="X21" s="673"/>
-      <c r="Y21" s="673"/>
-      <c r="Z21" s="673"/>
-      <c r="AA21" s="673"/>
+      <c r="C21" s="665"/>
+      <c r="D21" s="665"/>
+      <c r="E21" s="665"/>
+      <c r="F21" s="665"/>
+      <c r="G21" s="665"/>
+      <c r="H21" s="665"/>
+      <c r="I21" s="665"/>
+      <c r="J21" s="665"/>
+      <c r="K21" s="665"/>
+      <c r="L21" s="665"/>
+      <c r="M21" s="665"/>
+      <c r="N21" s="665"/>
+      <c r="O21" s="665"/>
+      <c r="P21" s="665"/>
+      <c r="Q21" s="665"/>
+      <c r="R21" s="665"/>
+      <c r="S21" s="665"/>
+      <c r="T21" s="665"/>
+      <c r="U21" s="665"/>
+      <c r="V21" s="665"/>
+      <c r="W21" s="665"/>
+      <c r="X21" s="665"/>
+      <c r="Y21" s="665"/>
+      <c r="Z21" s="665"/>
+      <c r="AA21" s="665"/>
     </row>
     <row r="22" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A22" s="672"/>
-      <c r="B22" s="674" t="str">
+      <c r="A22" s="669"/>
+      <c r="B22" s="682" t="str">
         <f>IF($A$1,"Le nom et les activités des membres de l'équipe de gestion entrés dans cet onglet se reporteront automatiquement dans l'horaire des membres de l'équipe de gestion.","The individual Management names and activities entered in this tab will automatically populate to the Manager's Schedule.")</f>
         <v>The individual Management names and activities entered in this tab will automatically populate to the Manager's Schedule.</v>
       </c>
-      <c r="C22" s="675"/>
-      <c r="D22" s="675"/>
-      <c r="E22" s="675"/>
-      <c r="F22" s="675"/>
-      <c r="G22" s="675"/>
-      <c r="H22" s="675"/>
-      <c r="I22" s="675"/>
-      <c r="J22" s="675"/>
-      <c r="K22" s="675"/>
-      <c r="L22" s="675"/>
-      <c r="M22" s="675"/>
-      <c r="N22" s="675"/>
-      <c r="O22" s="675"/>
-      <c r="P22" s="675"/>
-      <c r="Q22" s="675"/>
-      <c r="R22" s="675"/>
-      <c r="S22" s="675"/>
-      <c r="T22" s="675"/>
-      <c r="U22" s="675"/>
-      <c r="V22" s="675"/>
-      <c r="W22" s="675"/>
-      <c r="X22" s="675"/>
-      <c r="Y22" s="675"/>
-      <c r="Z22" s="675"/>
-      <c r="AA22" s="675"/>
+      <c r="C22" s="677"/>
+      <c r="D22" s="677"/>
+      <c r="E22" s="677"/>
+      <c r="F22" s="677"/>
+      <c r="G22" s="677"/>
+      <c r="H22" s="677"/>
+      <c r="I22" s="677"/>
+      <c r="J22" s="677"/>
+      <c r="K22" s="677"/>
+      <c r="L22" s="677"/>
+      <c r="M22" s="677"/>
+      <c r="N22" s="677"/>
+      <c r="O22" s="677"/>
+      <c r="P22" s="677"/>
+      <c r="Q22" s="677"/>
+      <c r="R22" s="677"/>
+      <c r="S22" s="677"/>
+      <c r="T22" s="677"/>
+      <c r="U22" s="677"/>
+      <c r="V22" s="677"/>
+      <c r="W22" s="677"/>
+      <c r="X22" s="677"/>
+      <c r="Y22" s="677"/>
+      <c r="Z22" s="677"/>
+      <c r="AA22" s="677"/>
     </row>
     <row r="23" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A23" s="665" t="str">
+      <c r="A23" s="666" t="str">
         <f>IF($A$1,"Agenda de planification - ONGLET","Planner - TAB")</f>
         <v>Planner - TAB</v>
       </c>
-      <c r="B23" s="665"/>
-      <c r="C23" s="665"/>
-      <c r="D23" s="665"/>
-      <c r="E23" s="665"/>
-      <c r="F23" s="665"/>
-      <c r="G23" s="665"/>
-      <c r="H23" s="665"/>
-      <c r="I23" s="665"/>
-      <c r="J23" s="665"/>
-      <c r="K23" s="665"/>
-      <c r="L23" s="665"/>
-      <c r="M23" s="665"/>
-      <c r="N23" s="665"/>
-      <c r="O23" s="665"/>
-      <c r="P23" s="665"/>
-      <c r="Q23" s="665"/>
-      <c r="R23" s="665"/>
-      <c r="S23" s="665"/>
-      <c r="T23" s="665"/>
-      <c r="U23" s="665"/>
-      <c r="V23" s="665"/>
-      <c r="W23" s="665"/>
-      <c r="X23" s="665"/>
-      <c r="Y23" s="665"/>
-      <c r="Z23" s="665"/>
-      <c r="AA23" s="665"/>
+      <c r="B23" s="666"/>
+      <c r="C23" s="666"/>
+      <c r="D23" s="666"/>
+      <c r="E23" s="666"/>
+      <c r="F23" s="666"/>
+      <c r="G23" s="666"/>
+      <c r="H23" s="666"/>
+      <c r="I23" s="666"/>
+      <c r="J23" s="666"/>
+      <c r="K23" s="666"/>
+      <c r="L23" s="666"/>
+      <c r="M23" s="666"/>
+      <c r="N23" s="666"/>
+      <c r="O23" s="666"/>
+      <c r="P23" s="666"/>
+      <c r="Q23" s="666"/>
+      <c r="R23" s="666"/>
+      <c r="S23" s="666"/>
+      <c r="T23" s="666"/>
+      <c r="U23" s="666"/>
+      <c r="V23" s="666"/>
+      <c r="W23" s="666"/>
+      <c r="X23" s="666"/>
+      <c r="Y23" s="666"/>
+      <c r="Z23" s="666"/>
+      <c r="AA23" s="666"/>
     </row>
     <row r="24" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A24" s="672">
+      <c r="A24" s="669">
         <v>4</v>
       </c>
-      <c r="B24" s="676" t="str">
+      <c r="B24" s="673" t="str">
         <f>IF($A$1,"Entrez les activités supplémentaires du gérant général et des responsables de département.","Enter additional Management and Department Lead activies")</f>
         <v>Enter additional Management and Department Lead activies</v>
       </c>
-      <c r="C24" s="676"/>
-      <c r="D24" s="676"/>
-      <c r="E24" s="676"/>
-      <c r="F24" s="676"/>
-      <c r="G24" s="676"/>
-      <c r="H24" s="676"/>
-      <c r="I24" s="676"/>
-      <c r="J24" s="676"/>
-      <c r="K24" s="676"/>
-      <c r="L24" s="676"/>
-      <c r="M24" s="676"/>
-      <c r="N24" s="676"/>
-      <c r="O24" s="676"/>
-      <c r="P24" s="676"/>
-      <c r="Q24" s="676"/>
-      <c r="R24" s="676"/>
-      <c r="S24" s="676"/>
-      <c r="T24" s="676"/>
-      <c r="U24" s="676"/>
-      <c r="V24" s="676"/>
-      <c r="W24" s="676"/>
-      <c r="X24" s="676"/>
-      <c r="Y24" s="676"/>
-      <c r="Z24" s="676"/>
-      <c r="AA24" s="676"/>
+      <c r="C24" s="673"/>
+      <c r="D24" s="673"/>
+      <c r="E24" s="673"/>
+      <c r="F24" s="673"/>
+      <c r="G24" s="673"/>
+      <c r="H24" s="673"/>
+      <c r="I24" s="673"/>
+      <c r="J24" s="673"/>
+      <c r="K24" s="673"/>
+      <c r="L24" s="673"/>
+      <c r="M24" s="673"/>
+      <c r="N24" s="673"/>
+      <c r="O24" s="673"/>
+      <c r="P24" s="673"/>
+      <c r="Q24" s="673"/>
+      <c r="R24" s="673"/>
+      <c r="S24" s="673"/>
+      <c r="T24" s="673"/>
+      <c r="U24" s="673"/>
+      <c r="V24" s="673"/>
+      <c r="W24" s="673"/>
+      <c r="X24" s="673"/>
+      <c r="Y24" s="673"/>
+      <c r="Z24" s="673"/>
+      <c r="AA24" s="673"/>
     </row>
     <row r="25" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A25" s="672"/>
-      <c r="B25" s="666" t="str">
+      <c r="A25" s="669"/>
+      <c r="B25" s="670" t="str">
         <f>IF($A$1,"*Les objectifs du plan d’affaires doivent également être reportés dans l'Agenda de planification.","* Any actionables from your Business Plan should be transferred to the Planner")</f>
         <v>* Any actionables from your Business Plan should be transferred to the Planner</v>
       </c>
-      <c r="C25" s="666"/>
-      <c r="D25" s="666"/>
-      <c r="E25" s="666"/>
-      <c r="F25" s="666"/>
-      <c r="G25" s="666"/>
-      <c r="H25" s="666"/>
-      <c r="I25" s="666"/>
-      <c r="J25" s="666"/>
-      <c r="K25" s="666"/>
-      <c r="L25" s="666"/>
-      <c r="M25" s="666"/>
-      <c r="N25" s="666"/>
-      <c r="O25" s="666"/>
-      <c r="P25" s="666"/>
-      <c r="Q25" s="666"/>
-      <c r="R25" s="666"/>
-      <c r="S25" s="666"/>
-      <c r="T25" s="666"/>
-      <c r="U25" s="666"/>
-      <c r="V25" s="666"/>
-      <c r="W25" s="666"/>
-      <c r="X25" s="666"/>
-      <c r="Y25" s="666"/>
-      <c r="Z25" s="666"/>
-      <c r="AA25" s="666"/>
+      <c r="C25" s="670"/>
+      <c r="D25" s="670"/>
+      <c r="E25" s="670"/>
+      <c r="F25" s="670"/>
+      <c r="G25" s="670"/>
+      <c r="H25" s="670"/>
+      <c r="I25" s="670"/>
+      <c r="J25" s="670"/>
+      <c r="K25" s="670"/>
+      <c r="L25" s="670"/>
+      <c r="M25" s="670"/>
+      <c r="N25" s="670"/>
+      <c r="O25" s="670"/>
+      <c r="P25" s="670"/>
+      <c r="Q25" s="670"/>
+      <c r="R25" s="670"/>
+      <c r="S25" s="670"/>
+      <c r="T25" s="670"/>
+      <c r="U25" s="670"/>
+      <c r="V25" s="670"/>
+      <c r="W25" s="670"/>
+      <c r="X25" s="670"/>
+      <c r="Y25" s="670"/>
+      <c r="Z25" s="670"/>
+      <c r="AA25" s="670"/>
     </row>
     <row r="26" spans="1:28" ht="49.05" customHeight="1">
-      <c r="A26" s="672"/>
-      <c r="B26" s="677" t="str">
+      <c r="A26" s="669"/>
+      <c r="B26" s="671" t="str">
         <f>IF($A$1,"*Validez que toutes les activités des nouveaux projets figurant sur les Listes de vérification du déploiement ont bien été ajoutées à l'Agenda de planification (Accepter les hausses, la programmation de l'ERF, la commande d'équipement, etc.).","* Validate all activities for any new initiative's on the Deployment Checklists have been added to Planner (Accept lifts, RFM programming, Equipement ordering etc.)")</f>
         <v>* Validate all activities for any new initiative's on the Deployment Checklists have been added to Planner (Accept lifts, RFM programming, Equipement ordering etc.)</v>
       </c>
-      <c r="C26" s="677"/>
-      <c r="D26" s="677"/>
-      <c r="E26" s="677"/>
-      <c r="F26" s="677"/>
-      <c r="G26" s="677"/>
-      <c r="H26" s="677"/>
-      <c r="I26" s="677"/>
-      <c r="J26" s="677"/>
-      <c r="K26" s="677"/>
-      <c r="L26" s="677"/>
-      <c r="M26" s="677"/>
-      <c r="N26" s="677"/>
-      <c r="O26" s="677"/>
-      <c r="P26" s="677"/>
-      <c r="Q26" s="677"/>
-      <c r="R26" s="677"/>
-      <c r="S26" s="677"/>
-      <c r="T26" s="677"/>
-      <c r="U26" s="677"/>
-      <c r="V26" s="677"/>
-      <c r="W26" s="677"/>
-      <c r="X26" s="677"/>
-      <c r="Y26" s="677"/>
-      <c r="Z26" s="677"/>
-      <c r="AA26" s="677"/>
+      <c r="C26" s="671"/>
+      <c r="D26" s="671"/>
+      <c r="E26" s="671"/>
+      <c r="F26" s="671"/>
+      <c r="G26" s="671"/>
+      <c r="H26" s="671"/>
+      <c r="I26" s="671"/>
+      <c r="J26" s="671"/>
+      <c r="K26" s="671"/>
+      <c r="L26" s="671"/>
+      <c r="M26" s="671"/>
+      <c r="N26" s="671"/>
+      <c r="O26" s="671"/>
+      <c r="P26" s="671"/>
+      <c r="Q26" s="671"/>
+      <c r="R26" s="671"/>
+      <c r="S26" s="671"/>
+      <c r="T26" s="671"/>
+      <c r="U26" s="671"/>
+      <c r="V26" s="671"/>
+      <c r="W26" s="671"/>
+      <c r="X26" s="671"/>
+      <c r="Y26" s="671"/>
+      <c r="Z26" s="671"/>
+      <c r="AA26" s="671"/>
     </row>
     <row r="27" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A27" s="672"/>
-      <c r="B27" s="673" t="str">
+      <c r="A27" s="669"/>
+      <c r="B27" s="665" t="str">
         <f>IF($A$1,"*Assurez-vous de prévoir suffisamment de temps aux quarts des gérants pour qu’ils puissent effectuer les tâches et s'acquitter des responsabilités qui leur sont assignées.","* Ensure sufficient time is allotted during the manager’s shifts to complete their assigned tasks and responsibilities.")</f>
         <v>* Ensure sufficient time is allotted during the manager’s shifts to complete their assigned tasks and responsibilities.</v>
       </c>
-      <c r="C27" s="673"/>
-      <c r="D27" s="673"/>
-      <c r="E27" s="673"/>
-      <c r="F27" s="673"/>
-      <c r="G27" s="673"/>
-      <c r="H27" s="673"/>
-      <c r="I27" s="673"/>
-      <c r="J27" s="673"/>
-      <c r="K27" s="673"/>
-      <c r="L27" s="673"/>
-      <c r="M27" s="673"/>
-      <c r="N27" s="673"/>
-      <c r="O27" s="673"/>
-      <c r="P27" s="673"/>
-      <c r="Q27" s="673"/>
-      <c r="R27" s="673"/>
-      <c r="S27" s="673"/>
-      <c r="T27" s="673"/>
-      <c r="U27" s="673"/>
-      <c r="V27" s="673"/>
-      <c r="W27" s="673"/>
-      <c r="X27" s="673"/>
-      <c r="Y27" s="673"/>
-      <c r="Z27" s="673"/>
-      <c r="AA27" s="673"/>
+      <c r="C27" s="665"/>
+      <c r="D27" s="665"/>
+      <c r="E27" s="665"/>
+      <c r="F27" s="665"/>
+      <c r="G27" s="665"/>
+      <c r="H27" s="665"/>
+      <c r="I27" s="665"/>
+      <c r="J27" s="665"/>
+      <c r="K27" s="665"/>
+      <c r="L27" s="665"/>
+      <c r="M27" s="665"/>
+      <c r="N27" s="665"/>
+      <c r="O27" s="665"/>
+      <c r="P27" s="665"/>
+      <c r="Q27" s="665"/>
+      <c r="R27" s="665"/>
+      <c r="S27" s="665"/>
+      <c r="T27" s="665"/>
+      <c r="U27" s="665"/>
+      <c r="V27" s="665"/>
+      <c r="W27" s="665"/>
+      <c r="X27" s="665"/>
+      <c r="Y27" s="665"/>
+      <c r="Z27" s="665"/>
+      <c r="AA27" s="665"/>
     </row>
     <row r="28" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A28" s="665" t="str">
+      <c r="A28" s="666" t="str">
         <f>IF($A$1,"Horaire de l’équipe de gestion","Manager's Schedule - TAB")</f>
         <v>Manager's Schedule - TAB</v>
       </c>
-      <c r="B28" s="665"/>
-      <c r="C28" s="665"/>
-      <c r="D28" s="665"/>
-      <c r="E28" s="665"/>
-      <c r="F28" s="665"/>
-      <c r="G28" s="665"/>
-      <c r="H28" s="665"/>
-      <c r="I28" s="665"/>
-      <c r="J28" s="665"/>
-      <c r="K28" s="665"/>
-      <c r="L28" s="665"/>
-      <c r="M28" s="665"/>
-      <c r="N28" s="665"/>
-      <c r="O28" s="665"/>
-      <c r="P28" s="665"/>
-      <c r="Q28" s="665"/>
-      <c r="R28" s="665"/>
-      <c r="S28" s="665"/>
-      <c r="T28" s="665"/>
-      <c r="U28" s="665"/>
-      <c r="V28" s="665"/>
-      <c r="W28" s="665"/>
-      <c r="X28" s="665"/>
-      <c r="Y28" s="665"/>
-      <c r="Z28" s="665"/>
-      <c r="AA28" s="665"/>
+      <c r="B28" s="666"/>
+      <c r="C28" s="666"/>
+      <c r="D28" s="666"/>
+      <c r="E28" s="666"/>
+      <c r="F28" s="666"/>
+      <c r="G28" s="666"/>
+      <c r="H28" s="666"/>
+      <c r="I28" s="666"/>
+      <c r="J28" s="666"/>
+      <c r="K28" s="666"/>
+      <c r="L28" s="666"/>
+      <c r="M28" s="666"/>
+      <c r="N28" s="666"/>
+      <c r="O28" s="666"/>
+      <c r="P28" s="666"/>
+      <c r="Q28" s="666"/>
+      <c r="R28" s="666"/>
+      <c r="S28" s="666"/>
+      <c r="T28" s="666"/>
+      <c r="U28" s="666"/>
+      <c r="V28" s="666"/>
+      <c r="W28" s="666"/>
+      <c r="X28" s="666"/>
+      <c r="Y28" s="666"/>
+      <c r="Z28" s="666"/>
+      <c r="AA28" s="666"/>
     </row>
     <row r="29" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A29" s="672">
+      <c r="A29" s="669">
         <v>5</v>
       </c>
-      <c r="B29" s="666" t="str">
+      <c r="B29" s="670" t="str">
         <f>IF($A$1,"Entrez :","Enter:")</f>
         <v>Enter:</v>
       </c>
-      <c r="C29" s="666"/>
-      <c r="D29" s="666"/>
-      <c r="E29" s="666"/>
-      <c r="F29" s="666"/>
-      <c r="G29" s="666"/>
-      <c r="H29" s="666"/>
-      <c r="I29" s="666"/>
-      <c r="J29" s="666"/>
-      <c r="K29" s="666"/>
-      <c r="L29" s="666"/>
-      <c r="M29" s="666"/>
-      <c r="N29" s="666"/>
-      <c r="O29" s="666"/>
-      <c r="P29" s="666"/>
-      <c r="Q29" s="666"/>
-      <c r="R29" s="666"/>
-      <c r="S29" s="666"/>
-      <c r="T29" s="666"/>
-      <c r="U29" s="666"/>
-      <c r="V29" s="666"/>
-      <c r="W29" s="666"/>
-      <c r="X29" s="666"/>
-      <c r="Y29" s="666"/>
-      <c r="Z29" s="666"/>
-      <c r="AA29" s="666"/>
+      <c r="C29" s="670"/>
+      <c r="D29" s="670"/>
+      <c r="E29" s="670"/>
+      <c r="F29" s="670"/>
+      <c r="G29" s="670"/>
+      <c r="H29" s="670"/>
+      <c r="I29" s="670"/>
+      <c r="J29" s="670"/>
+      <c r="K29" s="670"/>
+      <c r="L29" s="670"/>
+      <c r="M29" s="670"/>
+      <c r="N29" s="670"/>
+      <c r="O29" s="670"/>
+      <c r="P29" s="670"/>
+      <c r="Q29" s="670"/>
+      <c r="R29" s="670"/>
+      <c r="S29" s="670"/>
+      <c r="T29" s="670"/>
+      <c r="U29" s="670"/>
+      <c r="V29" s="670"/>
+      <c r="W29" s="670"/>
+      <c r="X29" s="670"/>
+      <c r="Y29" s="670"/>
+      <c r="Z29" s="670"/>
+      <c r="AA29" s="670"/>
     </row>
     <row r="30" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A30" s="672"/>
+      <c r="A30" s="669"/>
       <c r="B30" s="667" t="str">
         <f>IF($A$1,"1) Événements spéciaux (journées de fermeture d'école, événements communautaires, jours fériés, dates du conseiller, etc.)","1. Special Events (School Closure days, Community Events, Special Holidays, Consultant Dates etc)")</f>
         <v>1. Special Events (School Closure days, Community Events, Special Holidays, Consultant Dates etc)</v>
@@ -9910,7 +9910,7 @@
       <c r="AA30" s="667"/>
     </row>
     <row r="31" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A31" s="672"/>
+      <c r="A31" s="669"/>
       <c r="B31" s="667" t="str">
         <f>IF($A$1,"2) Tâches routinières hebdomadaires et mensuelles (comme les horaires des équipiers, la commande) (consultez l'Agenda de planification et le Calendrier de formation)","2. Weekly and monthly routine tasks. (i.e. crew schedules &amp; ordering)( reference Planner and Training Calendar).")</f>
         <v>2. Weekly and monthly routine tasks. (i.e. crew schedules &amp; ordering)( reference Planner and Training Calendar).</v>
@@ -9942,71 +9942,71 @@
       <c r="AA31" s="667"/>
     </row>
     <row r="32" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A32" s="672"/>
-      <c r="B32" s="673" t="str">
+      <c r="A32" s="669"/>
+      <c r="B32" s="665" t="str">
         <f>IF($A$1,"3) Inscrivez à l'horaire les quarts requis en vue d'un QSP exceptionnel, respectez les principes d'établissement des horaires.","3. Schedule in shifts needed for Q.S.C., follow the Scheduling Principles.")</f>
         <v>3. Schedule in shifts needed for Q.S.C., follow the Scheduling Principles.</v>
       </c>
-      <c r="C32" s="673"/>
-      <c r="D32" s="673"/>
-      <c r="E32" s="673"/>
-      <c r="F32" s="673"/>
-      <c r="G32" s="673"/>
-      <c r="H32" s="673"/>
-      <c r="I32" s="673"/>
-      <c r="J32" s="673"/>
-      <c r="K32" s="673"/>
-      <c r="L32" s="673"/>
-      <c r="M32" s="673"/>
-      <c r="N32" s="673"/>
-      <c r="O32" s="673"/>
-      <c r="P32" s="673"/>
-      <c r="Q32" s="673"/>
-      <c r="R32" s="673"/>
-      <c r="S32" s="673"/>
-      <c r="T32" s="673"/>
-      <c r="U32" s="673"/>
-      <c r="V32" s="673"/>
-      <c r="W32" s="673"/>
-      <c r="X32" s="673"/>
-      <c r="Y32" s="673"/>
-      <c r="Z32" s="673"/>
-      <c r="AA32" s="673"/>
+      <c r="C32" s="665"/>
+      <c r="D32" s="665"/>
+      <c r="E32" s="665"/>
+      <c r="F32" s="665"/>
+      <c r="G32" s="665"/>
+      <c r="H32" s="665"/>
+      <c r="I32" s="665"/>
+      <c r="J32" s="665"/>
+      <c r="K32" s="665"/>
+      <c r="L32" s="665"/>
+      <c r="M32" s="665"/>
+      <c r="N32" s="665"/>
+      <c r="O32" s="665"/>
+      <c r="P32" s="665"/>
+      <c r="Q32" s="665"/>
+      <c r="R32" s="665"/>
+      <c r="S32" s="665"/>
+      <c r="T32" s="665"/>
+      <c r="U32" s="665"/>
+      <c r="V32" s="665"/>
+      <c r="W32" s="665"/>
+      <c r="X32" s="665"/>
+      <c r="Y32" s="665"/>
+      <c r="Z32" s="665"/>
+      <c r="AA32" s="665"/>
     </row>
     <row r="33" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A33" s="665" t="str">
+      <c r="A33" s="666" t="str">
         <f>IF($A$1,"Approbation de l'horaire","Schedule Approval")</f>
         <v>Schedule Approval</v>
       </c>
-      <c r="B33" s="665"/>
-      <c r="C33" s="665"/>
-      <c r="D33" s="665"/>
-      <c r="E33" s="665"/>
-      <c r="F33" s="665"/>
-      <c r="G33" s="665"/>
-      <c r="H33" s="665"/>
-      <c r="I33" s="665"/>
-      <c r="J33" s="665"/>
-      <c r="K33" s="665"/>
-      <c r="L33" s="665"/>
-      <c r="M33" s="665"/>
-      <c r="N33" s="665"/>
-      <c r="O33" s="665"/>
-      <c r="P33" s="665"/>
-      <c r="Q33" s="665"/>
-      <c r="R33" s="665"/>
-      <c r="S33" s="665"/>
-      <c r="T33" s="665"/>
-      <c r="U33" s="665"/>
-      <c r="V33" s="665"/>
-      <c r="W33" s="665"/>
-      <c r="X33" s="665"/>
-      <c r="Y33" s="665"/>
-      <c r="Z33" s="665"/>
-      <c r="AA33" s="665"/>
+      <c r="B33" s="666"/>
+      <c r="C33" s="666"/>
+      <c r="D33" s="666"/>
+      <c r="E33" s="666"/>
+      <c r="F33" s="666"/>
+      <c r="G33" s="666"/>
+      <c r="H33" s="666"/>
+      <c r="I33" s="666"/>
+      <c r="J33" s="666"/>
+      <c r="K33" s="666"/>
+      <c r="L33" s="666"/>
+      <c r="M33" s="666"/>
+      <c r="N33" s="666"/>
+      <c r="O33" s="666"/>
+      <c r="P33" s="666"/>
+      <c r="Q33" s="666"/>
+      <c r="R33" s="666"/>
+      <c r="S33" s="666"/>
+      <c r="T33" s="666"/>
+      <c r="U33" s="666"/>
+      <c r="V33" s="666"/>
+      <c r="W33" s="666"/>
+      <c r="X33" s="666"/>
+      <c r="Y33" s="666"/>
+      <c r="Z33" s="666"/>
+      <c r="AA33" s="666"/>
     </row>
     <row r="34" spans="1:28" ht="53.55" customHeight="1">
-      <c r="A34" s="672">
+      <c r="A34" s="669">
         <v>6</v>
       </c>
       <c r="B34" s="667" t="str">
@@ -10040,7 +10040,7 @@
       <c r="AA34" s="667"/>
     </row>
     <row r="35" spans="1:28" ht="29.2" customHeight="1">
-      <c r="A35" s="672"/>
+      <c r="A35" s="669"/>
       <c r="B35" s="667" t="str">
         <f>IF($A$1,"* Remettez à votre l’équipe une copie de votre Agenda de planification pour que chacun puisse noter ses quarts de travail.","* Distribute to your team as a record of what shifts they are working.")</f>
         <v>* Distribute to your team as a record of what shifts they are working.</v>
@@ -10072,7 +10072,7 @@
       <c r="AA35" s="667"/>
     </row>
     <row r="36" spans="1:28" ht="31.05" customHeight="1">
-      <c r="A36" s="672"/>
+      <c r="A36" s="669"/>
       <c r="B36" s="667" t="str">
         <f>IF($A$1,"* Affichez-en une copie dans le bureau du gérant.","* A copy should be posted in the manager’s office.")</f>
         <v>* A copy should be posted in the manager’s office.</v>
@@ -10104,36 +10104,36 @@
       <c r="AA36" s="667"/>
     </row>
     <row r="37" spans="1:28" ht="48" customHeight="1">
-      <c r="A37" s="682" t="str">
+      <c r="A37" s="668" t="str">
         <f>IF($A$1,"* Si vous avez des questions ou des recommandations/commentaires, sur cet outil, veuillez ne pas hésiter à communiquer avec Sonia.Avellaneda@ca.mcd.com - conseillère en Exploitation nationale.","If you have any questions/recommendations/comments, regarding this support tool, please do not hesitate to reach out to Sonia.Avellaneda@ca.mcd.com - National Operations Consultant.")</f>
         <v>If you have any questions/recommendations/comments, regarding this support tool, please do not hesitate to reach out to Sonia.Avellaneda@ca.mcd.com - National Operations Consultant.</v>
       </c>
-      <c r="B37" s="682"/>
-      <c r="C37" s="682"/>
-      <c r="D37" s="682"/>
-      <c r="E37" s="682"/>
-      <c r="F37" s="682"/>
-      <c r="G37" s="682"/>
-      <c r="H37" s="682"/>
-      <c r="I37" s="682"/>
-      <c r="J37" s="682"/>
-      <c r="K37" s="682"/>
-      <c r="L37" s="682"/>
-      <c r="M37" s="682"/>
-      <c r="N37" s="682"/>
-      <c r="O37" s="682"/>
-      <c r="P37" s="682"/>
-      <c r="Q37" s="682"/>
-      <c r="R37" s="682"/>
-      <c r="S37" s="682"/>
-      <c r="T37" s="682"/>
-      <c r="U37" s="682"/>
-      <c r="V37" s="682"/>
-      <c r="W37" s="682"/>
-      <c r="X37" s="682"/>
-      <c r="Y37" s="682"/>
-      <c r="Z37" s="682"/>
-      <c r="AA37" s="682"/>
+      <c r="B37" s="668"/>
+      <c r="C37" s="668"/>
+      <c r="D37" s="668"/>
+      <c r="E37" s="668"/>
+      <c r="F37" s="668"/>
+      <c r="G37" s="668"/>
+      <c r="H37" s="668"/>
+      <c r="I37" s="668"/>
+      <c r="J37" s="668"/>
+      <c r="K37" s="668"/>
+      <c r="L37" s="668"/>
+      <c r="M37" s="668"/>
+      <c r="N37" s="668"/>
+      <c r="O37" s="668"/>
+      <c r="P37" s="668"/>
+      <c r="Q37" s="668"/>
+      <c r="R37" s="668"/>
+      <c r="S37" s="668"/>
+      <c r="T37" s="668"/>
+      <c r="U37" s="668"/>
+      <c r="V37" s="668"/>
+      <c r="W37" s="668"/>
+      <c r="X37" s="668"/>
+      <c r="Y37" s="668"/>
+      <c r="Z37" s="668"/>
+      <c r="AA37" s="668"/>
     </row>
     <row r="38" spans="1:28" ht="45.75" customHeight="1">
       <c r="B38" s="5"/>
@@ -10260,28 +10260,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tmIAM8UGpP0kZcQl9s8eKvWJxmDUJ/lKSRFjdwPcVyJwpAujsG/9KgG3QZIOcMloO+EL+Tw/26bhIB6b4r00eA==" saltValue="LX4vT6IXGLmWuCrcnlFtnA==" spinCount="100000" sheet="1" formatCells="0"/>
   <mergeCells count="38">
-    <mergeCell ref="B32:AA32"/>
-    <mergeCell ref="A33:AA33"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="A37:AA37"/>
-    <mergeCell ref="B34:AA34"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B35:AA35"/>
-    <mergeCell ref="B25:AA25"/>
-    <mergeCell ref="B26:AA26"/>
-    <mergeCell ref="B27:AA27"/>
-    <mergeCell ref="A8:AA8"/>
-    <mergeCell ref="B9:AA9"/>
-    <mergeCell ref="A10:AA10"/>
-    <mergeCell ref="B11:AA11"/>
-    <mergeCell ref="B12:AA12"/>
-    <mergeCell ref="B13:AA13"/>
-    <mergeCell ref="B14:AA14"/>
-    <mergeCell ref="B15:AA15"/>
-    <mergeCell ref="A16:AA16"/>
-    <mergeCell ref="B17:AA17"/>
-    <mergeCell ref="B20:AA20"/>
     <mergeCell ref="A28:AA28"/>
     <mergeCell ref="B29:AA29"/>
     <mergeCell ref="B30:AA30"/>
@@ -10298,6 +10276,28 @@
     <mergeCell ref="B22:AA22"/>
     <mergeCell ref="A23:AA23"/>
     <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B25:AA25"/>
+    <mergeCell ref="B26:AA26"/>
+    <mergeCell ref="B27:AA27"/>
+    <mergeCell ref="A8:AA8"/>
+    <mergeCell ref="B9:AA9"/>
+    <mergeCell ref="A10:AA10"/>
+    <mergeCell ref="B11:AA11"/>
+    <mergeCell ref="B12:AA12"/>
+    <mergeCell ref="B13:AA13"/>
+    <mergeCell ref="B14:AA14"/>
+    <mergeCell ref="B15:AA15"/>
+    <mergeCell ref="A16:AA16"/>
+    <mergeCell ref="B17:AA17"/>
+    <mergeCell ref="B20:AA20"/>
+    <mergeCell ref="B32:AA32"/>
+    <mergeCell ref="A33:AA33"/>
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="A37:AA37"/>
+    <mergeCell ref="B34:AA34"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B35:AA35"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -10373,26 +10373,26 @@
     </row>
     <row r="2" spans="1:16" ht="22.5">
       <c r="B2" s="46"/>
-      <c r="C2" s="693" t="str">
+      <c r="C2" s="691" t="str">
         <f>IF($A$1,"Ventes et nombre de clients","Sales and Guest counts")</f>
         <v>Sales and Guest counts</v>
       </c>
-      <c r="D2" s="693"/>
-      <c r="E2" s="693"/>
-      <c r="F2" s="693"/>
-      <c r="G2" s="693"/>
-      <c r="H2" s="693"/>
-      <c r="I2" s="693"/>
+      <c r="D2" s="691"/>
+      <c r="E2" s="691"/>
+      <c r="F2" s="691"/>
+      <c r="G2" s="691"/>
+      <c r="H2" s="691"/>
+      <c r="I2" s="691"/>
       <c r="J2" s="71" t="str">
         <f>IF($A$1,"Mois","Month:")</f>
         <v>Month:</v>
       </c>
-      <c r="K2" s="691" t="str">
+      <c r="K2" s="689" t="str">
         <f>IF($A$1,"Février","February")</f>
         <v>February</v>
       </c>
-      <c r="L2" s="691"/>
-      <c r="M2" s="691"/>
+      <c r="L2" s="689"/>
+      <c r="M2" s="689"/>
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="4" spans="1:16" ht="52.05" customHeight="1">
       <c r="B4" s="46"/>
-      <c r="C4" s="684" t="str">
+      <c r="C4" s="695" t="str">
         <f>IF($A$1,"1) Entrez votre % actuel de tendances des ventes et du nombre de clients
 2) Entrez les ventes et le nombre de clients précédents. Les ventes et le nombre de clients se calculeront pour vous.
 ","1. Enter your current Trending % for Sales and Guest Counts.
@@ -10424,18 +10424,18 @@
         <v>1. Enter your current Trending % for Sales and Guest Counts.
 2. Enter Previous Year Sales and Guest Counts. Sales and Guest counts will be calculated for you.</v>
       </c>
-      <c r="D4" s="684"/>
-      <c r="E4" s="684"/>
-      <c r="F4" s="684"/>
-      <c r="G4" s="684"/>
-      <c r="H4" s="684"/>
-      <c r="I4" s="684"/>
-      <c r="J4" s="684"/>
-      <c r="K4" s="684"/>
-      <c r="L4" s="684"/>
-      <c r="M4" s="684"/>
-      <c r="N4" s="684"/>
-      <c r="O4" s="684"/>
+      <c r="D4" s="695"/>
+      <c r="E4" s="695"/>
+      <c r="F4" s="695"/>
+      <c r="G4" s="695"/>
+      <c r="H4" s="695"/>
+      <c r="I4" s="695"/>
+      <c r="J4" s="695"/>
+      <c r="K4" s="695"/>
+      <c r="L4" s="695"/>
+      <c r="M4" s="695"/>
+      <c r="N4" s="695"/>
+      <c r="O4" s="695"/>
       <c r="P4" s="115"/>
     </row>
     <row r="5" spans="1:16" ht="14.55" customHeight="1">
@@ -10478,8 +10478,8 @@
     <row r="7" spans="1:16" ht="17.649999999999999">
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
-      <c r="D7" s="692"/>
-      <c r="E7" s="692"/>
+      <c r="D7" s="690"/>
+      <c r="E7" s="690"/>
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
       <c r="H7" s="75"/>
@@ -10753,12 +10753,12 @@
       <c r="I16" s="292"/>
       <c r="J16" s="292"/>
       <c r="K16" s="74"/>
-      <c r="L16" s="695" t="str">
+      <c r="L16" s="693" t="str">
         <f>IF($A$1,"Cible","Targets")</f>
         <v>Targets</v>
       </c>
-      <c r="M16" s="695"/>
-      <c r="N16" s="695"/>
+      <c r="M16" s="693"/>
+      <c r="N16" s="693"/>
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
     </row>
@@ -10788,12 +10788,12 @@
       <c r="I17" s="293"/>
       <c r="J17" s="293"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="683" t="str">
+      <c r="L17" s="694" t="str">
         <f>IF($A$1,"Prévisions des ventes en $","Sales projections $")</f>
         <v>Sales projections $</v>
       </c>
-      <c r="M17" s="683"/>
-      <c r="N17" s="683"/>
+      <c r="M17" s="694"/>
+      <c r="N17" s="694"/>
       <c r="O17" s="80">
         <f>SUM(D19:D47)</f>
         <v>0</v>
@@ -10826,12 +10826,12 @@
       <c r="I18" s="293"/>
       <c r="J18" s="293"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="683" t="str">
+      <c r="L18" s="694" t="str">
         <f>IF($A$1,"Ventes prévues en $ de l'état des résultats","P&amp;L Planned Sales $")</f>
         <v>P&amp;L Planned Sales $</v>
       </c>
-      <c r="M18" s="683"/>
-      <c r="N18" s="683"/>
+      <c r="M18" s="694"/>
+      <c r="N18" s="694"/>
       <c r="O18" s="81"/>
       <c r="P18" s="46"/>
     </row>
@@ -10861,12 +10861,12 @@
       <c r="I19" s="143"/>
       <c r="J19" s="143"/>
       <c r="K19" s="46"/>
-      <c r="L19" s="683" t="str">
+      <c r="L19" s="694" t="str">
         <f>IF($A$1,"Salaire moyen (sans salaire jours fériés $)","Av. Wage (W/O Stat Hol. $)")</f>
         <v>Av. Wage (W/O Stat Hol. $)</v>
       </c>
-      <c r="M19" s="683"/>
-      <c r="N19" s="683"/>
+      <c r="M19" s="694"/>
+      <c r="N19" s="694"/>
       <c r="O19" s="81"/>
       <c r="P19" s="46"/>
     </row>
@@ -10896,12 +10896,12 @@
       <c r="I20" s="143"/>
       <c r="J20" s="143"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="683" t="str">
+      <c r="L20" s="694" t="str">
         <f>IF($A$1,"Salaire jours fériés en $","Stat. Holiday $")</f>
         <v>Stat. Holiday $</v>
       </c>
-      <c r="M20" s="683"/>
-      <c r="N20" s="683"/>
+      <c r="M20" s="694"/>
+      <c r="N20" s="694"/>
       <c r="O20" s="81"/>
       <c r="P20" s="46"/>
     </row>
@@ -10929,12 +10929,12 @@
       <c r="I21" s="143"/>
       <c r="J21" s="143"/>
       <c r="K21" s="46"/>
-      <c r="L21" s="683" t="str">
+      <c r="L21" s="694" t="str">
         <f>IF($A$1,"% de main-d’œuvre prévue","Projected Labour %")</f>
         <v>Projected Labour %</v>
       </c>
-      <c r="M21" s="683"/>
-      <c r="N21" s="683"/>
+      <c r="M21" s="694"/>
+      <c r="N21" s="694"/>
       <c r="O21" s="82" t="str">
         <f>IF(O18="","",(O24*O19+O20)/O17)</f>
         <v/>
@@ -10965,12 +10965,12 @@
       <c r="I22" s="143"/>
       <c r="J22" s="62"/>
       <c r="K22" s="46"/>
-      <c r="L22" s="683" t="str">
+      <c r="L22" s="694" t="str">
         <f>IF($A$1,"Nombre de clients prévu","Projected Guest Counts")</f>
         <v>Projected Guest Counts</v>
       </c>
-      <c r="M22" s="683"/>
-      <c r="N22" s="683"/>
+      <c r="M22" s="694"/>
+      <c r="N22" s="694"/>
       <c r="O22" s="83">
         <f>SUM(E19:E47)</f>
         <v>0</v>
@@ -11001,12 +11001,12 @@
       <c r="I23" s="143"/>
       <c r="J23" s="62"/>
       <c r="K23" s="46"/>
-      <c r="L23" s="683" t="str">
+      <c r="L23" s="694" t="str">
         <f>IF($A$1,"TPÉH cible","Targeted  TPCH")</f>
         <v>Targeted  TPCH</v>
       </c>
-      <c r="M23" s="683"/>
-      <c r="N23" s="683"/>
+      <c r="M23" s="694"/>
+      <c r="N23" s="694"/>
       <c r="O23" s="79"/>
       <c r="P23" s="46"/>
     </row>
@@ -11034,12 +11034,12 @@
       <c r="I24" s="143"/>
       <c r="J24" s="62"/>
       <c r="K24" s="46"/>
-      <c r="L24" s="683" t="str">
+      <c r="L24" s="694" t="str">
         <f>IF($A$1,"Heures prévues allouées","Projected Hours allowed")</f>
         <v>Projected Hours allowed</v>
       </c>
-      <c r="M24" s="683"/>
-      <c r="N24" s="683"/>
+      <c r="M24" s="694"/>
+      <c r="N24" s="694"/>
       <c r="O24" s="83"/>
       <c r="P24" s="46"/>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
       <c r="K25" s="46"/>
-      <c r="L25" s="683" t="str">
+      <c r="L25" s="694" t="str">
         <f>IF($A$1,"Salaire jours fériés/cours (heures)","Salary Holidays / Classes (Hours)")</f>
         <v>Salary Holidays / Classes (Hours)</v>
       </c>
-      <c r="M25" s="683"/>
-      <c r="N25" s="683"/>
+      <c r="M25" s="694"/>
+      <c r="N25" s="694"/>
       <c r="O25" s="79"/>
       <c r="P25" s="46"/>
     </row>
@@ -11100,12 +11100,12 @@
       <c r="I26" s="62"/>
       <c r="J26" s="62"/>
       <c r="K26" s="46"/>
-      <c r="L26" s="683" t="str">
+      <c r="L26" s="694" t="str">
         <f>IF($A$1,"TPÉH prévues","Projected TPCH")</f>
         <v>Projected TPCH</v>
       </c>
-      <c r="M26" s="683"/>
-      <c r="N26" s="683"/>
+      <c r="M26" s="694"/>
+      <c r="N26" s="694"/>
       <c r="O26" s="84"/>
       <c r="P26" s="46"/>
     </row>
@@ -11133,12 +11133,12 @@
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="683" t="str">
+      <c r="L27" s="694" t="str">
         <f>IF($A$1,"% de main-d'œuvre prévue de l'état des résultats","P&amp;L Planned Labour %")</f>
         <v>P&amp;L Planned Labour %</v>
       </c>
-      <c r="M27" s="683"/>
-      <c r="N27" s="683"/>
+      <c r="M27" s="694"/>
+      <c r="N27" s="694"/>
       <c r="O27" s="87"/>
       <c r="P27" s="46"/>
     </row>
@@ -11196,9 +11196,9 @@
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
       <c r="K29" s="46"/>
-      <c r="L29" s="694"/>
-      <c r="M29" s="694"/>
-      <c r="N29" s="694"/>
+      <c r="L29" s="692"/>
+      <c r="M29" s="692"/>
+      <c r="N29" s="692"/>
       <c r="O29" s="85"/>
       <c r="P29" s="46"/>
     </row>
@@ -11226,13 +11226,13 @@
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
       <c r="K30" s="46"/>
-      <c r="L30" s="685" t="str">
+      <c r="L30" s="683" t="str">
         <f>IF($A$1,"Les valeurs calculées s'entreront dans votre Agenda de planification et horaire de l'équipe de gestion. "," The calculated values will automatically populate to  your 'Planner' and 'Management Schedule'.")</f>
         <v xml:space="preserve"> The calculated values will automatically populate to  your 'Planner' and 'Management Schedule'.</v>
       </c>
-      <c r="M30" s="686"/>
-      <c r="N30" s="686"/>
-      <c r="O30" s="687"/>
+      <c r="M30" s="684"/>
+      <c r="N30" s="684"/>
+      <c r="O30" s="685"/>
       <c r="P30" s="86"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
@@ -11267,10 +11267,10 @@
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
       <c r="K31" s="46"/>
-      <c r="L31" s="688"/>
-      <c r="M31" s="689"/>
-      <c r="N31" s="689"/>
-      <c r="O31" s="690"/>
+      <c r="L31" s="686"/>
+      <c r="M31" s="687"/>
+      <c r="N31" s="687"/>
+      <c r="O31" s="688"/>
       <c r="P31" s="46"/>
     </row>
     <row r="32" spans="1:24">
@@ -12110,6 +12110,8 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="18">
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C4:O4"/>
     <mergeCell ref="L30:O31"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="D7:E7"/>
@@ -12126,8 +12128,6 @@
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="C4:O4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -12258,101 +12258,101 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="705" t="str">
+      <c r="X3" s="712" t="str">
         <f>IF('Enter Projections'!$A$1,"Vacances","Holiday")</f>
         <v>Holiday</v>
       </c>
-      <c r="Y3" s="705"/>
+      <c r="Y3" s="712"/>
       <c r="Z3" s="58"/>
-      <c r="AA3" s="705" t="str">
+      <c r="AA3" s="712" t="str">
         <f>IF('Enter Projections'!$A$1,"Congés","Book Offs")</f>
         <v>Book Offs</v>
       </c>
-      <c r="AB3" s="705"/>
-      <c r="AC3" s="705"/>
+      <c r="AB3" s="712"/>
+      <c r="AC3" s="712"/>
       <c r="AD3" s="58"/>
-      <c r="AE3" s="696" t="str">
+      <c r="AE3" s="704" t="str">
         <f>IF('Enter Projections'!$A$1,"Jours fériés ","Stat Hol")</f>
         <v>Stat Hol</v>
       </c>
-      <c r="AF3" s="696"/>
+      <c r="AF3" s="704"/>
       <c r="AG3" s="58"/>
-      <c r="AH3" s="696" t="str">
+      <c r="AH3" s="704" t="str">
         <f>IF('Enter Projections'!$A$1,"Cours de formation","Classes")</f>
         <v>Classes</v>
       </c>
-      <c r="AI3" s="696"/>
+      <c r="AI3" s="704"/>
       <c r="AJ3" s="58"/>
-      <c r="AK3" s="705" t="str">
+      <c r="AK3" s="712" t="str">
         <f>IF('Enter Projections'!$A$1,"Horaires","Schedules")</f>
         <v>Schedules</v>
       </c>
-      <c r="AL3" s="705"/>
-      <c r="AM3" s="705"/>
+      <c r="AL3" s="712"/>
+      <c r="AM3" s="712"/>
       <c r="AN3" s="58"/>
-      <c r="AO3" s="696" t="str">
+      <c r="AO3" s="704" t="str">
         <f>IF('Enter Projections'!$A$1,"Réunions","Meet")</f>
         <v>Meet</v>
       </c>
-      <c r="AP3" s="696"/>
+      <c r="AP3" s="704"/>
       <c r="AQ3" s="5"/>
     </row>
     <row r="4" spans="1:47" ht="65.2" customHeight="1" thickBot="1">
       <c r="C4" s="51"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="707" t="str">
+      <c r="F4" s="714" t="str">
         <f>IF('Enter Projections'!$A$1,"Entrez les données requises (vacances, demandes de congés, cours, MB et entretien de l'appareil à laits ultra-frappés et à lait glacé).","Enter required information (Vacations, Book Off requests, TRC, MB, and Shake PM)")</f>
         <v>Enter required information (Vacations, Book Off requests, TRC, MB, and Shake PM)</v>
       </c>
-      <c r="G4" s="707"/>
-      <c r="H4" s="707"/>
-      <c r="I4" s="707"/>
-      <c r="J4" s="707"/>
-      <c r="K4" s="707"/>
-      <c r="L4" s="707"/>
-      <c r="M4" s="707"/>
-      <c r="N4" s="707"/>
-      <c r="O4" s="707"/>
-      <c r="P4" s="707"/>
-      <c r="Q4" s="707"/>
-      <c r="R4" s="707"/>
-      <c r="S4" s="707"/>
-      <c r="T4" s="707"/>
-      <c r="U4" s="707"/>
-      <c r="V4" s="707"/>
+      <c r="G4" s="714"/>
+      <c r="H4" s="714"/>
+      <c r="I4" s="714"/>
+      <c r="J4" s="714"/>
+      <c r="K4" s="714"/>
+      <c r="L4" s="714"/>
+      <c r="M4" s="714"/>
+      <c r="N4" s="714"/>
+      <c r="O4" s="714"/>
+      <c r="P4" s="714"/>
+      <c r="Q4" s="714"/>
+      <c r="R4" s="714"/>
+      <c r="S4" s="714"/>
+      <c r="T4" s="714"/>
+      <c r="U4" s="714"/>
+      <c r="V4" s="714"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="708" t="s">
+      <c r="X4" s="715" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="708"/>
+      <c r="Y4" s="715"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="703" t="s">
+      <c r="AA4" s="710" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="703"/>
-      <c r="AC4" s="703"/>
+      <c r="AB4" s="710"/>
+      <c r="AC4" s="710"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="702" t="s">
+      <c r="AE4" s="709" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="702"/>
+      <c r="AF4" s="709"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="704" t="s">
+      <c r="AH4" s="711" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="704"/>
+      <c r="AI4" s="711"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="706" t="s">
+      <c r="AK4" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="AL4" s="706"/>
-      <c r="AM4" s="706"/>
+      <c r="AL4" s="713"/>
+      <c r="AM4" s="713"/>
       <c r="AN4" s="5"/>
-      <c r="AO4" s="697" t="s">
+      <c r="AO4" s="705" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="697"/>
+      <c r="AP4" s="705"/>
       <c r="AQ4" s="5"/>
     </row>
     <row r="5" spans="1:47">
@@ -14382,26 +14382,26 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="709" t="s">
+      <c r="F35" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="709"/>
-      <c r="H35" s="709"/>
-      <c r="I35" s="709"/>
-      <c r="J35" s="709"/>
-      <c r="K35" s="709"/>
-      <c r="L35" s="709"/>
+      <c r="G35" s="697"/>
+      <c r="H35" s="697"/>
+      <c r="I35" s="697"/>
+      <c r="J35" s="697"/>
+      <c r="K35" s="697"/>
+      <c r="L35" s="697"/>
       <c r="M35" s="55"/>
-      <c r="N35" s="711" t="str">
+      <c r="N35" s="699" t="str">
         <f>IF('Enter Projections'!$A$1,"LAITS ULTRA-FRAPPÉS","SHAKE")</f>
         <v>SHAKE</v>
       </c>
-      <c r="O35" s="711"/>
-      <c r="P35" s="712"/>
-      <c r="Q35" s="712"/>
-      <c r="R35" s="712"/>
-      <c r="S35" s="712"/>
-      <c r="T35" s="712"/>
+      <c r="O35" s="699"/>
+      <c r="P35" s="700"/>
+      <c r="Q35" s="700"/>
+      <c r="R35" s="700"/>
+      <c r="S35" s="700"/>
+      <c r="T35" s="700"/>
       <c r="U35" s="55"/>
       <c r="V35" s="55"/>
       <c r="W35" s="55"/>
@@ -14441,34 +14441,34 @@
       <c r="F36" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="698" t="str">
+      <c r="G36" s="706" t="str">
         <f>IF('Enter Projections'!$A$1,"Livraison","Delivery")</f>
         <v>Delivery</v>
       </c>
-      <c r="H36" s="699"/>
-      <c r="I36" s="699"/>
-      <c r="J36" s="699"/>
-      <c r="K36" s="699"/>
-      <c r="L36" s="700"/>
+      <c r="H36" s="707"/>
+      <c r="I36" s="707"/>
+      <c r="J36" s="707"/>
+      <c r="K36" s="707"/>
+      <c r="L36" s="708"/>
       <c r="M36" s="55"/>
-      <c r="N36" s="713" t="s">
+      <c r="N36" s="701" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="714"/>
-      <c r="P36" s="713" t="str">
+      <c r="O36" s="702"/>
+      <c r="P36" s="701" t="str">
         <f>IF('Enter Projections'!$A$1,"NETTOYAGE HEBDOMADAIRE","WEEKLY CL")</f>
         <v>WEEKLY CL</v>
       </c>
-      <c r="Q36" s="715"/>
-      <c r="R36" s="715"/>
-      <c r="S36" s="715"/>
-      <c r="T36" s="715"/>
-      <c r="U36" s="715"/>
-      <c r="V36" s="715"/>
-      <c r="W36" s="715"/>
-      <c r="X36" s="715"/>
-      <c r="Y36" s="715"/>
-      <c r="Z36" s="714"/>
+      <c r="Q36" s="703"/>
+      <c r="R36" s="703"/>
+      <c r="S36" s="703"/>
+      <c r="T36" s="703"/>
+      <c r="U36" s="703"/>
+      <c r="V36" s="703"/>
+      <c r="W36" s="703"/>
+      <c r="X36" s="703"/>
+      <c r="Y36" s="703"/>
+      <c r="Z36" s="702"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -14502,34 +14502,34 @@
       <c r="F37" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="701" t="str">
+      <c r="G37" s="696" t="str">
         <f>IF('Enter Projections'!$A$1,"Date d'appel","Call Date")</f>
         <v>Call Date</v>
       </c>
-      <c r="H37" s="701"/>
-      <c r="I37" s="701"/>
-      <c r="J37" s="701"/>
-      <c r="K37" s="701"/>
-      <c r="L37" s="701"/>
+      <c r="H37" s="696"/>
+      <c r="I37" s="696"/>
+      <c r="J37" s="696"/>
+      <c r="K37" s="696"/>
+      <c r="L37" s="696"/>
       <c r="M37" s="55"/>
-      <c r="N37" s="710" t="s">
+      <c r="N37" s="698" t="s">
         <v>16</v>
       </c>
-      <c r="O37" s="710"/>
-      <c r="P37" s="713" t="str">
+      <c r="O37" s="698"/>
+      <c r="P37" s="701" t="str">
         <f>IF('Enter Projections'!$A$1,"CYCLE DE NETTOYAGE","Cleaning Cycle")</f>
         <v>Cleaning Cycle</v>
       </c>
-      <c r="Q37" s="715"/>
-      <c r="R37" s="715"/>
-      <c r="S37" s="715"/>
-      <c r="T37" s="715"/>
-      <c r="U37" s="715"/>
-      <c r="V37" s="715"/>
-      <c r="W37" s="715"/>
-      <c r="X37" s="715"/>
-      <c r="Y37" s="715"/>
-      <c r="Z37" s="714"/>
+      <c r="Q37" s="703"/>
+      <c r="R37" s="703"/>
+      <c r="S37" s="703"/>
+      <c r="T37" s="703"/>
+      <c r="U37" s="703"/>
+      <c r="V37" s="703"/>
+      <c r="W37" s="703"/>
+      <c r="X37" s="703"/>
+      <c r="Y37" s="703"/>
+      <c r="Z37" s="702"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -14554,34 +14554,34 @@
       <c r="F38" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="701" t="str">
+      <c r="G38" s="696" t="str">
         <f>IF('Enter Projections'!$A$1,"Date d'appel et livraison","Call Date &amp; Delivery")</f>
         <v>Call Date &amp; Delivery</v>
       </c>
-      <c r="H38" s="701"/>
-      <c r="I38" s="701"/>
-      <c r="J38" s="701"/>
-      <c r="K38" s="701"/>
-      <c r="L38" s="701"/>
+      <c r="H38" s="696"/>
+      <c r="I38" s="696"/>
+      <c r="J38" s="696"/>
+      <c r="K38" s="696"/>
+      <c r="L38" s="696"/>
       <c r="M38" s="55"/>
       <c r="N38" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O38" s="57"/>
-      <c r="P38" s="713" t="str">
+      <c r="P38" s="701" t="str">
         <f>IF('Enter Projections'!$A$1,"TROUSSE DE MISE AU POINT TRIMESTRIELLE","QRT Tune up KIT")</f>
         <v>QRT Tune up KIT</v>
       </c>
-      <c r="Q38" s="715"/>
-      <c r="R38" s="715"/>
-      <c r="S38" s="715"/>
-      <c r="T38" s="715"/>
-      <c r="U38" s="715"/>
-      <c r="V38" s="715"/>
-      <c r="W38" s="715"/>
-      <c r="X38" s="715"/>
-      <c r="Y38" s="715"/>
-      <c r="Z38" s="714"/>
+      <c r="Q38" s="703"/>
+      <c r="R38" s="703"/>
+      <c r="S38" s="703"/>
+      <c r="T38" s="703"/>
+      <c r="U38" s="703"/>
+      <c r="V38" s="703"/>
+      <c r="W38" s="703"/>
+      <c r="X38" s="703"/>
+      <c r="Y38" s="703"/>
+      <c r="Z38" s="702"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -14645,14 +14645,6 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="23">
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Z36"/>
-    <mergeCell ref="P37:Z37"/>
-    <mergeCell ref="P38:Z38"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="G36:L36"/>
@@ -14668,6 +14660,14 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Z36"/>
+    <mergeCell ref="P37:Z37"/>
+    <mergeCell ref="P38:Z38"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E31 F7:AU33 F34:W34">
     <cfRule type="cellIs" dxfId="264" priority="2" operator="equal">
@@ -15214,31 +15214,31 @@
     </row>
     <row r="2" spans="1:17" ht="25.05" customHeight="1">
       <c r="C2" s="41"/>
-      <c r="D2" s="750" t="str">
+      <c r="D2" s="777" t="str">
         <f>IF('Enter Projections'!$A$1,"Mois","Month:")</f>
         <v>Month:</v>
       </c>
-      <c r="E2" s="748" t="str">
+      <c r="E2" s="775" t="str">
         <f>'Enter Projections'!K2</f>
         <v>February</v>
       </c>
-      <c r="F2" s="748"/>
-      <c r="G2" s="752" t="str">
+      <c r="F2" s="775"/>
+      <c r="G2" s="779" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom du restaurant :","Restaurant Name:")</f>
         <v>Restaurant Name:</v>
       </c>
-      <c r="H2" s="752"/>
-      <c r="I2" s="746"/>
+      <c r="H2" s="779"/>
+      <c r="I2" s="773"/>
       <c r="J2" s="387"/>
       <c r="K2" s="388"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" thickBot="1">
-      <c r="D3" s="751"/>
-      <c r="E3" s="749"/>
-      <c r="F3" s="749"/>
-      <c r="G3" s="753"/>
-      <c r="H3" s="753"/>
-      <c r="I3" s="747"/>
+      <c r="D3" s="778"/>
+      <c r="E3" s="776"/>
+      <c r="F3" s="776"/>
+      <c r="G3" s="780"/>
+      <c r="H3" s="780"/>
+      <c r="I3" s="774"/>
       <c r="J3" s="295"/>
       <c r="K3" s="389"/>
     </row>
@@ -15253,11 +15253,11 @@
       <c r="K4" s="391"/>
     </row>
     <row r="5" spans="1:17" ht="15.4" hidden="1" thickBot="1">
-      <c r="D5" s="744" t="str">
+      <c r="D5" s="771" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom du restaurant :","Targets")</f>
         <v>Targets</v>
       </c>
-      <c r="E5" s="745"/>
+      <c r="E5" s="772"/>
       <c r="F5" s="182"/>
       <c r="G5" s="183"/>
       <c r="H5" s="184"/>
@@ -15418,7 +15418,7 @@
         <f>'Enter Projections'!O26</f>
         <v>0</v>
       </c>
-      <c r="F15" s="742"/>
+      <c r="F15" s="769"/>
       <c r="G15" s="206"/>
       <c r="H15" s="215"/>
       <c r="I15" s="199"/>
@@ -15434,7 +15434,7 @@
         <f>'Enter Projections'!O27</f>
         <v>0</v>
       </c>
-      <c r="F16" s="743"/>
+      <c r="F16" s="770"/>
       <c r="G16" s="217"/>
       <c r="H16" s="218"/>
       <c r="I16" s="219"/>
@@ -15485,31 +15485,31 @@
         <v>45323</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="757" t="str">
+      <c r="D19" s="745" t="str">
         <f>IF('Enter Projections'!$A$1," Offres mobiles hebdomadaires "," Weekly Mobile Offers ")</f>
         <v xml:space="preserve"> Weekly Mobile Offers </v>
       </c>
-      <c r="E19" s="758"/>
-      <c r="F19" s="758"/>
-      <c r="G19" s="758"/>
-      <c r="H19" s="758"/>
-      <c r="I19" s="758"/>
-      <c r="J19" s="758"/>
-      <c r="K19" s="759"/>
+      <c r="E19" s="746"/>
+      <c r="F19" s="746"/>
+      <c r="G19" s="746"/>
+      <c r="H19" s="746"/>
+      <c r="I19" s="746"/>
+      <c r="J19" s="746"/>
+      <c r="K19" s="747"/>
       <c r="M19" s="18"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="756"/>
-      <c r="Q19" s="756"/>
-      <c r="R19" s="756"/>
-      <c r="S19" s="756"/>
-      <c r="T19" s="756"/>
-      <c r="U19" s="756"/>
-      <c r="V19" s="756"/>
-      <c r="W19" s="756"/>
-      <c r="X19" s="756"/>
-      <c r="Y19" s="756"/>
-      <c r="Z19" s="756"/>
-      <c r="AA19" s="756"/>
+      <c r="P19" s="744"/>
+      <c r="Q19" s="744"/>
+      <c r="R19" s="744"/>
+      <c r="S19" s="744"/>
+      <c r="T19" s="744"/>
+      <c r="U19" s="744"/>
+      <c r="V19" s="744"/>
+      <c r="W19" s="744"/>
+      <c r="X19" s="744"/>
+      <c r="Y19" s="744"/>
+      <c r="Z19" s="744"/>
+      <c r="AA19" s="744"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" customHeight="1">
       <c r="A20" s="7" t="s">
@@ -15529,18 +15529,18 @@
       <c r="K20" s="391"/>
       <c r="M20" s="18"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="756"/>
-      <c r="Q20" s="756"/>
-      <c r="R20" s="756"/>
-      <c r="S20" s="756"/>
-      <c r="T20" s="756"/>
-      <c r="U20" s="756"/>
-      <c r="V20" s="756"/>
-      <c r="W20" s="756"/>
-      <c r="X20" s="756"/>
-      <c r="Y20" s="756"/>
-      <c r="Z20" s="756"/>
-      <c r="AA20" s="756"/>
+      <c r="P20" s="744"/>
+      <c r="Q20" s="744"/>
+      <c r="R20" s="744"/>
+      <c r="S20" s="744"/>
+      <c r="T20" s="744"/>
+      <c r="U20" s="744"/>
+      <c r="V20" s="744"/>
+      <c r="W20" s="744"/>
+      <c r="X20" s="744"/>
+      <c r="Y20" s="744"/>
+      <c r="Z20" s="744"/>
+      <c r="AA20" s="744"/>
     </row>
     <row r="21" spans="1:27" s="19" customFormat="1" ht="39.700000000000003" customHeight="1">
       <c r="A21" s="10" t="s">
@@ -15821,12 +15821,12 @@
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="773"/>
-      <c r="E28" s="779" t="str">
+      <c r="D28" s="761"/>
+      <c r="E28" s="767" t="str">
         <f>IF('Enter Projections'!$A$1," Fin du McFlurry Tourbillon Siakam "," Siakam Swirl McFlurry Ends ")</f>
         <v xml:space="preserve"> Siakam Swirl McFlurry Ends </v>
       </c>
-      <c r="F28" s="775"/>
+      <c r="F28" s="763"/>
       <c r="G28" s="351"/>
       <c r="H28" s="506"/>
       <c r="I28" s="355"/>
@@ -15842,9 +15842,9 @@
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="774"/>
-      <c r="E29" s="780"/>
-      <c r="F29" s="776"/>
+      <c r="D29" s="762"/>
+      <c r="E29" s="768"/>
+      <c r="F29" s="764"/>
       <c r="G29" s="352"/>
       <c r="H29" s="507"/>
       <c r="I29" s="352"/>
@@ -16628,7 +16628,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="519"/>
       <c r="E53" s="371"/>
-      <c r="F53" s="761"/>
+      <c r="F53" s="749"/>
       <c r="G53" s="377"/>
       <c r="H53" s="377" t="s">
         <v>211</v>
@@ -16645,7 +16645,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="607"/>
       <c r="E54" s="366"/>
-      <c r="F54" s="762"/>
+      <c r="F54" s="750"/>
       <c r="G54" s="377"/>
       <c r="H54" s="377"/>
       <c r="I54" s="377"/>
@@ -16678,9 +16678,9 @@
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="609"/>
-      <c r="E56" s="769"/>
+      <c r="E56" s="757"/>
       <c r="F56" s="373"/>
-      <c r="G56" s="771"/>
+      <c r="G56" s="759"/>
       <c r="H56" s="655" t="s">
         <v>215</v>
       </c>
@@ -16697,9 +16697,9 @@
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="D57" s="447"/>
-      <c r="E57" s="770"/>
+      <c r="E57" s="758"/>
       <c r="F57" s="374"/>
-      <c r="G57" s="772"/>
+      <c r="G57" s="760"/>
       <c r="H57" s="357"/>
       <c r="I57" s="380"/>
       <c r="J57" s="381"/>
@@ -16919,7 +16919,7 @@
       <c r="I61" s="550" t="s">
         <v>143</v>
       </c>
-      <c r="J61" s="764" t="s">
+      <c r="J61" s="752" t="s">
         <v>223</v>
       </c>
       <c r="K61" s="554"/>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="H62" s="366"/>
       <c r="I62" s="371"/>
-      <c r="J62" s="765"/>
+      <c r="J62" s="753"/>
       <c r="K62" s="551"/>
       <c r="P62" s="25"/>
       <c r="V62" s="26"/>
@@ -16956,12 +16956,12 @@
       <c r="E63" s="370" t="s">
         <v>57</v>
       </c>
-      <c r="F63" s="777" t="s">
+      <c r="F63" s="765" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="778"/>
+      <c r="G63" s="766"/>
       <c r="H63" s="589"/>
-      <c r="J63" s="765"/>
+      <c r="J63" s="753"/>
       <c r="K63" s="551"/>
       <c r="P63" s="25"/>
       <c r="V63" s="26"/>
@@ -16972,11 +16972,11 @@
       <c r="C64" s="21"/>
       <c r="D64" s="611"/>
       <c r="E64" s="370"/>
-      <c r="F64" s="777"/>
-      <c r="G64" s="778"/>
+      <c r="F64" s="765"/>
+      <c r="G64" s="766"/>
       <c r="H64" s="377"/>
       <c r="I64" s="371"/>
-      <c r="J64" s="765"/>
+      <c r="J64" s="753"/>
       <c r="K64" s="443"/>
       <c r="P64" s="25"/>
       <c r="V64" s="26"/>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="H65" s="377"/>
       <c r="I65" s="371"/>
-      <c r="J65" s="765"/>
+      <c r="J65" s="753"/>
       <c r="K65" s="480"/>
       <c r="P65" s="25"/>
       <c r="V65" s="26"/>
@@ -17016,7 +17016,7 @@
         <v>66</v>
       </c>
       <c r="I66" s="371"/>
-      <c r="J66" s="765"/>
+      <c r="J66" s="753"/>
       <c r="K66" s="480"/>
       <c r="P66" s="25"/>
       <c r="V66" s="26"/>
@@ -17031,7 +17031,7 @@
       <c r="G67" s="470"/>
       <c r="H67" s="377"/>
       <c r="I67" s="371"/>
-      <c r="J67" s="765"/>
+      <c r="J67" s="753"/>
       <c r="K67" s="480"/>
       <c r="P67" s="25"/>
       <c r="V67" s="26"/>
@@ -17048,7 +17048,7 @@
       <c r="G68" s="360"/>
       <c r="H68" s="373"/>
       <c r="I68" s="373"/>
-      <c r="J68" s="765"/>
+      <c r="J68" s="753"/>
       <c r="K68" s="480"/>
       <c r="P68" s="25"/>
       <c r="V68" s="26"/>
@@ -17063,7 +17063,7 @@
       <c r="G69" s="357"/>
       <c r="H69" s="382"/>
       <c r="I69" s="380"/>
-      <c r="J69" s="766"/>
+      <c r="J69" s="754"/>
       <c r="K69" s="481"/>
       <c r="P69" s="25">
         <f>IF(E69="",0,200)</f>
@@ -17282,7 +17282,7 @@
       <c r="I73" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="J73" s="767"/>
+      <c r="J73" s="755"/>
       <c r="K73" s="555"/>
       <c r="P73" s="25"/>
       <c r="V73" s="26"/>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="H74" s="305"/>
       <c r="I74" s="337"/>
-      <c r="J74" s="767"/>
+      <c r="J74" s="755"/>
       <c r="K74" s="513"/>
       <c r="P74" s="25"/>
       <c r="V74" s="26"/>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="H75" s="504"/>
       <c r="I75" s="337"/>
-      <c r="J75" s="767"/>
+      <c r="J75" s="755"/>
       <c r="K75" s="455"/>
       <c r="P75" s="25"/>
       <c r="V75" s="26"/>
@@ -17332,18 +17332,18 @@
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="615"/>
-      <c r="E76" s="760" t="str">
+      <c r="E76" s="748" t="str">
         <f>IF('Enter Projections'!$A$1," Fin de Sonic The Hedgehog "," Sonic the Hedgehog Ends ")</f>
         <v xml:space="preserve"> Sonic the Hedgehog Ends </v>
       </c>
-      <c r="F76" s="763" t="str">
+      <c r="F76" s="751" t="str">
         <f>IF('Enter Projections'!$A$1," Début du JF Multiversus "," Multiversus Start ")</f>
         <v xml:space="preserve"> Multiversus Start </v>
       </c>
       <c r="G76" s="337"/>
       <c r="H76" s="336"/>
       <c r="I76" s="306"/>
-      <c r="J76" s="768"/>
+      <c r="J76" s="756"/>
       <c r="K76" s="455"/>
       <c r="P76" s="25"/>
       <c r="V76" s="26"/>
@@ -17353,12 +17353,12 @@
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="616"/>
-      <c r="E77" s="760"/>
-      <c r="F77" s="763"/>
+      <c r="E77" s="748"/>
+      <c r="F77" s="751"/>
       <c r="G77" s="337"/>
       <c r="H77" s="337"/>
       <c r="I77" s="306"/>
-      <c r="J77" s="768"/>
+      <c r="J77" s="756"/>
       <c r="K77" s="455"/>
       <c r="P77" s="25"/>
       <c r="V77" s="26"/>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="I85" s="325"/>
       <c r="J85" s="325"/>
-      <c r="K85" s="754"/>
+      <c r="K85" s="742"/>
       <c r="P85" s="25"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="16"/>
@@ -17663,7 +17663,7 @@
       <c r="H86" s="299"/>
       <c r="I86" s="299"/>
       <c r="J86" s="337"/>
-      <c r="K86" s="755"/>
+      <c r="K86" s="743"/>
       <c r="P86" s="25"/>
       <c r="Q86" s="16"/>
       <c r="R86" s="16"/>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I87" s="299"/>
       <c r="J87" s="316"/>
-      <c r="K87" s="755"/>
+      <c r="K87" s="743"/>
       <c r="P87" s="25"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="16"/>
@@ -17705,7 +17705,7 @@
       <c r="H88" s="324"/>
       <c r="I88" s="337"/>
       <c r="J88" s="337"/>
-      <c r="K88" s="755"/>
+      <c r="K88" s="743"/>
       <c r="P88" s="25"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
@@ -17725,7 +17725,7 @@
       <c r="H89" s="324"/>
       <c r="I89" s="337"/>
       <c r="J89" s="337"/>
-      <c r="K89" s="755"/>
+      <c r="K89" s="743"/>
       <c r="P89" s="25"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
@@ -17745,7 +17745,7 @@
       <c r="H90" s="324"/>
       <c r="I90" s="337"/>
       <c r="J90" s="337"/>
-      <c r="K90" s="755"/>
+      <c r="K90" s="743"/>
       <c r="P90" s="25"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
@@ -17765,7 +17765,7 @@
       <c r="H91" s="337"/>
       <c r="I91" s="337"/>
       <c r="J91" s="337"/>
-      <c r="K91" s="755"/>
+      <c r="K91" s="743"/>
       <c r="P91" s="25"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
@@ -17785,7 +17785,7 @@
       <c r="H92" s="337"/>
       <c r="I92" s="337"/>
       <c r="J92" s="337"/>
-      <c r="K92" s="755"/>
+      <c r="K92" s="743"/>
       <c r="P92" s="25"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
@@ -17802,7 +17802,7 @@
       <c r="H93" s="302"/>
       <c r="I93" s="302"/>
       <c r="J93" s="302"/>
-      <c r="K93" s="755"/>
+      <c r="K93" s="743"/>
       <c r="P93" s="25">
         <f t="shared" ref="P93:V93" si="16">IF(E92="",0,200)</f>
         <v>0</v>
@@ -17883,6 +17883,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="22">
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:H3"/>
     <mergeCell ref="K85:K93"/>
     <mergeCell ref="P19:AA20"/>
     <mergeCell ref="D19:K19"/>
@@ -17899,12 +17905,6 @@
     <mergeCell ref="F63:F64"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="D26 G40 E42:F42 H42:K42">
     <cfRule type="cellIs" dxfId="258" priority="122" operator="equal">
@@ -18686,7 +18686,7 @@
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:XFD20"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18713,40 +18713,40 @@
         <v>Month:</v>
       </c>
       <c r="D2" s="114"/>
-      <c r="E2" s="794" t="str">
+      <c r="E2" s="811" t="str">
         <f>'Enter Projections'!K2</f>
         <v>February</v>
       </c>
-      <c r="F2" s="794"/>
-      <c r="G2" s="794"/>
-      <c r="H2" s="794"/>
-      <c r="I2" s="794"/>
-      <c r="J2" s="794"/>
-      <c r="K2" s="795" t="str">
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="811"/>
+      <c r="K2" s="812" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom du restaurant :","Restaurant Name:")</f>
         <v>Restaurant Name:</v>
       </c>
-      <c r="L2" s="795"/>
-      <c r="M2" s="795"/>
-      <c r="N2" s="795"/>
-      <c r="O2" s="796" t="s">
+      <c r="L2" s="812"/>
+      <c r="M2" s="812"/>
+      <c r="N2" s="812"/>
+      <c r="O2" s="813" t="s">
         <v>259</v>
       </c>
-      <c r="P2" s="796"/>
-      <c r="Q2" s="796"/>
-      <c r="R2" s="796"/>
-      <c r="S2" s="796"/>
-      <c r="T2" s="796"/>
-      <c r="U2" s="797" t="str">
+      <c r="P2" s="813"/>
+      <c r="Q2" s="813"/>
+      <c r="R2" s="813"/>
+      <c r="S2" s="813"/>
+      <c r="T2" s="813"/>
+      <c r="U2" s="814" t="str">
         <f>IF('Enter Projections'!$A$1,"% prévues","Planned LBR")</f>
         <v>Planned LBR</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="798">
+      <c r="V2" s="814"/>
+      <c r="W2" s="815">
         <f>'Enter Projections'!O27/100</f>
         <v>0</v>
       </c>
-      <c r="X2" s="798"/>
+      <c r="X2" s="815"/>
       <c r="Y2" s="97"/>
       <c r="Z2" s="98"/>
       <c r="AA2" s="99"/>
@@ -18850,7 +18850,7 @@
       <c r="AA4" s="804"/>
     </row>
     <row r="5" spans="1:27" ht="15">
-      <c r="B5" s="799" t="str">
+      <c r="B5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -18864,8 +18864,8 @@
       <c r="G5" s="108"/>
       <c r="H5" s="108"/>
       <c r="I5" s="109"/>
-      <c r="J5" s="801"/>
-      <c r="K5" s="799" t="str">
+      <c r="J5" s="810"/>
+      <c r="K5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -18885,8 +18885,8 @@
       <c r="R5" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="801"/>
-      <c r="T5" s="799" t="str">
+      <c r="S5" s="810"/>
+      <c r="T5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -18910,7 +18910,7 @@
       <c r="AA5" s="146"/>
     </row>
     <row r="6" spans="1:27" ht="15">
-      <c r="B6" s="800"/>
+      <c r="B6" s="809"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
       <c r="E6" s="95"/>
@@ -18918,8 +18918,8 @@
       <c r="G6" s="95"/>
       <c r="H6" s="95"/>
       <c r="I6" s="110"/>
-      <c r="J6" s="801"/>
-      <c r="K6" s="800"/>
+      <c r="J6" s="810"/>
+      <c r="K6" s="809"/>
       <c r="L6" s="147"/>
       <c r="M6" s="147" t="s">
         <v>7</v>
@@ -18933,8 +18933,8 @@
       <c r="R6" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="S6" s="801"/>
-      <c r="T6" s="800"/>
+      <c r="S6" s="810"/>
+      <c r="T6" s="809"/>
       <c r="U6" s="147" t="s">
         <v>137</v>
       </c>
@@ -18982,7 +18982,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J7" s="801"/>
+      <c r="J7" s="810"/>
       <c r="K7" s="149" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -19011,7 +19011,7 @@
       <c r="R7" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="S7" s="801"/>
+      <c r="S7" s="810"/>
       <c r="T7" s="149" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -19069,7 +19069,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="801"/>
+      <c r="J8" s="810"/>
       <c r="K8" s="152" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -19100,7 +19100,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="801"/>
+      <c r="S8" s="810"/>
       <c r="T8" s="152" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -19166,7 +19166,7 @@
         <f>Planner!K$23</f>
         <v/>
       </c>
-      <c r="J9" s="801"/>
+      <c r="J9" s="810"/>
       <c r="K9" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -19199,7 +19199,7 @@
         <f>Planner!K$35</f>
         <v/>
       </c>
-      <c r="S9" s="801"/>
+      <c r="S9" s="810"/>
       <c r="T9" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -19266,7 +19266,7 @@
         <f>Planner!K$24</f>
         <v/>
       </c>
-      <c r="J10" s="801"/>
+      <c r="J10" s="810"/>
       <c r="K10" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -19296,7 +19296,7 @@
         <f>Planner!K$36</f>
         <v/>
       </c>
-      <c r="S10" s="801"/>
+      <c r="S10" s="810"/>
       <c r="T10" s="166" t="str">
         <f>IF($A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -19355,7 +19355,7 @@
       <c r="I11" s="163">
         <v>45326</v>
       </c>
-      <c r="J11" s="801"/>
+      <c r="J11" s="810"/>
       <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
@@ -19380,7 +19380,7 @@
       <c r="R11" s="163">
         <v>45333</v>
       </c>
-      <c r="S11" s="801"/>
+      <c r="S11" s="810"/>
       <c r="T11" s="167" t="s">
         <v>32</v>
       </c>
@@ -19439,7 +19439,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="J12" s="801"/>
+      <c r="J12" s="810"/>
       <c r="K12" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -19472,7 +19472,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="S12" s="801"/>
+      <c r="S12" s="810"/>
       <c r="T12" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -19532,7 +19532,7 @@
       <c r="I13" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="801"/>
+      <c r="J13" s="810"/>
       <c r="K13" s="111" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D7=0,"",'Enter (Vac BFs TrCl MB'!$D7)</f>
         <v>Brittney</v>
@@ -19558,7 +19558,7 @@
       <c r="R13" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="801"/>
+      <c r="S13" s="810"/>
       <c r="T13" s="111" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D7=0,"",'Enter (Vac BFs TrCl MB'!$D7)</f>
         <v>Brittney</v>
@@ -19611,7 +19611,7 @@
       <c r="I14" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="801"/>
+      <c r="J14" s="810"/>
       <c r="K14" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D8=0,"",'Enter (Vac BFs TrCl MB'!$D8)</f>
         <v>Jayda</v>
@@ -19637,7 +19637,7 @@
       <c r="R14" s="638" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="801"/>
+      <c r="S14" s="810"/>
       <c r="T14" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D8=0,"",'Enter (Vac BFs TrCl MB'!$D8)</f>
         <v>Jayda</v>
@@ -19690,7 +19690,7 @@
       <c r="I15" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="801"/>
+      <c r="J15" s="810"/>
       <c r="K15" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D9=0,"",'Enter (Vac BFs TrCl MB'!$D9)</f>
         <v>Harkaml</v>
@@ -19716,7 +19716,7 @@
       <c r="R15" s="653" t="s">
         <v>149</v>
       </c>
-      <c r="S15" s="801"/>
+      <c r="S15" s="810"/>
       <c r="T15" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D9=0,"",'Enter (Vac BFs TrCl MB'!$D9)</f>
         <v>Harkaml</v>
@@ -19769,7 +19769,7 @@
       <c r="I16" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="801"/>
+      <c r="J16" s="810"/>
       <c r="K16" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D10=0,"",'Enter (Vac BFs TrCl MB'!$D10)</f>
         <v>Chehal</v>
@@ -19795,7 +19795,7 @@
       <c r="R16" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="S16" s="801"/>
+      <c r="S16" s="810"/>
       <c r="T16" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D10=0,"",'Enter (Vac BFs TrCl MB'!$D10)</f>
         <v>Chehal</v>
@@ -19848,7 +19848,7 @@
       <c r="I17" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="801"/>
+      <c r="J17" s="810"/>
       <c r="K17" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D11=0,"",'Enter (Vac BFs TrCl MB'!$D11)</f>
         <v>Alex</v>
@@ -19875,7 +19875,7 @@
       <c r="R17" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="S17" s="801"/>
+      <c r="S17" s="810"/>
       <c r="T17" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D11=0,"",'Enter (Vac BFs TrCl MB'!$D11)</f>
         <v>Alex</v>
@@ -19927,7 +19927,7 @@
       <c r="I18" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="801"/>
+      <c r="J18" s="810"/>
       <c r="K18" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D12=0,"",'Enter (Vac BFs TrCl MB'!$D12)</f>
         <v>Akansha</v>
@@ -19953,7 +19953,7 @@
       <c r="R18" s="658" t="s">
         <v>224</v>
       </c>
-      <c r="S18" s="801"/>
+      <c r="S18" s="810"/>
       <c r="T18" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D12=0,"",'Enter (Vac BFs TrCl MB'!$D12)</f>
         <v>Akansha</v>
@@ -20006,7 +20006,7 @@
       <c r="I19" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="801"/>
+      <c r="J19" s="810"/>
       <c r="K19" s="632" t="s">
         <v>78</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="R19" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="801"/>
+      <c r="S19" s="810"/>
       <c r="T19" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D13=0,"",'Enter (Vac BFs TrCl MB'!$D13)</f>
         <v>Kiran</v>
@@ -20084,7 +20084,7 @@
       <c r="I20" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="801"/>
+      <c r="J20" s="810"/>
       <c r="K20" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D14=0,"",'Enter (Vac BFs TrCl MB'!$D14)</f>
         <v>Mahshid</v>
@@ -20112,7 +20112,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>XX</v>
       </c>
-      <c r="S20" s="801"/>
+      <c r="S20" s="810"/>
       <c r="T20" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D14=0,"",'Enter (Vac BFs TrCl MB'!$D14)</f>
         <v>Mahshid</v>
@@ -20165,7 +20165,7 @@
       <c r="I21" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="801"/>
+      <c r="J21" s="810"/>
       <c r="K21" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D15=0,"",'Enter (Vac BFs TrCl MB'!$D15)</f>
         <v>Harry</v>
@@ -20191,7 +20191,7 @@
       <c r="R21" s="651" t="s">
         <v>116</v>
       </c>
-      <c r="S21" s="801"/>
+      <c r="S21" s="810"/>
       <c r="T21" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D15=0,"",'Enter (Vac BFs TrCl MB'!$D15)</f>
         <v>Harry</v>
@@ -20246,7 +20246,7 @@
       <c r="I22" s="651" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="801"/>
+      <c r="J22" s="810"/>
       <c r="K22" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D16=0,"",'Enter (Vac BFs TrCl MB'!$D16)</f>
         <v>Parm</v>
@@ -20273,7 +20273,7 @@
       <c r="R22" s="638" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="801"/>
+      <c r="S22" s="810"/>
       <c r="T22" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D16=0,"",'Enter (Vac BFs TrCl MB'!$D16)</f>
         <v>Parm</v>
@@ -20326,7 +20326,7 @@
       <c r="I23" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="801"/>
+      <c r="J23" s="810"/>
       <c r="K23" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D17=0,"",'Enter (Vac BFs TrCl MB'!$D17)</f>
         <v>Harmik</v>
@@ -20352,7 +20352,7 @@
       <c r="R23" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="S23" s="801"/>
+      <c r="S23" s="810"/>
       <c r="T23" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D17=0,"",'Enter (Vac BFs TrCl MB'!$D17)</f>
         <v>Harmik</v>
@@ -20405,7 +20405,7 @@
       <c r="I24" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="801"/>
+      <c r="J24" s="810"/>
       <c r="K24" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D18=0,"",'Enter (Vac BFs TrCl MB'!$D18)</f>
         <v>Ruby</v>
@@ -20431,7 +20431,7 @@
       <c r="R24" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="S24" s="801"/>
+      <c r="S24" s="810"/>
       <c r="T24" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D18=0,"",'Enter (Vac BFs TrCl MB'!$D18)</f>
         <v>Ruby</v>
@@ -20485,7 +20485,7 @@
       <c r="I25" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="801"/>
+      <c r="J25" s="810"/>
       <c r="K25" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D19=0,"",'Enter (Vac BFs TrCl MB'!$D19)</f>
         <v>Taran</v>
@@ -20511,7 +20511,7 @@
       <c r="R25" s="648" t="s">
         <v>101</v>
       </c>
-      <c r="S25" s="801"/>
+      <c r="S25" s="810"/>
       <c r="T25" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D19=0,"",'Enter (Vac BFs TrCl MB'!$D19)</f>
         <v>Taran</v>
@@ -20564,7 +20564,7 @@
       <c r="I26" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="801"/>
+      <c r="J26" s="810"/>
       <c r="K26" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D20=0,"",'Enter (Vac BFs TrCl MB'!$D20)</f>
         <v>Jinse</v>
@@ -20590,7 +20590,7 @@
       <c r="R26" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="S26" s="801"/>
+      <c r="S26" s="810"/>
       <c r="T26" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D20=0,"",'Enter (Vac BFs TrCl MB'!$D20)</f>
         <v>Jinse</v>
@@ -20643,7 +20643,7 @@
       <c r="I27" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="801"/>
+      <c r="J27" s="810"/>
       <c r="K27" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D21=0,"",'Enter (Vac BFs TrCl MB'!$D21)</f>
         <v>Marija</v>
@@ -20669,7 +20669,7 @@
       <c r="R27" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="S27" s="801"/>
+      <c r="S27" s="810"/>
       <c r="T27" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D21=0,"",'Enter (Vac BFs TrCl MB'!$D21)</f>
         <v>Marija</v>
@@ -20721,7 +20721,7 @@
       <c r="I28" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="801"/>
+      <c r="J28" s="810"/>
       <c r="K28" s="112" t="s">
         <v>118</v>
       </c>
@@ -20746,7 +20746,7 @@
       <c r="R28" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="S28" s="801"/>
+      <c r="S28" s="810"/>
       <c r="T28" s="112" t="s">
         <v>118</v>
       </c>
@@ -20805,7 +20805,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J29" s="801"/>
+      <c r="J29" s="810"/>
       <c r="K29" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D23=0,"",'Enter (Vac BFs TrCl MB'!$D23)</f>
         <v/>
@@ -20838,7 +20838,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S29" s="801"/>
+      <c r="S29" s="810"/>
       <c r="T29" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D23=0,"",'Enter (Vac BFs TrCl MB'!$D23)</f>
         <v/>
@@ -20897,7 +20897,7 @@
       <c r="I30" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="801"/>
+      <c r="J30" s="810"/>
       <c r="K30" s="112" t="s">
         <v>265</v>
       </c>
@@ -20922,7 +20922,7 @@
       <c r="R30" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="S30" s="801"/>
+      <c r="S30" s="810"/>
       <c r="T30" s="112" t="s">
         <v>265</v>
       </c>
@@ -20957,7 +20957,7 @@
       <c r="G31" s="153"/>
       <c r="H31" s="153"/>
       <c r="I31" s="154"/>
-      <c r="J31" s="801"/>
+      <c r="J31" s="810"/>
       <c r="K31" s="112"/>
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
@@ -20966,7 +20966,7 @@
       <c r="P31" s="153"/>
       <c r="Q31" s="153"/>
       <c r="R31" s="154"/>
-      <c r="S31" s="801"/>
+      <c r="S31" s="810"/>
       <c r="T31" s="112"/>
       <c r="U31" s="153"/>
       <c r="V31" s="153"/>
@@ -21009,7 +21009,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J32" s="801"/>
+      <c r="J32" s="810"/>
       <c r="K32" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D26=0,"",'Enter (Vac BFs TrCl MB'!$D26)</f>
         <v/>
@@ -21042,7 +21042,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S32" s="801"/>
+      <c r="S32" s="810"/>
       <c r="T32" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D26=0,"",'Enter (Vac BFs TrCl MB'!$D26)</f>
         <v/>
@@ -21109,7 +21109,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J33" s="801"/>
+      <c r="J33" s="810"/>
       <c r="K33" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D27=0,"",'Enter (Vac BFs TrCl MB'!$D27)</f>
         <v xml:space="preserve">TL </v>
@@ -21142,7 +21142,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S33" s="801"/>
+      <c r="S33" s="810"/>
       <c r="T33" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D27=0,"",'Enter (Vac BFs TrCl MB'!$D27)</f>
         <v xml:space="preserve">TL </v>
@@ -21209,7 +21209,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J34" s="801"/>
+      <c r="J34" s="810"/>
       <c r="K34" s="113" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D28=0,"",'Enter (Vac BFs TrCl MB'!$D28)</f>
         <v>Lakshay</v>
@@ -21237,7 +21237,7 @@
       <c r="R34" s="658" t="s">
         <v>114</v>
       </c>
-      <c r="S34" s="801"/>
+      <c r="S34" s="810"/>
       <c r="T34" s="113" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D28=0,"",'Enter (Vac BFs TrCl MB'!$D28)</f>
         <v>Lakshay</v>
@@ -21262,35 +21262,35 @@
       <c r="AA34" s="156"/>
     </row>
     <row r="35" spans="2:27" ht="14.65" thickBot="1">
-      <c r="B35" s="808"/>
-      <c r="C35" s="808"/>
-      <c r="D35" s="808"/>
-      <c r="E35" s="808"/>
-      <c r="F35" s="808"/>
-      <c r="G35" s="808"/>
-      <c r="H35" s="808"/>
-      <c r="I35" s="808"/>
-      <c r="J35" s="808"/>
-      <c r="K35" s="808"/>
-      <c r="L35" s="808"/>
-      <c r="M35" s="808"/>
-      <c r="N35" s="808"/>
-      <c r="O35" s="808"/>
-      <c r="P35" s="808"/>
-      <c r="Q35" s="808"/>
-      <c r="R35" s="808"/>
-      <c r="S35" s="808"/>
-      <c r="T35" s="808"/>
-      <c r="U35" s="808"/>
-      <c r="V35" s="808"/>
-      <c r="W35" s="808"/>
-      <c r="X35" s="808"/>
-      <c r="Y35" s="808"/>
-      <c r="Z35" s="808"/>
-      <c r="AA35" s="808"/>
+      <c r="B35" s="781"/>
+      <c r="C35" s="781"/>
+      <c r="D35" s="781"/>
+      <c r="E35" s="781"/>
+      <c r="F35" s="781"/>
+      <c r="G35" s="781"/>
+      <c r="H35" s="781"/>
+      <c r="I35" s="781"/>
+      <c r="J35" s="781"/>
+      <c r="K35" s="781"/>
+      <c r="L35" s="781"/>
+      <c r="M35" s="781"/>
+      <c r="N35" s="781"/>
+      <c r="O35" s="781"/>
+      <c r="P35" s="781"/>
+      <c r="Q35" s="781"/>
+      <c r="R35" s="781"/>
+      <c r="S35" s="781"/>
+      <c r="T35" s="781"/>
+      <c r="U35" s="781"/>
+      <c r="V35" s="781"/>
+      <c r="W35" s="781"/>
+      <c r="X35" s="781"/>
+      <c r="Y35" s="781"/>
+      <c r="Z35" s="781"/>
+      <c r="AA35" s="781"/>
     </row>
     <row r="36" spans="2:27" ht="17.2" customHeight="1">
-      <c r="B36" s="809" t="str">
+      <c r="B36" s="782" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -21310,8 +21310,8 @@
       <c r="G36" s="108"/>
       <c r="H36" s="108"/>
       <c r="I36" s="109"/>
-      <c r="J36" s="811"/>
-      <c r="K36" s="809" t="str">
+      <c r="J36" s="784"/>
+      <c r="K36" s="782" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -21327,20 +21327,20 @@
       <c r="P36" s="108"/>
       <c r="Q36" s="108"/>
       <c r="R36" s="109"/>
-      <c r="S36" s="811"/>
-      <c r="T36" s="812" t="s">
+      <c r="S36" s="784"/>
+      <c r="T36" s="785" t="s">
         <v>38</v>
       </c>
-      <c r="U36" s="813"/>
-      <c r="V36" s="813"/>
-      <c r="W36" s="813"/>
-      <c r="X36" s="813"/>
-      <c r="Y36" s="813"/>
-      <c r="Z36" s="813"/>
-      <c r="AA36" s="814"/>
+      <c r="U36" s="786"/>
+      <c r="V36" s="786"/>
+      <c r="W36" s="786"/>
+      <c r="X36" s="786"/>
+      <c r="Y36" s="786"/>
+      <c r="Z36" s="786"/>
+      <c r="AA36" s="787"/>
     </row>
     <row r="37" spans="2:27" ht="15">
-      <c r="B37" s="810"/>
+      <c r="B37" s="783"/>
       <c r="C37" s="95"/>
       <c r="D37" s="95" t="s">
         <v>241</v>
@@ -21352,8 +21352,8 @@
       <c r="G37" s="95"/>
       <c r="H37" s="95"/>
       <c r="I37" s="110"/>
-      <c r="J37" s="811"/>
-      <c r="K37" s="810"/>
+      <c r="J37" s="784"/>
+      <c r="K37" s="783"/>
       <c r="L37" s="95"/>
       <c r="M37" s="95" t="s">
         <v>242</v>
@@ -21365,21 +21365,21 @@
       <c r="P37" s="95"/>
       <c r="Q37" s="95"/>
       <c r="R37" s="110"/>
-      <c r="S37" s="811"/>
+      <c r="S37" s="784"/>
       <c r="T37" s="280" t="s">
         <v>39</v>
       </c>
       <c r="U37" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="815" t="s">
+      <c r="V37" s="788" t="s">
         <v>41</v>
       </c>
-      <c r="W37" s="815"/>
-      <c r="X37" s="815"/>
-      <c r="Y37" s="815"/>
-      <c r="Z37" s="815"/>
-      <c r="AA37" s="816"/>
+      <c r="W37" s="788"/>
+      <c r="X37" s="788"/>
+      <c r="Y37" s="788"/>
+      <c r="Z37" s="788"/>
+      <c r="AA37" s="789"/>
     </row>
     <row r="38" spans="2:27" ht="15.4">
       <c r="B38" s="103" t="str">
@@ -21410,7 +21410,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J38" s="811"/>
+      <c r="J38" s="784"/>
       <c r="K38" s="103" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -21442,19 +21442,19 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S38" s="811"/>
+      <c r="S38" s="784"/>
       <c r="T38" s="634">
         <v>45320</v>
       </c>
       <c r="U38" s="279"/>
-      <c r="V38" s="817" t="s">
+      <c r="V38" s="790" t="s">
         <v>161</v>
       </c>
-      <c r="W38" s="817"/>
-      <c r="X38" s="817"/>
-      <c r="Y38" s="817"/>
-      <c r="Z38" s="817"/>
-      <c r="AA38" s="818"/>
+      <c r="W38" s="790"/>
+      <c r="X38" s="790"/>
+      <c r="Y38" s="790"/>
+      <c r="Z38" s="790"/>
+      <c r="AA38" s="791"/>
     </row>
     <row r="39" spans="2:27" ht="15.4">
       <c r="B39" s="103" t="str">
@@ -21489,14 +21489,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J39" s="811"/>
+      <c r="J39" s="784"/>
       <c r="K39" s="103" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
       </c>
-      <c r="L39" s="90" t="str">
+      <c r="L39" s="90">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M39" s="90">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
@@ -21522,19 +21522,19 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
         <v>WK</v>
       </c>
-      <c r="S39" s="811"/>
+      <c r="S39" s="784"/>
       <c r="T39" s="634">
         <v>45320</v>
       </c>
       <c r="U39" s="279"/>
-      <c r="V39" s="817" t="s">
+      <c r="V39" s="790" t="s">
         <v>162</v>
       </c>
-      <c r="W39" s="817"/>
-      <c r="X39" s="817"/>
-      <c r="Y39" s="817"/>
-      <c r="Z39" s="817"/>
-      <c r="AA39" s="818"/>
+      <c r="W39" s="790"/>
+      <c r="X39" s="790"/>
+      <c r="Y39" s="790"/>
+      <c r="Z39" s="790"/>
+      <c r="AA39" s="791"/>
     </row>
     <row r="40" spans="2:27" ht="15.4">
       <c r="B40" s="104" t="str">
@@ -21569,7 +21569,7 @@
         <f>Planner!K$59</f>
         <v/>
       </c>
-      <c r="J40" s="811"/>
+      <c r="J40" s="784"/>
       <c r="K40" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -21602,19 +21602,19 @@
         <f>Planner!K$71</f>
         <v/>
       </c>
-      <c r="S40" s="811"/>
+      <c r="S40" s="784"/>
       <c r="T40" s="635">
         <v>45321</v>
       </c>
       <c r="U40" s="275"/>
-      <c r="V40" s="819" t="s">
+      <c r="V40" s="792" t="s">
         <v>163</v>
       </c>
-      <c r="W40" s="819"/>
-      <c r="X40" s="819"/>
-      <c r="Y40" s="819"/>
-      <c r="Z40" s="819"/>
-      <c r="AA40" s="820"/>
+      <c r="W40" s="792"/>
+      <c r="X40" s="792"/>
+      <c r="Y40" s="792"/>
+      <c r="Z40" s="792"/>
+      <c r="AA40" s="793"/>
     </row>
     <row r="41" spans="2:27" ht="15.4">
       <c r="B41" s="104" t="str">
@@ -21649,7 +21649,7 @@
         <f>Planner!K$60</f>
         <v/>
       </c>
-      <c r="J41" s="811"/>
+      <c r="J41" s="784"/>
       <c r="K41" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -21682,19 +21682,19 @@
         <f>Planner!K$72</f>
         <v/>
       </c>
-      <c r="S41" s="811"/>
+      <c r="S41" s="784"/>
       <c r="T41" s="635">
         <v>45322</v>
       </c>
       <c r="U41" s="275"/>
-      <c r="V41" s="819" t="s">
+      <c r="V41" s="792" t="s">
         <v>164</v>
       </c>
-      <c r="W41" s="819"/>
-      <c r="X41" s="819"/>
-      <c r="Y41" s="819"/>
-      <c r="Z41" s="819"/>
-      <c r="AA41" s="820"/>
+      <c r="W41" s="792"/>
+      <c r="X41" s="792"/>
+      <c r="Y41" s="792"/>
+      <c r="Z41" s="792"/>
+      <c r="AA41" s="793"/>
     </row>
     <row r="42" spans="2:27" ht="15.4">
       <c r="B42" s="104" t="s">
@@ -21721,12 +21721,12 @@
       <c r="I42" s="93">
         <v>45347</v>
       </c>
-      <c r="J42" s="811"/>
+      <c r="J42" s="784"/>
       <c r="K42" s="104" t="s">
         <v>32</v>
       </c>
       <c r="L42" s="93">
-        <v>26</v>
+        <v>45348</v>
       </c>
       <c r="M42" s="93">
         <v>45349</v>
@@ -21746,19 +21746,19 @@
       <c r="R42" s="93">
         <v>45354</v>
       </c>
-      <c r="S42" s="811"/>
+      <c r="S42" s="784"/>
       <c r="T42" s="635">
         <v>45322</v>
       </c>
       <c r="U42" s="276"/>
-      <c r="V42" s="821" t="s">
+      <c r="V42" s="794" t="s">
         <v>165</v>
       </c>
-      <c r="W42" s="821"/>
-      <c r="X42" s="821"/>
-      <c r="Y42" s="821"/>
-      <c r="Z42" s="821"/>
-      <c r="AA42" s="822"/>
+      <c r="W42" s="794"/>
+      <c r="X42" s="794"/>
+      <c r="Y42" s="794"/>
+      <c r="Z42" s="794"/>
+      <c r="AA42" s="795"/>
     </row>
     <row r="43" spans="2:27" ht="15.4">
       <c r="B43" s="104" t="str">
@@ -21792,7 +21792,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="J43" s="811"/>
+      <c r="J43" s="784"/>
       <c r="K43" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -21825,19 +21825,19 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="S43" s="811"/>
+      <c r="S43" s="784"/>
       <c r="T43" s="635">
         <v>45323</v>
       </c>
       <c r="U43" s="277"/>
-      <c r="V43" s="823" t="s">
+      <c r="V43" s="796" t="s">
         <v>166</v>
       </c>
-      <c r="W43" s="823"/>
-      <c r="X43" s="823"/>
-      <c r="Y43" s="823"/>
-      <c r="Z43" s="823"/>
-      <c r="AA43" s="824"/>
+      <c r="W43" s="796"/>
+      <c r="X43" s="796"/>
+      <c r="Y43" s="796"/>
+      <c r="Z43" s="796"/>
+      <c r="AA43" s="797"/>
     </row>
     <row r="44" spans="2:27" ht="15.4">
       <c r="B44" s="111" t="str">
@@ -21865,7 +21865,7 @@
       <c r="I44" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="811"/>
+      <c r="J44" s="784"/>
       <c r="K44" s="111" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D7=0,"",'Enter (Vac BFs TrCl MB'!$D7)</f>
         <v>Brittney</v>
@@ -21891,19 +21891,19 @@
       <c r="R44" s="639" t="s">
         <v>9</v>
       </c>
-      <c r="S44" s="811"/>
+      <c r="S44" s="784"/>
       <c r="T44" s="636">
         <v>45327</v>
       </c>
       <c r="U44" s="274"/>
-      <c r="V44" s="781" t="s">
+      <c r="V44" s="798" t="s">
         <v>167</v>
       </c>
-      <c r="W44" s="781"/>
-      <c r="X44" s="781"/>
-      <c r="Y44" s="781"/>
-      <c r="Z44" s="781"/>
-      <c r="AA44" s="782"/>
+      <c r="W44" s="798"/>
+      <c r="X44" s="798"/>
+      <c r="Y44" s="798"/>
+      <c r="Z44" s="798"/>
+      <c r="AA44" s="799"/>
     </row>
     <row r="45" spans="2:27" ht="15">
       <c r="B45" s="111" t="str">
@@ -21931,7 +21931,7 @@
       <c r="I45" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="811"/>
+      <c r="J45" s="784"/>
       <c r="K45" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D8=0,"",'Enter (Vac BFs TrCl MB'!$D8)</f>
         <v>Jayda</v>
@@ -21957,21 +21957,21 @@
       <c r="R45" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="S45" s="811"/>
+      <c r="S45" s="784"/>
       <c r="T45" s="636">
         <v>45327</v>
       </c>
       <c r="U45" s="274" t="s">
         <v>171</v>
       </c>
-      <c r="V45" s="781" t="s">
+      <c r="V45" s="798" t="s">
         <v>168</v>
       </c>
-      <c r="W45" s="781"/>
-      <c r="X45" s="781"/>
-      <c r="Y45" s="781"/>
-      <c r="Z45" s="781"/>
-      <c r="AA45" s="782"/>
+      <c r="W45" s="798"/>
+      <c r="X45" s="798"/>
+      <c r="Y45" s="798"/>
+      <c r="Z45" s="798"/>
+      <c r="AA45" s="799"/>
     </row>
     <row r="46" spans="2:27" ht="15">
       <c r="B46" s="111" t="str">
@@ -21999,7 +21999,7 @@
       <c r="I46" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="J46" s="811"/>
+      <c r="J46" s="784"/>
       <c r="K46" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D9=0,"",'Enter (Vac BFs TrCl MB'!$D9)</f>
         <v>Harkaml</v>
@@ -22025,17 +22025,17 @@
       <c r="R46" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="S46" s="811"/>
+      <c r="S46" s="784"/>
       <c r="T46" s="283"/>
       <c r="U46" s="274"/>
-      <c r="V46" s="825" t="s">
+      <c r="V46" s="800" t="s">
         <v>169</v>
       </c>
-      <c r="W46" s="825"/>
-      <c r="X46" s="825"/>
-      <c r="Y46" s="825"/>
-      <c r="Z46" s="825"/>
-      <c r="AA46" s="826"/>
+      <c r="W46" s="800"/>
+      <c r="X46" s="800"/>
+      <c r="Y46" s="800"/>
+      <c r="Z46" s="800"/>
+      <c r="AA46" s="801"/>
     </row>
     <row r="47" spans="2:27" ht="15">
       <c r="B47" s="111" t="str">
@@ -22063,7 +22063,7 @@
       <c r="I47" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="811"/>
+      <c r="J47" s="784"/>
       <c r="K47" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D10=0,"",'Enter (Vac BFs TrCl MB'!$D10)</f>
         <v>Chehal</v>
@@ -22089,21 +22089,21 @@
       <c r="R47" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="S47" s="811"/>
+      <c r="S47" s="784"/>
       <c r="T47" s="636">
         <v>45327</v>
       </c>
       <c r="U47" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="V47" s="781" t="s">
+      <c r="V47" s="798" t="s">
         <v>172</v>
       </c>
-      <c r="W47" s="781"/>
-      <c r="X47" s="781"/>
-      <c r="Y47" s="781"/>
-      <c r="Z47" s="781"/>
-      <c r="AA47" s="782"/>
+      <c r="W47" s="798"/>
+      <c r="X47" s="798"/>
+      <c r="Y47" s="798"/>
+      <c r="Z47" s="798"/>
+      <c r="AA47" s="799"/>
     </row>
     <row r="48" spans="2:27" ht="15">
       <c r="B48" s="111" t="str">
@@ -22131,7 +22131,7 @@
       <c r="I48" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="J48" s="811"/>
+      <c r="J48" s="784"/>
       <c r="K48" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D11=0,"",'Enter (Vac BFs TrCl MB'!$D11)</f>
         <v>Alex</v>
@@ -22157,21 +22157,21 @@
       <c r="R48" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="S48" s="811"/>
+      <c r="S48" s="784"/>
       <c r="T48" s="636">
         <v>45328</v>
       </c>
       <c r="U48" s="274" t="s">
         <v>140</v>
       </c>
-      <c r="V48" s="781" t="s">
+      <c r="V48" s="798" t="s">
         <v>182</v>
       </c>
-      <c r="W48" s="781"/>
-      <c r="X48" s="781"/>
-      <c r="Y48" s="781"/>
-      <c r="Z48" s="781"/>
-      <c r="AA48" s="782"/>
+      <c r="W48" s="798"/>
+      <c r="X48" s="798"/>
+      <c r="Y48" s="798"/>
+      <c r="Z48" s="798"/>
+      <c r="AA48" s="799"/>
     </row>
     <row r="49" spans="2:27" ht="15">
       <c r="B49" s="111" t="str">
@@ -22199,7 +22199,7 @@
       <c r="I49" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="811"/>
+      <c r="J49" s="784"/>
       <c r="K49" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D12=0,"",'Enter (Vac BFs TrCl MB'!$D12)</f>
         <v>Akansha</v>
@@ -22225,21 +22225,21 @@
       <c r="R49" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="S49" s="811"/>
+      <c r="S49" s="784"/>
       <c r="T49" s="636">
         <v>45329</v>
       </c>
       <c r="U49" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="V49" s="788" t="s">
+      <c r="V49" s="816" t="s">
         <v>175</v>
       </c>
-      <c r="W49" s="789"/>
-      <c r="X49" s="789"/>
-      <c r="Y49" s="789"/>
-      <c r="Z49" s="789"/>
-      <c r="AA49" s="790"/>
+      <c r="W49" s="817"/>
+      <c r="X49" s="817"/>
+      <c r="Y49" s="817"/>
+      <c r="Z49" s="817"/>
+      <c r="AA49" s="818"/>
     </row>
     <row r="50" spans="2:27" ht="15">
       <c r="B50" s="111" t="str">
@@ -22267,7 +22267,7 @@
       <c r="I50" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="J50" s="811"/>
+      <c r="J50" s="784"/>
       <c r="K50" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D13=0,"",'Enter (Vac BFs TrCl MB'!$D13)</f>
         <v>Kiran</v>
@@ -22293,19 +22293,19 @@
       <c r="R50" s="640" t="s">
         <v>9</v>
       </c>
-      <c r="S50" s="811"/>
+      <c r="S50" s="784"/>
       <c r="T50" s="636">
         <v>45330</v>
       </c>
       <c r="U50" s="274"/>
-      <c r="V50" s="791" t="s">
+      <c r="V50" s="819" t="s">
         <v>178</v>
       </c>
-      <c r="W50" s="792"/>
-      <c r="X50" s="792"/>
-      <c r="Y50" s="792"/>
-      <c r="Z50" s="792"/>
-      <c r="AA50" s="793"/>
+      <c r="W50" s="820"/>
+      <c r="X50" s="820"/>
+      <c r="Y50" s="820"/>
+      <c r="Z50" s="820"/>
+      <c r="AA50" s="821"/>
     </row>
     <row r="51" spans="2:27" ht="15">
       <c r="B51" s="111" t="str">
@@ -22333,7 +22333,7 @@
       <c r="I51" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="J51" s="811"/>
+      <c r="J51" s="784"/>
       <c r="K51" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D14=0,"",'Enter (Vac BFs TrCl MB'!$D14)</f>
         <v>Mahshid</v>
@@ -22359,21 +22359,21 @@
       <c r="R51" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S51" s="811"/>
+      <c r="S51" s="784"/>
       <c r="T51" s="636">
         <v>45330</v>
       </c>
       <c r="U51" s="274" t="s">
         <v>158</v>
       </c>
-      <c r="V51" s="788" t="s">
+      <c r="V51" s="816" t="s">
         <v>177</v>
       </c>
-      <c r="W51" s="789"/>
-      <c r="X51" s="789"/>
-      <c r="Y51" s="789"/>
-      <c r="Z51" s="789"/>
-      <c r="AA51" s="790"/>
+      <c r="W51" s="817"/>
+      <c r="X51" s="817"/>
+      <c r="Y51" s="817"/>
+      <c r="Z51" s="817"/>
+      <c r="AA51" s="818"/>
     </row>
     <row r="52" spans="2:27" ht="15">
       <c r="B52" s="111" t="str">
@@ -22408,7 +22408,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>H</v>
       </c>
-      <c r="J52" s="811"/>
+      <c r="J52" s="784"/>
       <c r="K52" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D15=0,"",'Enter (Vac BFs TrCl MB'!$D15)</f>
         <v>Harry</v>
@@ -22434,21 +22434,21 @@
       <c r="R52" s="645" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="811"/>
+      <c r="S52" s="784"/>
       <c r="T52" s="636">
         <v>45332</v>
       </c>
       <c r="U52" s="274" t="s">
         <v>171</v>
       </c>
-      <c r="V52" s="788" t="s">
+      <c r="V52" s="816" t="s">
         <v>179</v>
       </c>
-      <c r="W52" s="789"/>
-      <c r="X52" s="789"/>
-      <c r="Y52" s="789"/>
-      <c r="Z52" s="789"/>
-      <c r="AA52" s="790"/>
+      <c r="W52" s="817"/>
+      <c r="X52" s="817"/>
+      <c r="Y52" s="817"/>
+      <c r="Z52" s="817"/>
+      <c r="AA52" s="818"/>
     </row>
     <row r="53" spans="2:27" ht="15">
       <c r="B53" s="111" t="str">
@@ -22478,7 +22478,7 @@
       <c r="I53" s="644" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="811"/>
+      <c r="J53" s="784"/>
       <c r="K53" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D16=0,"",'Enter (Vac BFs TrCl MB'!$D16)</f>
         <v>Parm</v>
@@ -22504,19 +22504,19 @@
       <c r="R53" s="664" t="s">
         <v>194</v>
       </c>
-      <c r="S53" s="811"/>
+      <c r="S53" s="784"/>
       <c r="T53" s="283" t="s">
         <v>180</v>
       </c>
       <c r="U53" s="274"/>
-      <c r="V53" s="788" t="s">
+      <c r="V53" s="816" t="s">
         <v>181</v>
       </c>
-      <c r="W53" s="789"/>
-      <c r="X53" s="789"/>
-      <c r="Y53" s="789"/>
-      <c r="Z53" s="789"/>
-      <c r="AA53" s="790"/>
+      <c r="W53" s="817"/>
+      <c r="X53" s="817"/>
+      <c r="Y53" s="817"/>
+      <c r="Z53" s="817"/>
+      <c r="AA53" s="818"/>
     </row>
     <row r="54" spans="2:27" ht="15">
       <c r="B54" s="111" t="str">
@@ -22544,7 +22544,7 @@
       <c r="I54" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="811"/>
+      <c r="J54" s="784"/>
       <c r="K54" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D17=0,"",'Enter (Vac BFs TrCl MB'!$D17)</f>
         <v>Harmik</v>
@@ -22570,19 +22570,19 @@
       <c r="R54" s="266" t="s">
         <v>105</v>
       </c>
-      <c r="S54" s="811"/>
+      <c r="S54" s="784"/>
       <c r="T54" s="636">
         <v>45334</v>
       </c>
       <c r="U54" s="274"/>
-      <c r="V54" s="788" t="s">
+      <c r="V54" s="816" t="s">
         <v>183</v>
       </c>
-      <c r="W54" s="789"/>
-      <c r="X54" s="789"/>
-      <c r="Y54" s="789"/>
-      <c r="Z54" s="789"/>
-      <c r="AA54" s="790"/>
+      <c r="W54" s="817"/>
+      <c r="X54" s="817"/>
+      <c r="Y54" s="817"/>
+      <c r="Z54" s="817"/>
+      <c r="AA54" s="818"/>
     </row>
     <row r="55" spans="2:27" ht="15">
       <c r="B55" s="111" t="str">
@@ -22610,7 +22610,7 @@
       <c r="I55" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="811"/>
+      <c r="J55" s="784"/>
       <c r="K55" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D18=0,"",'Enter (Vac BFs TrCl MB'!$D18)</f>
         <v>Ruby</v>
@@ -22636,19 +22636,19 @@
       <c r="R55" s="640" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="811"/>
+      <c r="S55" s="784"/>
       <c r="T55" s="636">
         <v>45334</v>
       </c>
       <c r="U55" s="274"/>
-      <c r="V55" s="788" t="s">
+      <c r="V55" s="816" t="s">
         <v>184</v>
       </c>
-      <c r="W55" s="789"/>
-      <c r="X55" s="789"/>
-      <c r="Y55" s="789"/>
-      <c r="Z55" s="789"/>
-      <c r="AA55" s="790"/>
+      <c r="W55" s="817"/>
+      <c r="X55" s="817"/>
+      <c r="Y55" s="817"/>
+      <c r="Z55" s="817"/>
+      <c r="AA55" s="818"/>
     </row>
     <row r="56" spans="2:27" ht="15">
       <c r="B56" s="111" t="str">
@@ -22676,7 +22676,7 @@
       <c r="I56" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="J56" s="811"/>
+      <c r="J56" s="784"/>
       <c r="K56" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D19=0,"",'Enter (Vac BFs TrCl MB'!$D19)</f>
         <v>Taran</v>
@@ -22702,19 +22702,19 @@
       <c r="R56" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="S56" s="811"/>
+      <c r="S56" s="784"/>
       <c r="T56" s="636">
         <v>45335</v>
       </c>
       <c r="U56" s="274"/>
-      <c r="V56" s="785" t="s">
+      <c r="V56" s="822" t="s">
         <v>188</v>
       </c>
-      <c r="W56" s="786"/>
-      <c r="X56" s="786"/>
-      <c r="Y56" s="786"/>
-      <c r="Z56" s="786"/>
-      <c r="AA56" s="787"/>
+      <c r="W56" s="823"/>
+      <c r="X56" s="823"/>
+      <c r="Y56" s="823"/>
+      <c r="Z56" s="823"/>
+      <c r="AA56" s="824"/>
     </row>
     <row r="57" spans="2:27" ht="15">
       <c r="B57" s="111" t="str">
@@ -22742,7 +22742,7 @@
       <c r="I57" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="811"/>
+      <c r="J57" s="784"/>
       <c r="K57" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D20=0,"",'Enter (Vac BFs TrCl MB'!$D20)</f>
         <v>Jinse</v>
@@ -22768,19 +22768,19 @@
       <c r="R57" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="S57" s="811"/>
+      <c r="S57" s="784"/>
       <c r="T57" s="636">
         <v>45337</v>
       </c>
       <c r="U57" s="274"/>
-      <c r="V57" s="785" t="s">
+      <c r="V57" s="822" t="s">
         <v>187</v>
       </c>
-      <c r="W57" s="786"/>
-      <c r="X57" s="786"/>
-      <c r="Y57" s="786"/>
-      <c r="Z57" s="786"/>
-      <c r="AA57" s="787"/>
+      <c r="W57" s="823"/>
+      <c r="X57" s="823"/>
+      <c r="Y57" s="823"/>
+      <c r="Z57" s="823"/>
+      <c r="AA57" s="824"/>
     </row>
     <row r="58" spans="2:27" ht="15">
       <c r="B58" s="111" t="str">
@@ -22808,7 +22808,7 @@
       <c r="I58" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="811"/>
+      <c r="J58" s="784"/>
       <c r="K58" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D21=0,"",'Enter (Vac BFs TrCl MB'!$D21)</f>
         <v>Marija</v>
@@ -22834,19 +22834,19 @@
       <c r="R58" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="S58" s="811"/>
+      <c r="S58" s="784"/>
       <c r="T58" s="636">
         <v>45338</v>
       </c>
       <c r="U58" s="274"/>
-      <c r="V58" s="781" t="s">
+      <c r="V58" s="798" t="s">
         <v>189</v>
       </c>
-      <c r="W58" s="781"/>
-      <c r="X58" s="781"/>
-      <c r="Y58" s="781"/>
-      <c r="Z58" s="781"/>
-      <c r="AA58" s="782"/>
+      <c r="W58" s="798"/>
+      <c r="X58" s="798"/>
+      <c r="Y58" s="798"/>
+      <c r="Z58" s="798"/>
+      <c r="AA58" s="799"/>
     </row>
     <row r="59" spans="2:27" ht="15">
       <c r="B59" s="111" t="s">
@@ -22873,7 +22873,7 @@
       <c r="I59" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="J59" s="811"/>
+      <c r="J59" s="784"/>
       <c r="K59" s="112" t="s">
         <v>87</v>
       </c>
@@ -22898,19 +22898,19 @@
       <c r="R59" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="S59" s="811"/>
+      <c r="S59" s="784"/>
       <c r="T59" s="636">
         <v>45343</v>
       </c>
       <c r="U59" s="274"/>
-      <c r="V59" s="781" t="s">
+      <c r="V59" s="798" t="s">
         <v>190</v>
       </c>
-      <c r="W59" s="781"/>
-      <c r="X59" s="781"/>
-      <c r="Y59" s="781"/>
-      <c r="Z59" s="781"/>
-      <c r="AA59" s="782"/>
+      <c r="W59" s="798"/>
+      <c r="X59" s="798"/>
+      <c r="Y59" s="798"/>
+      <c r="Z59" s="798"/>
+      <c r="AA59" s="799"/>
     </row>
     <row r="60" spans="2:27" ht="15">
       <c r="B60" s="111" t="str">
@@ -22945,7 +22945,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J60" s="811"/>
+      <c r="J60" s="784"/>
       <c r="K60" s="112"/>
       <c r="L60" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -22969,19 +22969,19 @@
         <v/>
       </c>
       <c r="R60" s="154"/>
-      <c r="S60" s="811"/>
+      <c r="S60" s="784"/>
       <c r="T60" s="636">
         <v>45345</v>
       </c>
       <c r="U60" s="274"/>
-      <c r="V60" s="781" t="s">
+      <c r="V60" s="798" t="s">
         <v>191</v>
       </c>
-      <c r="W60" s="781"/>
-      <c r="X60" s="781"/>
-      <c r="Y60" s="781"/>
-      <c r="Z60" s="781"/>
-      <c r="AA60" s="782"/>
+      <c r="W60" s="798"/>
+      <c r="X60" s="798"/>
+      <c r="Y60" s="798"/>
+      <c r="Z60" s="798"/>
+      <c r="AA60" s="799"/>
     </row>
     <row r="61" spans="2:27" ht="15">
       <c r="B61" s="111" t="s">
@@ -23008,13 +23008,13 @@
       <c r="I61" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="811"/>
+      <c r="J61" s="784"/>
       <c r="K61" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="L61" s="153" t="str">
+      <c r="L61" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M61" s="153"/>
       <c r="N61" s="153"/>
@@ -23030,19 +23030,19 @@
       <c r="R61" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="S61" s="811"/>
+      <c r="S61" s="784"/>
       <c r="T61" s="283" t="s">
         <v>229</v>
       </c>
       <c r="U61" s="274"/>
-      <c r="V61" s="781" t="s">
+      <c r="V61" s="798" t="s">
         <v>230</v>
       </c>
-      <c r="W61" s="781"/>
-      <c r="X61" s="781"/>
-      <c r="Y61" s="781"/>
-      <c r="Z61" s="781"/>
-      <c r="AA61" s="782"/>
+      <c r="W61" s="798"/>
+      <c r="X61" s="798"/>
+      <c r="Y61" s="798"/>
+      <c r="Z61" s="798"/>
+      <c r="AA61" s="799"/>
     </row>
     <row r="62" spans="2:27" ht="15">
       <c r="B62" s="111"/>
@@ -23053,7 +23053,7 @@
       <c r="G62" s="153"/>
       <c r="H62" s="153"/>
       <c r="I62" s="154"/>
-      <c r="J62" s="811"/>
+      <c r="J62" s="784"/>
       <c r="K62" s="112"/>
       <c r="L62" s="153"/>
       <c r="M62" s="153"/>
@@ -23062,17 +23062,17 @@
       <c r="P62" s="153"/>
       <c r="Q62" s="153"/>
       <c r="R62" s="154"/>
-      <c r="S62" s="811"/>
+      <c r="S62" s="784"/>
       <c r="T62" s="283" t="s">
         <v>244</v>
       </c>
       <c r="U62" s="274"/>
-      <c r="V62" s="781"/>
-      <c r="W62" s="781"/>
-      <c r="X62" s="781"/>
-      <c r="Y62" s="781"/>
-      <c r="Z62" s="781"/>
-      <c r="AA62" s="782"/>
+      <c r="V62" s="798"/>
+      <c r="W62" s="798"/>
+      <c r="X62" s="798"/>
+      <c r="Y62" s="798"/>
+      <c r="Z62" s="798"/>
+      <c r="AA62" s="799"/>
     </row>
     <row r="63" spans="2:27" ht="15">
       <c r="B63" s="111" t="str">
@@ -23107,7 +23107,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J63" s="811"/>
+      <c r="J63" s="784"/>
       <c r="K63" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D26=0,"",'Enter (Vac BFs TrCl MB'!$D26)</f>
         <v/>
@@ -23137,17 +23137,17 @@
         <v/>
       </c>
       <c r="R63" s="154"/>
-      <c r="S63" s="811"/>
+      <c r="S63" s="784"/>
       <c r="T63" s="283"/>
       <c r="U63" s="274"/>
-      <c r="V63" s="781" t="s">
+      <c r="V63" s="798" t="s">
         <v>233</v>
       </c>
-      <c r="W63" s="781"/>
-      <c r="X63" s="781"/>
-      <c r="Y63" s="781"/>
-      <c r="Z63" s="781"/>
-      <c r="AA63" s="782"/>
+      <c r="W63" s="798"/>
+      <c r="X63" s="798"/>
+      <c r="Y63" s="798"/>
+      <c r="Z63" s="798"/>
+      <c r="AA63" s="799"/>
     </row>
     <row r="64" spans="2:27" ht="17.2" customHeight="1">
       <c r="B64" s="111" t="str">
@@ -23182,14 +23182,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J64" s="811"/>
+      <c r="J64" s="784"/>
       <c r="K64" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D27=0,"",'Enter (Vac BFs TrCl MB'!$D27)</f>
         <v xml:space="preserve">TL </v>
       </c>
-      <c r="L64" s="153" t="str">
+      <c r="L64" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M64" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -23212,17 +23212,17 @@
         <v>0</v>
       </c>
       <c r="R64" s="154"/>
-      <c r="S64" s="811"/>
+      <c r="S64" s="784"/>
       <c r="T64" s="283"/>
       <c r="U64" s="274"/>
-      <c r="V64" s="781" t="s">
+      <c r="V64" s="798" t="s">
         <v>234</v>
       </c>
-      <c r="W64" s="781"/>
-      <c r="X64" s="781"/>
-      <c r="Y64" s="781"/>
-      <c r="Z64" s="781"/>
-      <c r="AA64" s="782"/>
+      <c r="W64" s="798"/>
+      <c r="X64" s="798"/>
+      <c r="Y64" s="798"/>
+      <c r="Z64" s="798"/>
+      <c r="AA64" s="799"/>
     </row>
     <row r="65" spans="2:27" ht="15.4" thickBot="1">
       <c r="B65" s="111" t="str">
@@ -23252,14 +23252,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J65" s="811"/>
+      <c r="J65" s="784"/>
       <c r="K65" s="113" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D28=0,"",'Enter (Vac BFs TrCl MB'!$D28)</f>
         <v>Lakshay</v>
       </c>
-      <c r="L65" s="155" t="str">
+      <c r="L65" s="155">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M65" s="155">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -23280,18 +23280,57 @@
         <v>0</v>
       </c>
       <c r="R65" s="156"/>
-      <c r="S65" s="811"/>
+      <c r="S65" s="784"/>
       <c r="T65" s="284"/>
       <c r="U65" s="285"/>
-      <c r="V65" s="783"/>
-      <c r="W65" s="783"/>
-      <c r="X65" s="783"/>
-      <c r="Y65" s="783"/>
-      <c r="Z65" s="783"/>
-      <c r="AA65" s="784"/>
+      <c r="V65" s="825"/>
+      <c r="W65" s="825"/>
+      <c r="X65" s="825"/>
+      <c r="Y65" s="825"/>
+      <c r="Z65" s="825"/>
+      <c r="AA65" s="826"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="V62:AA62"/>
+    <mergeCell ref="V63:AA63"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="V65:AA65"/>
+    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="V59:AA59"/>
+    <mergeCell ref="V60:AA60"/>
+    <mergeCell ref="V61:AA61"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V47:AA47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:AA49"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J34"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="S5:S34"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B4:AA4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="B35:AA35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="J36:J65"/>
@@ -23308,45 +23347,6 @@
     <mergeCell ref="V44:AA44"/>
     <mergeCell ref="V45:AA45"/>
     <mergeCell ref="V46:AA46"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B4:AA4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J34"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="S5:S34"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="V47:AA47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:AA49"/>
-    <mergeCell ref="V50:AA50"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V62:AA62"/>
-    <mergeCell ref="V63:AA63"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="V65:AA65"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="V59:AA59"/>
-    <mergeCell ref="V60:AA60"/>
-    <mergeCell ref="V61:AA61"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:I8 O44:Q56 C44:I65 L44:N65 U44:V65 R45:R56">
     <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
@@ -23449,40 +23449,40 @@
         <v>Month:</v>
       </c>
       <c r="D2" s="114"/>
-      <c r="E2" s="794" t="str">
+      <c r="E2" s="811" t="str">
         <f>'Enter Projections'!K2</f>
         <v>February</v>
       </c>
-      <c r="F2" s="794"/>
-      <c r="G2" s="794"/>
-      <c r="H2" s="794"/>
-      <c r="I2" s="794"/>
-      <c r="J2" s="794"/>
-      <c r="K2" s="795" t="str">
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="811"/>
+      <c r="K2" s="812" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom du restaurant :","Restaurant Name:")</f>
         <v>Restaurant Name:</v>
       </c>
-      <c r="L2" s="795"/>
-      <c r="M2" s="795"/>
-      <c r="N2" s="795"/>
-      <c r="O2" s="796" t="s">
+      <c r="L2" s="812"/>
+      <c r="M2" s="812"/>
+      <c r="N2" s="812"/>
+      <c r="O2" s="813" t="s">
         <v>260</v>
       </c>
-      <c r="P2" s="796"/>
-      <c r="Q2" s="796"/>
-      <c r="R2" s="796"/>
-      <c r="S2" s="796"/>
-      <c r="T2" s="796"/>
-      <c r="U2" s="797" t="str">
+      <c r="P2" s="813"/>
+      <c r="Q2" s="813"/>
+      <c r="R2" s="813"/>
+      <c r="S2" s="813"/>
+      <c r="T2" s="813"/>
+      <c r="U2" s="814" t="str">
         <f>IF('Enter Projections'!$A$1,"% prévues","Planned LBR")</f>
         <v>Planned LBR</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="798">
+      <c r="V2" s="814"/>
+      <c r="W2" s="815">
         <f>'Enter Projections'!O27/100</f>
         <v>0</v>
       </c>
-      <c r="X2" s="798"/>
+      <c r="X2" s="815"/>
       <c r="Y2" s="97"/>
       <c r="Z2" s="331"/>
       <c r="AA2" s="99"/>
@@ -23586,7 +23586,7 @@
       <c r="AA4" s="804"/>
     </row>
     <row r="5" spans="1:27" ht="15">
-      <c r="B5" s="799" t="str">
+      <c r="B5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -23600,8 +23600,8 @@
       <c r="G5" s="108"/>
       <c r="H5" s="108"/>
       <c r="I5" s="109"/>
-      <c r="J5" s="801"/>
-      <c r="K5" s="799" t="str">
+      <c r="J5" s="810"/>
+      <c r="K5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -23617,8 +23617,8 @@
       <c r="R5" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="801"/>
-      <c r="T5" s="799" t="str">
+      <c r="S5" s="810"/>
+      <c r="T5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -23634,7 +23634,7 @@
       <c r="AA5" s="146"/>
     </row>
     <row r="6" spans="1:27" ht="15">
-      <c r="B6" s="800"/>
+      <c r="B6" s="809"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
       <c r="E6" s="95"/>
@@ -23642,8 +23642,8 @@
       <c r="G6" s="95"/>
       <c r="H6" s="95"/>
       <c r="I6" s="110"/>
-      <c r="J6" s="801"/>
-      <c r="K6" s="800"/>
+      <c r="J6" s="810"/>
+      <c r="K6" s="809"/>
       <c r="L6" s="147"/>
       <c r="M6" s="147"/>
       <c r="N6" s="147"/>
@@ -23651,8 +23651,8 @@
       <c r="P6" s="147"/>
       <c r="Q6" s="147"/>
       <c r="R6" s="148"/>
-      <c r="S6" s="801"/>
-      <c r="T6" s="800"/>
+      <c r="S6" s="810"/>
+      <c r="T6" s="809"/>
       <c r="U6" s="147"/>
       <c r="V6" s="147"/>
       <c r="W6" s="147"/>
@@ -23694,7 +23694,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J7" s="801"/>
+      <c r="J7" s="810"/>
       <c r="K7" s="149" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -23727,7 +23727,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S7" s="801"/>
+      <c r="S7" s="810"/>
       <c r="T7" s="149" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -23794,7 +23794,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="801"/>
+      <c r="J8" s="810"/>
       <c r="K8" s="152" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -23827,7 +23827,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="801"/>
+      <c r="S8" s="810"/>
       <c r="T8" s="152" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -23894,7 +23894,7 @@
         <f>Planner!K23</f>
         <v/>
       </c>
-      <c r="J9" s="801"/>
+      <c r="J9" s="810"/>
       <c r="K9" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -23927,7 +23927,7 @@
         <f>Planner!K35</f>
         <v/>
       </c>
-      <c r="S9" s="801"/>
+      <c r="S9" s="810"/>
       <c r="T9" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -23994,7 +23994,7 @@
         <f>Planner!K24</f>
         <v/>
       </c>
-      <c r="J10" s="801"/>
+      <c r="J10" s="810"/>
       <c r="K10" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -24027,7 +24027,7 @@
         <f>Planner!K36</f>
         <v/>
       </c>
-      <c r="S10" s="801"/>
+      <c r="S10" s="810"/>
       <c r="T10" s="166" t="str">
         <f>IF($A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -24086,7 +24086,7 @@
       <c r="I11" s="163">
         <v>45326</v>
       </c>
-      <c r="J11" s="801"/>
+      <c r="J11" s="810"/>
       <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
@@ -24118,7 +24118,7 @@
         <f t="shared" si="0"/>
         <v>45333</v>
       </c>
-      <c r="S11" s="801"/>
+      <c r="S11" s="810"/>
       <c r="T11" s="167" t="s">
         <v>32</v>
       </c>
@@ -24177,7 +24177,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="J12" s="801"/>
+      <c r="J12" s="810"/>
       <c r="K12" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -24210,7 +24210,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="S12" s="801"/>
+      <c r="S12" s="810"/>
       <c r="T12" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -24269,7 +24269,7 @@
       <c r="I13" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="801"/>
+      <c r="J13" s="810"/>
       <c r="K13" s="111" t="s">
         <v>91</v>
       </c>
@@ -24294,7 +24294,7 @@
       <c r="R13" s="638" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="801"/>
+      <c r="S13" s="810"/>
       <c r="T13" s="111" t="s">
         <v>91</v>
       </c>
@@ -24345,7 +24345,7 @@
       <c r="I14" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="801"/>
+      <c r="J14" s="810"/>
       <c r="K14" s="112" t="s">
         <v>92</v>
       </c>
@@ -24370,7 +24370,7 @@
       <c r="R14" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="801"/>
+      <c r="S14" s="810"/>
       <c r="T14" s="112" t="s">
         <v>92</v>
       </c>
@@ -24421,7 +24421,7 @@
       <c r="I15" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="801"/>
+      <c r="J15" s="810"/>
       <c r="K15" s="112" t="s">
         <v>93</v>
       </c>
@@ -24446,7 +24446,7 @@
       <c r="R15" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="S15" s="801"/>
+      <c r="S15" s="810"/>
       <c r="T15" s="112" t="s">
         <v>93</v>
       </c>
@@ -24497,7 +24497,7 @@
       <c r="I16" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="801"/>
+      <c r="J16" s="810"/>
       <c r="K16" s="112" t="s">
         <v>94</v>
       </c>
@@ -24522,7 +24522,7 @@
       <c r="R16" s="638" t="s">
         <v>3</v>
       </c>
-      <c r="S16" s="801"/>
+      <c r="S16" s="810"/>
       <c r="T16" s="112" t="s">
         <v>94</v>
       </c>
@@ -24579,7 +24579,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B17,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B17,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="801"/>
+      <c r="J17" s="810"/>
       <c r="K17" s="112" t="s">
         <v>196</v>
       </c>
@@ -24602,7 +24602,7 @@
       </c>
       <c r="Q17" s="153"/>
       <c r="R17" s="154"/>
-      <c r="S17" s="801"/>
+      <c r="S17" s="810"/>
       <c r="T17" s="112" t="s">
         <v>193</v>
       </c>
@@ -24663,7 +24663,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B18,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B18,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J18" s="801"/>
+      <c r="J18" s="810"/>
       <c r="K18" s="112" t="s">
         <v>195</v>
       </c>
@@ -24690,7 +24690,7 @@
       <c r="R18" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="S18" s="801"/>
+      <c r="S18" s="810"/>
       <c r="T18" s="112" t="s">
         <v>195</v>
       </c>
@@ -24742,7 +24742,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J19" s="801"/>
+      <c r="J19" s="810"/>
       <c r="K19" s="112"/>
       <c r="L19" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -24772,7 +24772,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S19" s="801"/>
+      <c r="S19" s="810"/>
       <c r="T19" s="112" t="s">
         <v>198</v>
       </c>
@@ -24831,7 +24831,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J20" s="801"/>
+      <c r="J20" s="810"/>
       <c r="K20" s="112"/>
       <c r="L20" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -24861,7 +24861,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S20" s="801"/>
+      <c r="S20" s="810"/>
       <c r="T20" s="112"/>
       <c r="U20" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -24922,7 +24922,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J21" s="801"/>
+      <c r="J21" s="810"/>
       <c r="K21" s="112"/>
       <c r="L21" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -24952,7 +24952,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S21" s="801"/>
+      <c r="S21" s="810"/>
       <c r="T21" s="112"/>
       <c r="U21" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25013,7 +25013,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J22" s="801"/>
+      <c r="J22" s="810"/>
       <c r="K22" s="112"/>
       <c r="L22" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25043,7 +25043,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S22" s="801"/>
+      <c r="S22" s="810"/>
       <c r="T22" s="112"/>
       <c r="U22" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25104,7 +25104,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J23" s="801"/>
+      <c r="J23" s="810"/>
       <c r="K23" s="112"/>
       <c r="L23" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25134,7 +25134,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S23" s="801"/>
+      <c r="S23" s="810"/>
       <c r="T23" s="112"/>
       <c r="U23" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25195,7 +25195,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J24" s="801"/>
+      <c r="J24" s="810"/>
       <c r="K24" s="112"/>
       <c r="L24" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25225,7 +25225,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S24" s="801"/>
+      <c r="S24" s="810"/>
       <c r="T24" s="112"/>
       <c r="U24" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25287,7 +25287,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J25" s="801"/>
+      <c r="J25" s="810"/>
       <c r="K25" s="112"/>
       <c r="L25" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25317,7 +25317,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S25" s="801"/>
+      <c r="S25" s="810"/>
       <c r="T25" s="112"/>
       <c r="U25" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25378,7 +25378,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J26" s="801"/>
+      <c r="J26" s="810"/>
       <c r="K26" s="112"/>
       <c r="L26" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25408,7 +25408,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S26" s="801"/>
+      <c r="S26" s="810"/>
       <c r="T26" s="112"/>
       <c r="U26" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25466,7 +25466,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J27" s="801"/>
+      <c r="J27" s="810"/>
       <c r="K27" s="112"/>
       <c r="L27" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25496,7 +25496,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S27" s="801"/>
+      <c r="S27" s="810"/>
       <c r="T27" s="112"/>
       <c r="U27" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25557,7 +25557,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J28" s="801"/>
+      <c r="J28" s="810"/>
       <c r="K28" s="112"/>
       <c r="L28" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25587,7 +25587,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S28" s="801"/>
+      <c r="S28" s="810"/>
       <c r="T28" s="112"/>
       <c r="U28" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25651,7 +25651,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J29" s="801"/>
+      <c r="J29" s="810"/>
       <c r="K29" s="112"/>
       <c r="L29" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25681,7 +25681,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S29" s="801"/>
+      <c r="S29" s="810"/>
       <c r="T29" s="112"/>
       <c r="U29" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25742,7 +25742,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J30" s="801"/>
+      <c r="J30" s="810"/>
       <c r="K30" s="112"/>
       <c r="L30" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25772,7 +25772,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S30" s="801"/>
+      <c r="S30" s="810"/>
       <c r="T30" s="112"/>
       <c r="U30" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25833,7 +25833,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J31" s="801"/>
+      <c r="J31" s="810"/>
       <c r="K31" s="112"/>
       <c r="L31" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25863,7 +25863,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S31" s="801"/>
+      <c r="S31" s="810"/>
       <c r="T31" s="112"/>
       <c r="U31" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25924,7 +25924,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J32" s="801"/>
+      <c r="J32" s="810"/>
       <c r="K32" s="112"/>
       <c r="L32" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -25954,7 +25954,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S32" s="801"/>
+      <c r="S32" s="810"/>
       <c r="T32" s="112"/>
       <c r="U32" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -26015,7 +26015,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J33" s="801"/>
+      <c r="J33" s="810"/>
       <c r="K33" s="112"/>
       <c r="L33" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -26045,7 +26045,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S33" s="801"/>
+      <c r="S33" s="810"/>
       <c r="T33" s="112"/>
       <c r="U33" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -26106,7 +26106,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J34" s="801"/>
+      <c r="J34" s="810"/>
       <c r="K34" s="113"/>
       <c r="L34" s="155" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -26136,7 +26136,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S34" s="801"/>
+      <c r="S34" s="810"/>
       <c r="T34" s="113"/>
       <c r="U34" s="155" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!U$11,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -26168,35 +26168,35 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="14.65" thickBot="1">
-      <c r="B35" s="808"/>
-      <c r="C35" s="808"/>
-      <c r="D35" s="808"/>
-      <c r="E35" s="808"/>
-      <c r="F35" s="808"/>
-      <c r="G35" s="808"/>
-      <c r="H35" s="808"/>
-      <c r="I35" s="808"/>
-      <c r="J35" s="808"/>
-      <c r="K35" s="808"/>
-      <c r="L35" s="808"/>
-      <c r="M35" s="808"/>
-      <c r="N35" s="808"/>
-      <c r="O35" s="808"/>
-      <c r="P35" s="808"/>
-      <c r="Q35" s="808"/>
-      <c r="R35" s="808"/>
-      <c r="S35" s="808"/>
-      <c r="T35" s="808"/>
-      <c r="U35" s="808"/>
-      <c r="V35" s="808"/>
-      <c r="W35" s="808"/>
-      <c r="X35" s="808"/>
-      <c r="Y35" s="808"/>
-      <c r="Z35" s="808"/>
-      <c r="AA35" s="808"/>
+      <c r="B35" s="781"/>
+      <c r="C35" s="781"/>
+      <c r="D35" s="781"/>
+      <c r="E35" s="781"/>
+      <c r="F35" s="781"/>
+      <c r="G35" s="781"/>
+      <c r="H35" s="781"/>
+      <c r="I35" s="781"/>
+      <c r="J35" s="781"/>
+      <c r="K35" s="781"/>
+      <c r="L35" s="781"/>
+      <c r="M35" s="781"/>
+      <c r="N35" s="781"/>
+      <c r="O35" s="781"/>
+      <c r="P35" s="781"/>
+      <c r="Q35" s="781"/>
+      <c r="R35" s="781"/>
+      <c r="S35" s="781"/>
+      <c r="T35" s="781"/>
+      <c r="U35" s="781"/>
+      <c r="V35" s="781"/>
+      <c r="W35" s="781"/>
+      <c r="X35" s="781"/>
+      <c r="Y35" s="781"/>
+      <c r="Z35" s="781"/>
+      <c r="AA35" s="781"/>
     </row>
     <row r="36" spans="2:27" ht="17.2" customHeight="1">
-      <c r="B36" s="809" t="str">
+      <c r="B36" s="782" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -26210,8 +26210,8 @@
       <c r="G36" s="108"/>
       <c r="H36" s="108"/>
       <c r="I36" s="109"/>
-      <c r="J36" s="808"/>
-      <c r="K36" s="809" t="str">
+      <c r="J36" s="781"/>
+      <c r="K36" s="782" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -26227,20 +26227,20 @@
       <c r="P36" s="108"/>
       <c r="Q36" s="108"/>
       <c r="R36" s="109"/>
-      <c r="S36" s="808"/>
-      <c r="T36" s="812" t="s">
+      <c r="S36" s="781"/>
+      <c r="T36" s="785" t="s">
         <v>38</v>
       </c>
-      <c r="U36" s="813"/>
-      <c r="V36" s="813"/>
-      <c r="W36" s="813"/>
-      <c r="X36" s="813"/>
-      <c r="Y36" s="813"/>
-      <c r="Z36" s="813"/>
-      <c r="AA36" s="814"/>
+      <c r="U36" s="786"/>
+      <c r="V36" s="786"/>
+      <c r="W36" s="786"/>
+      <c r="X36" s="786"/>
+      <c r="Y36" s="786"/>
+      <c r="Z36" s="786"/>
+      <c r="AA36" s="787"/>
     </row>
     <row r="37" spans="2:27" ht="15">
-      <c r="B37" s="810"/>
+      <c r="B37" s="783"/>
       <c r="C37" s="95"/>
       <c r="D37" s="95"/>
       <c r="E37" s="95"/>
@@ -26248,8 +26248,8 @@
       <c r="G37" s="95"/>
       <c r="H37" s="95"/>
       <c r="I37" s="110"/>
-      <c r="J37" s="808"/>
-      <c r="K37" s="810"/>
+      <c r="J37" s="781"/>
+      <c r="K37" s="783"/>
       <c r="L37" s="95"/>
       <c r="M37" s="95"/>
       <c r="N37" s="95"/>
@@ -26257,21 +26257,21 @@
       <c r="P37" s="95"/>
       <c r="Q37" s="95"/>
       <c r="R37" s="110"/>
-      <c r="S37" s="808"/>
+      <c r="S37" s="781"/>
       <c r="T37" s="280" t="s">
         <v>39</v>
       </c>
       <c r="U37" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="815" t="s">
+      <c r="V37" s="788" t="s">
         <v>41</v>
       </c>
-      <c r="W37" s="815"/>
-      <c r="X37" s="815"/>
-      <c r="Y37" s="815"/>
-      <c r="Z37" s="815"/>
-      <c r="AA37" s="816"/>
+      <c r="W37" s="788"/>
+      <c r="X37" s="788"/>
+      <c r="Y37" s="788"/>
+      <c r="Z37" s="788"/>
+      <c r="AA37" s="789"/>
     </row>
     <row r="38" spans="2:27" ht="15.4">
       <c r="B38" s="103" t="str">
@@ -26306,7 +26306,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J38" s="808"/>
+      <c r="J38" s="781"/>
       <c r="K38" s="103" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -26339,19 +26339,19 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(REGENT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S38" s="808"/>
+      <c r="S38" s="781"/>
       <c r="T38" s="634">
         <v>45320</v>
       </c>
       <c r="U38" s="279"/>
-      <c r="V38" s="817" t="s">
+      <c r="V38" s="790" t="s">
         <v>161</v>
       </c>
-      <c r="W38" s="817"/>
-      <c r="X38" s="817"/>
-      <c r="Y38" s="817"/>
-      <c r="Z38" s="817"/>
-      <c r="AA38" s="818"/>
+      <c r="W38" s="790"/>
+      <c r="X38" s="790"/>
+      <c r="Y38" s="790"/>
+      <c r="Z38" s="790"/>
+      <c r="AA38" s="791"/>
     </row>
     <row r="39" spans="2:27" ht="15.4">
       <c r="B39" s="103" t="str">
@@ -26386,7 +26386,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J39" s="808"/>
+      <c r="J39" s="781"/>
       <c r="K39" s="103" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -26419,19 +26419,19 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(REGENT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
         <v>WK</v>
       </c>
-      <c r="S39" s="808"/>
+      <c r="S39" s="781"/>
       <c r="T39" s="634">
         <v>45320</v>
       </c>
       <c r="U39" s="279"/>
-      <c r="V39" s="817" t="s">
+      <c r="V39" s="790" t="s">
         <v>162</v>
       </c>
-      <c r="W39" s="817"/>
-      <c r="X39" s="817"/>
-      <c r="Y39" s="817"/>
-      <c r="Z39" s="817"/>
-      <c r="AA39" s="818"/>
+      <c r="W39" s="790"/>
+      <c r="X39" s="790"/>
+      <c r="Y39" s="790"/>
+      <c r="Z39" s="790"/>
+      <c r="AA39" s="791"/>
     </row>
     <row r="40" spans="2:27" ht="15.4">
       <c r="B40" s="104" t="str">
@@ -26466,7 +26466,7 @@
         <f>Planner!K59</f>
         <v/>
       </c>
-      <c r="J40" s="808"/>
+      <c r="J40" s="781"/>
       <c r="K40" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -26499,19 +26499,19 @@
         <f>Planner!K71</f>
         <v/>
       </c>
-      <c r="S40" s="808"/>
+      <c r="S40" s="781"/>
       <c r="T40" s="635">
         <v>45321</v>
       </c>
       <c r="U40" s="275"/>
-      <c r="V40" s="819" t="s">
+      <c r="V40" s="792" t="s">
         <v>163</v>
       </c>
-      <c r="W40" s="819"/>
-      <c r="X40" s="819"/>
-      <c r="Y40" s="819"/>
-      <c r="Z40" s="819"/>
-      <c r="AA40" s="820"/>
+      <c r="W40" s="792"/>
+      <c r="X40" s="792"/>
+      <c r="Y40" s="792"/>
+      <c r="Z40" s="792"/>
+      <c r="AA40" s="793"/>
     </row>
     <row r="41" spans="2:27" ht="15.4">
       <c r="B41" s="104" t="str">
@@ -26546,7 +26546,7 @@
         <f>Planner!K60</f>
         <v/>
       </c>
-      <c r="J41" s="808"/>
+      <c r="J41" s="781"/>
       <c r="K41" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -26579,19 +26579,19 @@
         <f>Planner!K72</f>
         <v/>
       </c>
-      <c r="S41" s="808"/>
+      <c r="S41" s="781"/>
       <c r="T41" s="635">
         <v>45322</v>
       </c>
       <c r="U41" s="275"/>
-      <c r="V41" s="819" t="s">
+      <c r="V41" s="792" t="s">
         <v>164</v>
       </c>
-      <c r="W41" s="819"/>
-      <c r="X41" s="819"/>
-      <c r="Y41" s="819"/>
-      <c r="Z41" s="819"/>
-      <c r="AA41" s="820"/>
+      <c r="W41" s="792"/>
+      <c r="X41" s="792"/>
+      <c r="Y41" s="792"/>
+      <c r="Z41" s="792"/>
+      <c r="AA41" s="793"/>
     </row>
     <row r="42" spans="2:27" ht="15.4">
       <c r="B42" s="104" t="s">
@@ -26618,7 +26618,7 @@
       <c r="I42" s="163">
         <v>45347</v>
       </c>
-      <c r="J42" s="808"/>
+      <c r="J42" s="781"/>
       <c r="K42" s="104" t="s">
         <v>32</v>
       </c>
@@ -26643,19 +26643,19 @@
       <c r="R42" s="163">
         <v>45354</v>
       </c>
-      <c r="S42" s="808"/>
+      <c r="S42" s="781"/>
       <c r="T42" s="635">
         <v>45322</v>
       </c>
       <c r="U42" s="276"/>
-      <c r="V42" s="821" t="s">
+      <c r="V42" s="794" t="s">
         <v>165</v>
       </c>
-      <c r="W42" s="821"/>
-      <c r="X42" s="821"/>
-      <c r="Y42" s="821"/>
-      <c r="Z42" s="821"/>
-      <c r="AA42" s="822"/>
+      <c r="W42" s="794"/>
+      <c r="X42" s="794"/>
+      <c r="Y42" s="794"/>
+      <c r="Z42" s="794"/>
+      <c r="AA42" s="795"/>
     </row>
     <row r="43" spans="2:27" ht="15.4">
       <c r="B43" s="104" t="str">
@@ -26689,7 +26689,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="J43" s="808"/>
+      <c r="J43" s="781"/>
       <c r="K43" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -26722,19 +26722,19 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="S43" s="808"/>
+      <c r="S43" s="781"/>
       <c r="T43" s="635">
         <v>45323</v>
       </c>
       <c r="U43" s="277"/>
-      <c r="V43" s="823" t="s">
+      <c r="V43" s="796" t="s">
         <v>166</v>
       </c>
-      <c r="W43" s="823"/>
-      <c r="X43" s="823"/>
-      <c r="Y43" s="823"/>
-      <c r="Z43" s="823"/>
-      <c r="AA43" s="824"/>
+      <c r="W43" s="796"/>
+      <c r="X43" s="796"/>
+      <c r="Y43" s="796"/>
+      <c r="Z43" s="796"/>
+      <c r="AA43" s="797"/>
     </row>
     <row r="44" spans="2:27" ht="15.4">
       <c r="B44" s="111" t="s">
@@ -26761,7 +26761,7 @@
       <c r="I44" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="808"/>
+      <c r="J44" s="781"/>
       <c r="K44" s="111" t="s">
         <v>91</v>
       </c>
@@ -26786,19 +26786,19 @@
       <c r="R44" s="639" t="s">
         <v>9</v>
       </c>
-      <c r="S44" s="808"/>
+      <c r="S44" s="781"/>
       <c r="T44" s="636">
         <v>45327</v>
       </c>
       <c r="U44" s="274"/>
-      <c r="V44" s="781" t="s">
+      <c r="V44" s="798" t="s">
         <v>167</v>
       </c>
-      <c r="W44" s="781"/>
-      <c r="X44" s="781"/>
-      <c r="Y44" s="781"/>
-      <c r="Z44" s="781"/>
-      <c r="AA44" s="782"/>
+      <c r="W44" s="798"/>
+      <c r="X44" s="798"/>
+      <c r="Y44" s="798"/>
+      <c r="Z44" s="798"/>
+      <c r="AA44" s="799"/>
     </row>
     <row r="45" spans="2:27" ht="15">
       <c r="B45" s="111" t="s">
@@ -26825,7 +26825,7 @@
       <c r="I45" s="638" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="808"/>
+      <c r="J45" s="781"/>
       <c r="K45" s="112" t="s">
         <v>92</v>
       </c>
@@ -26850,15 +26850,15 @@
       <c r="R45" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="S45" s="808"/>
+      <c r="S45" s="781"/>
       <c r="T45" s="636"/>
       <c r="U45" s="274"/>
-      <c r="V45" s="781"/>
-      <c r="W45" s="781"/>
-      <c r="X45" s="781"/>
-      <c r="Y45" s="781"/>
-      <c r="Z45" s="781"/>
-      <c r="AA45" s="782"/>
+      <c r="V45" s="798"/>
+      <c r="W45" s="798"/>
+      <c r="X45" s="798"/>
+      <c r="Y45" s="798"/>
+      <c r="Z45" s="798"/>
+      <c r="AA45" s="799"/>
     </row>
     <row r="46" spans="2:27" ht="15">
       <c r="B46" s="111" t="s">
@@ -26885,7 +26885,7 @@
       <c r="I46" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="808"/>
+      <c r="J46" s="781"/>
       <c r="K46" s="112" t="s">
         <v>93</v>
       </c>
@@ -26910,15 +26910,15 @@
       <c r="R46" s="266" t="s">
         <v>96</v>
       </c>
-      <c r="S46" s="808"/>
+      <c r="S46" s="781"/>
       <c r="T46" s="283"/>
       <c r="U46" s="274"/>
-      <c r="V46" s="825"/>
-      <c r="W46" s="825"/>
-      <c r="X46" s="825"/>
-      <c r="Y46" s="825"/>
-      <c r="Z46" s="825"/>
-      <c r="AA46" s="826"/>
+      <c r="V46" s="800"/>
+      <c r="W46" s="800"/>
+      <c r="X46" s="800"/>
+      <c r="Y46" s="800"/>
+      <c r="Z46" s="800"/>
+      <c r="AA46" s="801"/>
     </row>
     <row r="47" spans="2:27" ht="15">
       <c r="B47" s="111" t="s">
@@ -26945,7 +26945,7 @@
       <c r="I47" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="J47" s="808"/>
+      <c r="J47" s="781"/>
       <c r="K47" s="112" t="s">
         <v>94</v>
       </c>
@@ -26970,15 +26970,15 @@
       <c r="R47" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="S47" s="808"/>
+      <c r="S47" s="781"/>
       <c r="T47" s="636"/>
       <c r="U47" s="274"/>
-      <c r="V47" s="781"/>
-      <c r="W47" s="781"/>
-      <c r="X47" s="781"/>
-      <c r="Y47" s="781"/>
-      <c r="Z47" s="781"/>
-      <c r="AA47" s="782"/>
+      <c r="V47" s="798"/>
+      <c r="W47" s="798"/>
+      <c r="X47" s="798"/>
+      <c r="Y47" s="798"/>
+      <c r="Z47" s="798"/>
+      <c r="AA47" s="799"/>
     </row>
     <row r="48" spans="2:27" ht="15">
       <c r="B48" s="111"/>
@@ -26998,7 +26998,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J48" s="808"/>
+      <c r="J48" s="781"/>
       <c r="K48" s="112" t="s">
         <v>193</v>
       </c>
@@ -27029,21 +27029,21 @@
       <c r="R48" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="S48" s="808"/>
+      <c r="S48" s="781"/>
       <c r="T48" s="636">
         <v>45328</v>
       </c>
       <c r="U48" s="274" t="s">
         <v>140</v>
       </c>
-      <c r="V48" s="781" t="s">
+      <c r="V48" s="798" t="s">
         <v>182</v>
       </c>
-      <c r="W48" s="781"/>
-      <c r="X48" s="781"/>
-      <c r="Y48" s="781"/>
-      <c r="Z48" s="781"/>
-      <c r="AA48" s="782"/>
+      <c r="W48" s="798"/>
+      <c r="X48" s="798"/>
+      <c r="Y48" s="798"/>
+      <c r="Z48" s="798"/>
+      <c r="AA48" s="799"/>
     </row>
     <row r="49" spans="2:27" ht="15">
       <c r="B49" s="111" t="s">
@@ -27076,7 +27076,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J49" s="808"/>
+      <c r="J49" s="781"/>
       <c r="K49" s="112"/>
       <c r="L49" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27106,15 +27106,15 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S49" s="808"/>
+      <c r="S49" s="781"/>
       <c r="T49" s="636"/>
       <c r="U49" s="274"/>
-      <c r="V49" s="788"/>
-      <c r="W49" s="789"/>
-      <c r="X49" s="789"/>
-      <c r="Y49" s="789"/>
-      <c r="Z49" s="789"/>
-      <c r="AA49" s="790"/>
+      <c r="V49" s="816"/>
+      <c r="W49" s="817"/>
+      <c r="X49" s="817"/>
+      <c r="Y49" s="817"/>
+      <c r="Z49" s="817"/>
+      <c r="AA49" s="818"/>
     </row>
     <row r="50" spans="2:27" ht="15">
       <c r="B50" s="111"/>
@@ -27146,7 +27146,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J50" s="808"/>
+      <c r="J50" s="781"/>
       <c r="K50" s="112" t="s">
         <v>92</v>
       </c>
@@ -27174,19 +27174,19 @@
         <v/>
       </c>
       <c r="R50" s="266"/>
-      <c r="S50" s="808"/>
+      <c r="S50" s="781"/>
       <c r="T50" s="636">
         <v>45330</v>
       </c>
       <c r="U50" s="274"/>
-      <c r="V50" s="791" t="s">
+      <c r="V50" s="819" t="s">
         <v>178</v>
       </c>
-      <c r="W50" s="792"/>
-      <c r="X50" s="792"/>
-      <c r="Y50" s="792"/>
-      <c r="Z50" s="792"/>
-      <c r="AA50" s="793"/>
+      <c r="W50" s="820"/>
+      <c r="X50" s="820"/>
+      <c r="Y50" s="820"/>
+      <c r="Z50" s="820"/>
+      <c r="AA50" s="821"/>
     </row>
     <row r="51" spans="2:27" ht="15">
       <c r="B51" s="111"/>
@@ -27218,7 +27218,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J51" s="808"/>
+      <c r="J51" s="781"/>
       <c r="K51" s="112"/>
       <c r="L51" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27245,15 +27245,15 @@
         <v/>
       </c>
       <c r="R51" s="266"/>
-      <c r="S51" s="808"/>
+      <c r="S51" s="781"/>
       <c r="T51" s="636"/>
       <c r="U51" s="274"/>
-      <c r="V51" s="788"/>
-      <c r="W51" s="789"/>
-      <c r="X51" s="789"/>
-      <c r="Y51" s="789"/>
-      <c r="Z51" s="789"/>
-      <c r="AA51" s="790"/>
+      <c r="V51" s="816"/>
+      <c r="W51" s="817"/>
+      <c r="X51" s="817"/>
+      <c r="Y51" s="817"/>
+      <c r="Z51" s="817"/>
+      <c r="AA51" s="818"/>
     </row>
     <row r="52" spans="2:27" ht="15">
       <c r="B52" s="111"/>
@@ -27285,7 +27285,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J52" s="808"/>
+      <c r="J52" s="781"/>
       <c r="K52" s="112"/>
       <c r="L52" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27312,15 +27312,15 @@
         <v/>
       </c>
       <c r="R52" s="266"/>
-      <c r="S52" s="808"/>
+      <c r="S52" s="781"/>
       <c r="T52" s="636"/>
       <c r="U52" s="274"/>
-      <c r="V52" s="788"/>
-      <c r="W52" s="789"/>
-      <c r="X52" s="789"/>
-      <c r="Y52" s="789"/>
-      <c r="Z52" s="789"/>
-      <c r="AA52" s="790"/>
+      <c r="V52" s="816"/>
+      <c r="W52" s="817"/>
+      <c r="X52" s="817"/>
+      <c r="Y52" s="817"/>
+      <c r="Z52" s="817"/>
+      <c r="AA52" s="818"/>
     </row>
     <row r="53" spans="2:27" ht="15">
       <c r="B53" s="111"/>
@@ -27352,7 +27352,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J53" s="808"/>
+      <c r="J53" s="781"/>
       <c r="K53" s="112"/>
       <c r="L53" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27379,19 +27379,19 @@
         <v/>
       </c>
       <c r="R53" s="266"/>
-      <c r="S53" s="808"/>
+      <c r="S53" s="781"/>
       <c r="T53" s="283" t="s">
         <v>253</v>
       </c>
       <c r="U53" s="274"/>
-      <c r="V53" s="788" t="s">
+      <c r="V53" s="816" t="s">
         <v>181</v>
       </c>
-      <c r="W53" s="789"/>
-      <c r="X53" s="789"/>
-      <c r="Y53" s="789"/>
-      <c r="Z53" s="789"/>
-      <c r="AA53" s="790"/>
+      <c r="W53" s="817"/>
+      <c r="X53" s="817"/>
+      <c r="Y53" s="817"/>
+      <c r="Z53" s="817"/>
+      <c r="AA53" s="818"/>
     </row>
     <row r="54" spans="2:27" ht="15">
       <c r="B54" s="111"/>
@@ -27423,7 +27423,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J54" s="808"/>
+      <c r="J54" s="781"/>
       <c r="K54" s="112"/>
       <c r="L54" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27450,19 +27450,19 @@
         <v/>
       </c>
       <c r="R54" s="266"/>
-      <c r="S54" s="808"/>
+      <c r="S54" s="781"/>
       <c r="T54" s="636">
         <v>45334</v>
       </c>
       <c r="U54" s="274"/>
-      <c r="V54" s="788" t="s">
+      <c r="V54" s="816" t="s">
         <v>183</v>
       </c>
-      <c r="W54" s="789"/>
-      <c r="X54" s="789"/>
-      <c r="Y54" s="789"/>
-      <c r="Z54" s="789"/>
-      <c r="AA54" s="790"/>
+      <c r="W54" s="817"/>
+      <c r="X54" s="817"/>
+      <c r="Y54" s="817"/>
+      <c r="Z54" s="817"/>
+      <c r="AA54" s="818"/>
     </row>
     <row r="55" spans="2:27" ht="15">
       <c r="B55" s="111"/>
@@ -27494,7 +27494,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J55" s="808"/>
+      <c r="J55" s="781"/>
       <c r="K55" s="112"/>
       <c r="L55" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27521,15 +27521,15 @@
         <v/>
       </c>
       <c r="R55" s="266"/>
-      <c r="S55" s="808"/>
+      <c r="S55" s="781"/>
       <c r="T55" s="636"/>
       <c r="U55" s="274"/>
-      <c r="V55" s="788"/>
-      <c r="W55" s="789"/>
-      <c r="X55" s="789"/>
-      <c r="Y55" s="789"/>
-      <c r="Z55" s="789"/>
-      <c r="AA55" s="790"/>
+      <c r="V55" s="816"/>
+      <c r="W55" s="817"/>
+      <c r="X55" s="817"/>
+      <c r="Y55" s="817"/>
+      <c r="Z55" s="817"/>
+      <c r="AA55" s="818"/>
     </row>
     <row r="56" spans="2:27" ht="15">
       <c r="B56" s="111"/>
@@ -27561,7 +27561,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J56" s="808"/>
+      <c r="J56" s="781"/>
       <c r="K56" s="112"/>
       <c r="L56" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27588,15 +27588,15 @@
         <v/>
       </c>
       <c r="R56" s="266"/>
-      <c r="S56" s="808"/>
+      <c r="S56" s="781"/>
       <c r="T56" s="636"/>
       <c r="U56" s="274"/>
-      <c r="V56" s="785"/>
-      <c r="W56" s="786"/>
-      <c r="X56" s="786"/>
-      <c r="Y56" s="786"/>
-      <c r="Z56" s="786"/>
-      <c r="AA56" s="787"/>
+      <c r="V56" s="822"/>
+      <c r="W56" s="823"/>
+      <c r="X56" s="823"/>
+      <c r="Y56" s="823"/>
+      <c r="Z56" s="823"/>
+      <c r="AA56" s="824"/>
     </row>
     <row r="57" spans="2:27" ht="15">
       <c r="B57" s="111"/>
@@ -27628,7 +27628,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J57" s="808"/>
+      <c r="J57" s="781"/>
       <c r="K57" s="112"/>
       <c r="L57" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27655,15 +27655,15 @@
         <v/>
       </c>
       <c r="R57" s="154"/>
-      <c r="S57" s="808"/>
+      <c r="S57" s="781"/>
       <c r="T57" s="636"/>
       <c r="U57" s="274"/>
-      <c r="V57" s="785"/>
-      <c r="W57" s="786"/>
-      <c r="X57" s="786"/>
-      <c r="Y57" s="786"/>
-      <c r="Z57" s="786"/>
-      <c r="AA57" s="787"/>
+      <c r="V57" s="822"/>
+      <c r="W57" s="823"/>
+      <c r="X57" s="823"/>
+      <c r="Y57" s="823"/>
+      <c r="Z57" s="823"/>
+      <c r="AA57" s="824"/>
     </row>
     <row r="58" spans="2:27" ht="15">
       <c r="B58" s="111"/>
@@ -27695,7 +27695,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J58" s="808"/>
+      <c r="J58" s="781"/>
       <c r="K58" s="112"/>
       <c r="L58" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27722,19 +27722,19 @@
         <v/>
       </c>
       <c r="R58" s="154"/>
-      <c r="S58" s="808"/>
+      <c r="S58" s="781"/>
       <c r="T58" s="636">
         <v>45338</v>
       </c>
       <c r="U58" s="274"/>
-      <c r="V58" s="781" t="s">
+      <c r="V58" s="798" t="s">
         <v>254</v>
       </c>
-      <c r="W58" s="781"/>
-      <c r="X58" s="781"/>
-      <c r="Y58" s="781"/>
-      <c r="Z58" s="781"/>
-      <c r="AA58" s="782"/>
+      <c r="W58" s="798"/>
+      <c r="X58" s="798"/>
+      <c r="Y58" s="798"/>
+      <c r="Z58" s="798"/>
+      <c r="AA58" s="799"/>
     </row>
     <row r="59" spans="2:27" ht="15">
       <c r="B59" s="111"/>
@@ -27766,7 +27766,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B59,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B59,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J59" s="808"/>
+      <c r="J59" s="781"/>
       <c r="K59" s="112"/>
       <c r="L59" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B59,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B59,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27793,19 +27793,19 @@
         <v/>
       </c>
       <c r="R59" s="154"/>
-      <c r="S59" s="808"/>
+      <c r="S59" s="781"/>
       <c r="T59" s="636" t="s">
         <v>257</v>
       </c>
       <c r="U59" s="274"/>
-      <c r="V59" s="781" t="s">
+      <c r="V59" s="798" t="s">
         <v>258</v>
       </c>
-      <c r="W59" s="781"/>
-      <c r="X59" s="781"/>
-      <c r="Y59" s="781"/>
-      <c r="Z59" s="781"/>
-      <c r="AA59" s="782"/>
+      <c r="W59" s="798"/>
+      <c r="X59" s="798"/>
+      <c r="Y59" s="798"/>
+      <c r="Z59" s="798"/>
+      <c r="AA59" s="799"/>
     </row>
     <row r="60" spans="2:27" ht="15">
       <c r="B60" s="111" t="str">
@@ -27840,7 +27840,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J60" s="808"/>
+      <c r="J60" s="781"/>
       <c r="K60" s="112"/>
       <c r="L60" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27867,15 +27867,15 @@
         <v/>
       </c>
       <c r="R60" s="154"/>
-      <c r="S60" s="808"/>
+      <c r="S60" s="781"/>
       <c r="T60" s="636"/>
       <c r="U60" s="274"/>
-      <c r="V60" s="781"/>
-      <c r="W60" s="781"/>
-      <c r="X60" s="781"/>
-      <c r="Y60" s="781"/>
-      <c r="Z60" s="781"/>
-      <c r="AA60" s="782"/>
+      <c r="V60" s="798"/>
+      <c r="W60" s="798"/>
+      <c r="X60" s="798"/>
+      <c r="Y60" s="798"/>
+      <c r="Z60" s="798"/>
+      <c r="AA60" s="799"/>
     </row>
     <row r="61" spans="2:27" ht="15">
       <c r="B61" s="111"/>
@@ -27907,7 +27907,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J61" s="808"/>
+      <c r="J61" s="781"/>
       <c r="K61" s="112"/>
       <c r="L61" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -27934,17 +27934,17 @@
         <v/>
       </c>
       <c r="R61" s="154"/>
-      <c r="S61" s="808"/>
+      <c r="S61" s="781"/>
       <c r="T61" s="283"/>
       <c r="U61" s="274"/>
-      <c r="V61" s="781" t="s">
+      <c r="V61" s="798" t="s">
         <v>255</v>
       </c>
-      <c r="W61" s="781"/>
-      <c r="X61" s="781"/>
-      <c r="Y61" s="781"/>
-      <c r="Z61" s="781"/>
-      <c r="AA61" s="782"/>
+      <c r="W61" s="798"/>
+      <c r="X61" s="798"/>
+      <c r="Y61" s="798"/>
+      <c r="Z61" s="798"/>
+      <c r="AA61" s="799"/>
     </row>
     <row r="62" spans="2:27" ht="15">
       <c r="B62" s="111"/>
@@ -27976,7 +27976,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B62,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B62,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J62" s="808"/>
+      <c r="J62" s="781"/>
       <c r="K62" s="112"/>
       <c r="L62" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B62,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B62,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -28003,17 +28003,17 @@
         <v/>
       </c>
       <c r="R62" s="154"/>
-      <c r="S62" s="808"/>
+      <c r="S62" s="781"/>
       <c r="T62" s="283"/>
       <c r="U62" s="274"/>
-      <c r="V62" s="781" t="s">
+      <c r="V62" s="798" t="s">
         <v>256</v>
       </c>
-      <c r="W62" s="781"/>
-      <c r="X62" s="781"/>
-      <c r="Y62" s="781"/>
-      <c r="Z62" s="781"/>
-      <c r="AA62" s="782"/>
+      <c r="W62" s="798"/>
+      <c r="X62" s="798"/>
+      <c r="Y62" s="798"/>
+      <c r="Z62" s="798"/>
+      <c r="AA62" s="799"/>
     </row>
     <row r="63" spans="2:27" ht="15">
       <c r="B63" s="111" t="str">
@@ -28048,7 +28048,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J63" s="808"/>
+      <c r="J63" s="781"/>
       <c r="K63" s="112"/>
       <c r="L63" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -28075,15 +28075,15 @@
         <v/>
       </c>
       <c r="R63" s="154"/>
-      <c r="S63" s="808"/>
+      <c r="S63" s="781"/>
       <c r="T63" s="283"/>
       <c r="U63" s="274"/>
-      <c r="V63" s="781"/>
-      <c r="W63" s="781"/>
-      <c r="X63" s="781"/>
-      <c r="Y63" s="781"/>
-      <c r="Z63" s="781"/>
-      <c r="AA63" s="782"/>
+      <c r="V63" s="798"/>
+      <c r="W63" s="798"/>
+      <c r="X63" s="798"/>
+      <c r="Y63" s="798"/>
+      <c r="Z63" s="798"/>
+      <c r="AA63" s="799"/>
     </row>
     <row r="64" spans="2:27" ht="15">
       <c r="B64" s="111"/>
@@ -28115,7 +28115,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J64" s="808"/>
+      <c r="J64" s="781"/>
       <c r="K64" s="112"/>
       <c r="L64" s="153" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -28142,15 +28142,15 @@
         <v/>
       </c>
       <c r="R64" s="154"/>
-      <c r="S64" s="808"/>
+      <c r="S64" s="781"/>
       <c r="T64" s="283"/>
       <c r="U64" s="274"/>
-      <c r="V64" s="781"/>
-      <c r="W64" s="781"/>
-      <c r="X64" s="781"/>
-      <c r="Y64" s="781"/>
-      <c r="Z64" s="781"/>
-      <c r="AA64" s="782"/>
+      <c r="V64" s="798"/>
+      <c r="W64" s="798"/>
+      <c r="X64" s="798"/>
+      <c r="Y64" s="798"/>
+      <c r="Z64" s="798"/>
+      <c r="AA64" s="799"/>
     </row>
     <row r="65" spans="2:27" ht="15.4" thickBot="1">
       <c r="B65" s="111"/>
@@ -28179,7 +28179,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J65" s="808"/>
+      <c r="J65" s="781"/>
       <c r="K65" s="113"/>
       <c r="L65" s="155" t="str">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AJ$37,MATCH(REGENT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(REGENT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AJ$6,FALSE))))</f>
@@ -28206,43 +28206,34 @@
         <v/>
       </c>
       <c r="R65" s="156"/>
-      <c r="S65" s="808"/>
+      <c r="S65" s="781"/>
       <c r="T65" s="284"/>
       <c r="U65" s="285"/>
-      <c r="V65" s="783"/>
-      <c r="W65" s="783"/>
-      <c r="X65" s="783"/>
-      <c r="Y65" s="783"/>
-      <c r="Z65" s="783"/>
-      <c r="AA65" s="784"/>
+      <c r="V65" s="825"/>
+      <c r="W65" s="825"/>
+      <c r="X65" s="825"/>
+      <c r="Y65" s="825"/>
+      <c r="Z65" s="825"/>
+      <c r="AA65" s="826"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="55">
-    <mergeCell ref="V62:AA62"/>
-    <mergeCell ref="V63:AA63"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="V65:AA65"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="V59:AA59"/>
-    <mergeCell ref="V60:AA60"/>
-    <mergeCell ref="V61:AA61"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V47:AA47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:AA49"/>
-    <mergeCell ref="V50:AA50"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="V42:AA42"/>
-    <mergeCell ref="V43:AA43"/>
-    <mergeCell ref="V44:AA44"/>
-    <mergeCell ref="V45:AA45"/>
-    <mergeCell ref="V46:AA46"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B4:AA4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="T5:T6"/>
@@ -28259,21 +28250,30 @@
     <mergeCell ref="V39:AA39"/>
     <mergeCell ref="V40:AA40"/>
     <mergeCell ref="V41:AA41"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B4:AA4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="V42:AA42"/>
+    <mergeCell ref="V43:AA43"/>
+    <mergeCell ref="V44:AA44"/>
+    <mergeCell ref="V45:AA45"/>
+    <mergeCell ref="V46:AA46"/>
+    <mergeCell ref="V47:AA47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:AA49"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V62:AA62"/>
+    <mergeCell ref="V63:AA63"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="V65:AA65"/>
+    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="V59:AA59"/>
+    <mergeCell ref="V60:AA60"/>
+    <mergeCell ref="V61:AA61"/>
   </mergeCells>
   <phoneticPr fontId="91" type="noConversion"/>
   <conditionalFormatting sqref="C7:I8">
@@ -28393,38 +28393,38 @@
         <v>Month:</v>
       </c>
       <c r="D2" s="114"/>
-      <c r="E2" s="794" t="str">
+      <c r="E2" s="811" t="str">
         <f>'Enter Projections'!K2</f>
         <v>February</v>
       </c>
-      <c r="F2" s="794"/>
-      <c r="G2" s="794"/>
-      <c r="H2" s="794"/>
-      <c r="I2" s="794"/>
-      <c r="J2" s="794"/>
-      <c r="K2" s="795" t="str">
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="811"/>
+      <c r="K2" s="812" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom du restaurant :","Restaurant Name:")</f>
         <v>Restaurant Name:</v>
       </c>
-      <c r="L2" s="795"/>
-      <c r="M2" s="795"/>
-      <c r="N2" s="795"/>
-      <c r="O2" s="796"/>
-      <c r="P2" s="796"/>
-      <c r="Q2" s="796"/>
-      <c r="R2" s="796"/>
-      <c r="S2" s="796"/>
-      <c r="T2" s="796"/>
-      <c r="U2" s="797" t="str">
+      <c r="L2" s="812"/>
+      <c r="M2" s="812"/>
+      <c r="N2" s="812"/>
+      <c r="O2" s="813"/>
+      <c r="P2" s="813"/>
+      <c r="Q2" s="813"/>
+      <c r="R2" s="813"/>
+      <c r="S2" s="813"/>
+      <c r="T2" s="813"/>
+      <c r="U2" s="814" t="str">
         <f>IF('Enter Projections'!$A$1,"% prévues","Planned LBR")</f>
         <v>Planned LBR</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="798">
+      <c r="V2" s="814"/>
+      <c r="W2" s="815">
         <f>'Enter Projections'!O27/100</f>
         <v>0</v>
       </c>
-      <c r="X2" s="798"/>
+      <c r="X2" s="815"/>
       <c r="Y2" s="97"/>
       <c r="Z2" s="98"/>
       <c r="AA2" s="99"/>
@@ -28528,7 +28528,7 @@
       <c r="AA4" s="804"/>
     </row>
     <row r="5" spans="1:27" ht="15">
-      <c r="B5" s="799" t="str">
+      <c r="B5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -28542,8 +28542,8 @@
       <c r="G5" s="108"/>
       <c r="H5" s="108"/>
       <c r="I5" s="109"/>
-      <c r="J5" s="801"/>
-      <c r="K5" s="799" t="str">
+      <c r="J5" s="810"/>
+      <c r="K5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -28557,8 +28557,8 @@
       <c r="P5" s="145"/>
       <c r="Q5" s="145"/>
       <c r="R5" s="146"/>
-      <c r="S5" s="801"/>
-      <c r="T5" s="799" t="str">
+      <c r="S5" s="810"/>
+      <c r="T5" s="808" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -28574,7 +28574,7 @@
       <c r="AA5" s="146"/>
     </row>
     <row r="6" spans="1:27" ht="15">
-      <c r="B6" s="800"/>
+      <c r="B6" s="809"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
       <c r="E6" s="95"/>
@@ -28582,8 +28582,8 @@
       <c r="G6" s="95"/>
       <c r="H6" s="95"/>
       <c r="I6" s="110"/>
-      <c r="J6" s="801"/>
-      <c r="K6" s="800"/>
+      <c r="J6" s="810"/>
+      <c r="K6" s="809"/>
       <c r="L6" s="147"/>
       <c r="M6" s="147"/>
       <c r="N6" s="147"/>
@@ -28591,8 +28591,8 @@
       <c r="P6" s="147"/>
       <c r="Q6" s="147"/>
       <c r="R6" s="148"/>
-      <c r="S6" s="801"/>
-      <c r="T6" s="800"/>
+      <c r="S6" s="810"/>
+      <c r="T6" s="809"/>
       <c r="U6" s="147"/>
       <c r="V6" s="147"/>
       <c r="W6" s="147"/>
@@ -28634,7 +28634,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J7" s="801"/>
+      <c r="J7" s="810"/>
       <c r="K7" s="149" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -28667,7 +28667,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S7" s="801"/>
+      <c r="S7" s="810"/>
       <c r="T7" s="149" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -28734,7 +28734,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="801"/>
+      <c r="J8" s="810"/>
       <c r="K8" s="152" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -28767,7 +28767,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="801"/>
+      <c r="S8" s="810"/>
       <c r="T8" s="152" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
@@ -28834,7 +28834,7 @@
         <f>Planner!E$35</f>
         <v/>
       </c>
-      <c r="J9" s="801"/>
+      <c r="J9" s="810"/>
       <c r="K9" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -28867,7 +28867,7 @@
         <f>Planner!K$35</f>
         <v/>
       </c>
-      <c r="S9" s="801"/>
+      <c r="S9" s="810"/>
       <c r="T9" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -28934,7 +28934,7 @@
         <f>Planner!E$36</f>
         <v/>
       </c>
-      <c r="J10" s="801"/>
+      <c r="J10" s="810"/>
       <c r="K10" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -28967,7 +28967,7 @@
         <f>Planner!K$36</f>
         <v/>
       </c>
-      <c r="S10" s="801"/>
+      <c r="S10" s="810"/>
       <c r="T10" s="166" t="str">
         <f>IF($A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -29026,7 +29026,7 @@
       <c r="I11" s="163">
         <v>45262</v>
       </c>
-      <c r="J11" s="801"/>
+      <c r="J11" s="810"/>
       <c r="K11" s="157" t="s">
         <v>32</v>
       </c>
@@ -29051,7 +29051,7 @@
       <c r="R11" s="163">
         <v>45270</v>
       </c>
-      <c r="S11" s="801"/>
+      <c r="S11" s="810"/>
       <c r="T11" s="167" t="s">
         <v>32</v>
       </c>
@@ -29110,7 +29110,7 @@
         <f>IF('Enter Projections'!$A$1,"SAM","SAT")</f>
         <v>SAT</v>
       </c>
-      <c r="J12" s="801"/>
+      <c r="J12" s="810"/>
       <c r="K12" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -29143,7 +29143,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="S12" s="801"/>
+      <c r="S12" s="810"/>
       <c r="T12" s="157" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -29209,7 +29209,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B13,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B13,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J13" s="801"/>
+      <c r="J13" s="810"/>
       <c r="K13" s="111" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D7=0,"",'Enter (Vac BFs TrCl MB'!$D7)</f>
         <v>Brittney</v>
@@ -29242,7 +29242,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B13,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B13,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S13" s="801"/>
+      <c r="S13" s="810"/>
       <c r="T13" s="111" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D7=0,"",'Enter (Vac BFs TrCl MB'!$D7)</f>
         <v>Brittney</v>
@@ -29308,7 +29308,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B14,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B14,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="801"/>
+      <c r="J14" s="810"/>
       <c r="K14" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D8=0,"",'Enter (Vac BFs TrCl MB'!$D8)</f>
         <v>Jayda</v>
@@ -29341,7 +29341,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B14,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B14,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S14" s="801"/>
+      <c r="S14" s="810"/>
       <c r="T14" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D8=0,"",'Enter (Vac BFs TrCl MB'!$D8)</f>
         <v>Jayda</v>
@@ -29408,7 +29408,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B15,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B15,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="801"/>
+      <c r="J15" s="810"/>
       <c r="K15" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D9=0,"",'Enter (Vac BFs TrCl MB'!$D9)</f>
         <v>Harkaml</v>
@@ -29441,7 +29441,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B15,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B15,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S15" s="801"/>
+      <c r="S15" s="810"/>
       <c r="T15" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D9=0,"",'Enter (Vac BFs TrCl MB'!$D9)</f>
         <v>Harkaml</v>
@@ -29508,7 +29508,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B16,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B16,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="801"/>
+      <c r="J16" s="810"/>
       <c r="K16" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D10=0,"",'Enter (Vac BFs TrCl MB'!$D10)</f>
         <v>Chehal</v>
@@ -29541,7 +29541,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B16,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B16,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S16" s="801"/>
+      <c r="S16" s="810"/>
       <c r="T16" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D10=0,"",'Enter (Vac BFs TrCl MB'!$D10)</f>
         <v>Chehal</v>
@@ -29608,7 +29608,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B17,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B17,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="801"/>
+      <c r="J17" s="810"/>
       <c r="K17" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D11=0,"",'Enter (Vac BFs TrCl MB'!$D11)</f>
         <v>Alex</v>
@@ -29641,7 +29641,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B17,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B17,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S17" s="801"/>
+      <c r="S17" s="810"/>
       <c r="T17" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D11=0,"",'Enter (Vac BFs TrCl MB'!$D11)</f>
         <v>Alex</v>
@@ -29708,7 +29708,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B18,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B18,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J18" s="801"/>
+      <c r="J18" s="810"/>
       <c r="K18" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D12=0,"",'Enter (Vac BFs TrCl MB'!$D12)</f>
         <v>Akansha</v>
@@ -29741,7 +29741,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B18,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B18,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S18" s="801"/>
+      <c r="S18" s="810"/>
       <c r="T18" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D12=0,"",'Enter (Vac BFs TrCl MB'!$D12)</f>
         <v>Akansha</v>
@@ -29808,7 +29808,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="801"/>
+      <c r="J19" s="810"/>
       <c r="K19" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D13=0,"",'Enter (Vac BFs TrCl MB'!$D13)</f>
         <v>Kiran</v>
@@ -29841,7 +29841,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B19,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S19" s="801"/>
+      <c r="S19" s="810"/>
       <c r="T19" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D13=0,"",'Enter (Vac BFs TrCl MB'!$D13)</f>
         <v>Kiran</v>
@@ -29908,7 +29908,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J20" s="801"/>
+      <c r="J20" s="810"/>
       <c r="K20" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D14=0,"",'Enter (Vac BFs TrCl MB'!$D14)</f>
         <v>Mahshid</v>
@@ -29941,7 +29941,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B20,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>XX</v>
       </c>
-      <c r="S20" s="801"/>
+      <c r="S20" s="810"/>
       <c r="T20" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D14=0,"",'Enter (Vac BFs TrCl MB'!$D14)</f>
         <v>Mahshid</v>
@@ -30008,7 +30008,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J21" s="801"/>
+      <c r="J21" s="810"/>
       <c r="K21" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D15=0,"",'Enter (Vac BFs TrCl MB'!$D15)</f>
         <v>Harry</v>
@@ -30041,7 +30041,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B21,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S21" s="801"/>
+      <c r="S21" s="810"/>
       <c r="T21" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D15=0,"",'Enter (Vac BFs TrCl MB'!$D15)</f>
         <v>Harry</v>
@@ -30108,7 +30108,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J22" s="801"/>
+      <c r="J22" s="810"/>
       <c r="K22" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D16=0,"",'Enter (Vac BFs TrCl MB'!$D16)</f>
         <v>Parm</v>
@@ -30141,7 +30141,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B22,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S22" s="801"/>
+      <c r="S22" s="810"/>
       <c r="T22" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D16=0,"",'Enter (Vac BFs TrCl MB'!$D16)</f>
         <v>Parm</v>
@@ -30208,7 +30208,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J23" s="801"/>
+      <c r="J23" s="810"/>
       <c r="K23" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D17=0,"",'Enter (Vac BFs TrCl MB'!$D17)</f>
         <v>Harmik</v>
@@ -30241,7 +30241,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B23,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S23" s="801"/>
+      <c r="S23" s="810"/>
       <c r="T23" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D17=0,"",'Enter (Vac BFs TrCl MB'!$D17)</f>
         <v>Harmik</v>
@@ -30308,7 +30308,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J24" s="801"/>
+      <c r="J24" s="810"/>
       <c r="K24" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D18=0,"",'Enter (Vac BFs TrCl MB'!$D18)</f>
         <v>Ruby</v>
@@ -30341,7 +30341,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B24,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="801"/>
+      <c r="S24" s="810"/>
       <c r="T24" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D18=0,"",'Enter (Vac BFs TrCl MB'!$D18)</f>
         <v>Ruby</v>
@@ -30409,7 +30409,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J25" s="801"/>
+      <c r="J25" s="810"/>
       <c r="K25" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D19=0,"",'Enter (Vac BFs TrCl MB'!$D19)</f>
         <v>Taran</v>
@@ -30442,7 +30442,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B25,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S25" s="801"/>
+      <c r="S25" s="810"/>
       <c r="T25" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D19=0,"",'Enter (Vac BFs TrCl MB'!$D19)</f>
         <v>Taran</v>
@@ -30509,7 +30509,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J26" s="801"/>
+      <c r="J26" s="810"/>
       <c r="K26" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D20=0,"",'Enter (Vac BFs TrCl MB'!$D20)</f>
         <v>Jinse</v>
@@ -30542,7 +30542,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B26,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S26" s="801"/>
+      <c r="S26" s="810"/>
       <c r="T26" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D20=0,"",'Enter (Vac BFs TrCl MB'!$D20)</f>
         <v>Jinse</v>
@@ -30609,7 +30609,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J27" s="801"/>
+      <c r="J27" s="810"/>
       <c r="K27" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D21=0,"",'Enter (Vac BFs TrCl MB'!$D21)</f>
         <v>Marija</v>
@@ -30642,7 +30642,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B27,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S27" s="801"/>
+      <c r="S27" s="810"/>
       <c r="T27" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D21=0,"",'Enter (Vac BFs TrCl MB'!$D21)</f>
         <v>Marija</v>
@@ -30709,7 +30709,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J28" s="801"/>
+      <c r="J28" s="810"/>
       <c r="K28" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D22=0,"",'Enter (Vac BFs TrCl MB'!$D22)</f>
         <v>Ravneet</v>
@@ -30742,7 +30742,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B28,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S28" s="801"/>
+      <c r="S28" s="810"/>
       <c r="T28" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D22=0,"",'Enter (Vac BFs TrCl MB'!$D22)</f>
         <v>Ravneet</v>
@@ -30809,7 +30809,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J29" s="801"/>
+      <c r="J29" s="810"/>
       <c r="K29" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D23=0,"",'Enter (Vac BFs TrCl MB'!$D23)</f>
         <v/>
@@ -30842,7 +30842,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B29,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S29" s="801"/>
+      <c r="S29" s="810"/>
       <c r="T29" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D23=0,"",'Enter (Vac BFs TrCl MB'!$D23)</f>
         <v/>
@@ -30909,7 +30909,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J30" s="801"/>
+      <c r="J30" s="810"/>
       <c r="K30" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D24=0,"",'Enter (Vac BFs TrCl MB'!$D24)</f>
         <v>Open/close</v>
@@ -30942,7 +30942,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B30,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S30" s="801"/>
+      <c r="S30" s="810"/>
       <c r="T30" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D24=0,"",'Enter (Vac BFs TrCl MB'!$D24)</f>
         <v>Open/close</v>
@@ -31009,7 +31009,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J31" s="801"/>
+      <c r="J31" s="810"/>
       <c r="K31" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D25=0,"",'Enter (Vac BFs TrCl MB'!$D25)</f>
         <v>Jinse</v>
@@ -31042,7 +31042,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B31,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S31" s="801"/>
+      <c r="S31" s="810"/>
       <c r="T31" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D25=0,"",'Enter (Vac BFs TrCl MB'!$D25)</f>
         <v>Jinse</v>
@@ -31109,7 +31109,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J32" s="801"/>
+      <c r="J32" s="810"/>
       <c r="K32" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D26=0,"",'Enter (Vac BFs TrCl MB'!$D26)</f>
         <v/>
@@ -31142,7 +31142,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B32,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S32" s="801"/>
+      <c r="S32" s="810"/>
       <c r="T32" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D26=0,"",'Enter (Vac BFs TrCl MB'!$D26)</f>
         <v/>
@@ -31209,7 +31209,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J33" s="801"/>
+      <c r="J33" s="810"/>
       <c r="K33" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D27=0,"",'Enter (Vac BFs TrCl MB'!$D27)</f>
         <v xml:space="preserve">TL </v>
@@ -31242,7 +31242,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B33,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S33" s="801"/>
+      <c r="S33" s="810"/>
       <c r="T33" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D27=0,"",'Enter (Vac BFs TrCl MB'!$D27)</f>
         <v xml:space="preserve">TL </v>
@@ -31309,7 +31309,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J34" s="801"/>
+      <c r="J34" s="810"/>
       <c r="K34" s="113" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D28=0,"",'Enter (Vac BFs TrCl MB'!$D28)</f>
         <v>Lakshay</v>
@@ -31342,7 +31342,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B34,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$11,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S34" s="801"/>
+      <c r="S34" s="810"/>
       <c r="T34" s="113" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D28=0,"",'Enter (Vac BFs TrCl MB'!$D28)</f>
         <v>Lakshay</v>
@@ -31377,35 +31377,35 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="14.65" thickBot="1">
-      <c r="B35" s="808"/>
-      <c r="C35" s="808"/>
-      <c r="D35" s="808"/>
-      <c r="E35" s="808"/>
-      <c r="F35" s="808"/>
-      <c r="G35" s="808"/>
-      <c r="H35" s="808"/>
-      <c r="I35" s="808"/>
-      <c r="J35" s="808"/>
-      <c r="K35" s="808"/>
-      <c r="L35" s="808"/>
-      <c r="M35" s="808"/>
-      <c r="N35" s="808"/>
-      <c r="O35" s="808"/>
-      <c r="P35" s="808"/>
-      <c r="Q35" s="808"/>
-      <c r="R35" s="808"/>
-      <c r="S35" s="808"/>
-      <c r="T35" s="808"/>
-      <c r="U35" s="808"/>
-      <c r="V35" s="808"/>
-      <c r="W35" s="808"/>
-      <c r="X35" s="808"/>
-      <c r="Y35" s="808"/>
-      <c r="Z35" s="808"/>
-      <c r="AA35" s="808"/>
+      <c r="B35" s="781"/>
+      <c r="C35" s="781"/>
+      <c r="D35" s="781"/>
+      <c r="E35" s="781"/>
+      <c r="F35" s="781"/>
+      <c r="G35" s="781"/>
+      <c r="H35" s="781"/>
+      <c r="I35" s="781"/>
+      <c r="J35" s="781"/>
+      <c r="K35" s="781"/>
+      <c r="L35" s="781"/>
+      <c r="M35" s="781"/>
+      <c r="N35" s="781"/>
+      <c r="O35" s="781"/>
+      <c r="P35" s="781"/>
+      <c r="Q35" s="781"/>
+      <c r="R35" s="781"/>
+      <c r="S35" s="781"/>
+      <c r="T35" s="781"/>
+      <c r="U35" s="781"/>
+      <c r="V35" s="781"/>
+      <c r="W35" s="781"/>
+      <c r="X35" s="781"/>
+      <c r="Y35" s="781"/>
+      <c r="Z35" s="781"/>
+      <c r="AA35" s="781"/>
     </row>
     <row r="36" spans="2:27" ht="17.2" customHeight="1">
-      <c r="B36" s="809" t="str">
+      <c r="B36" s="782" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -31419,8 +31419,8 @@
       <c r="G36" s="108"/>
       <c r="H36" s="108"/>
       <c r="I36" s="109"/>
-      <c r="J36" s="808"/>
-      <c r="K36" s="809" t="str">
+      <c r="J36" s="781"/>
+      <c r="K36" s="782" t="str">
         <f>IF('Enter Projections'!A1,"Événements
 spéciaux","Special
 Events")</f>
@@ -31434,20 +31434,20 @@
       <c r="P36" s="108"/>
       <c r="Q36" s="108"/>
       <c r="R36" s="109"/>
-      <c r="S36" s="808"/>
-      <c r="T36" s="812" t="s">
+      <c r="S36" s="781"/>
+      <c r="T36" s="785" t="s">
         <v>38</v>
       </c>
-      <c r="U36" s="813"/>
-      <c r="V36" s="813"/>
-      <c r="W36" s="813"/>
-      <c r="X36" s="813"/>
-      <c r="Y36" s="813"/>
-      <c r="Z36" s="813"/>
-      <c r="AA36" s="814"/>
+      <c r="U36" s="786"/>
+      <c r="V36" s="786"/>
+      <c r="W36" s="786"/>
+      <c r="X36" s="786"/>
+      <c r="Y36" s="786"/>
+      <c r="Z36" s="786"/>
+      <c r="AA36" s="787"/>
     </row>
     <row r="37" spans="2:27" ht="15">
-      <c r="B37" s="810"/>
+      <c r="B37" s="783"/>
       <c r="C37" s="95"/>
       <c r="D37" s="95"/>
       <c r="E37" s="95"/>
@@ -31455,8 +31455,8 @@
       <c r="G37" s="95"/>
       <c r="H37" s="95"/>
       <c r="I37" s="110"/>
-      <c r="J37" s="808"/>
-      <c r="K37" s="810"/>
+      <c r="J37" s="781"/>
+      <c r="K37" s="783"/>
       <c r="L37" s="95"/>
       <c r="M37" s="95"/>
       <c r="N37" s="95"/>
@@ -31464,21 +31464,21 @@
       <c r="P37" s="95"/>
       <c r="Q37" s="95"/>
       <c r="R37" s="110"/>
-      <c r="S37" s="808"/>
+      <c r="S37" s="781"/>
       <c r="T37" s="280" t="s">
         <v>39</v>
       </c>
       <c r="U37" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="815" t="s">
+      <c r="V37" s="788" t="s">
         <v>41</v>
       </c>
-      <c r="W37" s="815"/>
-      <c r="X37" s="815"/>
-      <c r="Y37" s="815"/>
-      <c r="Z37" s="815"/>
-      <c r="AA37" s="816"/>
+      <c r="W37" s="788"/>
+      <c r="X37" s="788"/>
+      <c r="Y37" s="788"/>
+      <c r="Z37" s="788"/>
+      <c r="AA37" s="789"/>
     </row>
     <row r="38" spans="2:27" ht="15.4">
       <c r="B38" s="103" t="str">
@@ -31513,7 +31513,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J38" s="808"/>
+      <c r="J38" s="781"/>
       <c r="K38" s="103" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D32=0,"",'Enter (Vac BFs TrCl MB'!$D32)</f>
         <v/>
@@ -31546,15 +31546,15 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B7,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="S38" s="808"/>
+      <c r="S38" s="781"/>
       <c r="T38" s="281"/>
       <c r="U38" s="279"/>
-      <c r="V38" s="817"/>
-      <c r="W38" s="817"/>
-      <c r="X38" s="817"/>
-      <c r="Y38" s="817"/>
-      <c r="Z38" s="817"/>
-      <c r="AA38" s="818"/>
+      <c r="V38" s="790"/>
+      <c r="W38" s="790"/>
+      <c r="X38" s="790"/>
+      <c r="Y38" s="790"/>
+      <c r="Z38" s="790"/>
+      <c r="AA38" s="791"/>
     </row>
     <row r="39" spans="2:27" ht="15.4">
       <c r="B39" s="103" t="str">
@@ -31589,14 +31589,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J39" s="808"/>
+      <c r="J39" s="781"/>
       <c r="K39" s="103" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D33=0,"",'Enter (Vac BFs TrCl MB'!$D33)</f>
         <v>SHAKE</v>
       </c>
-      <c r="L39" s="90" t="str">
+      <c r="L39" s="90">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M39" s="90">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
@@ -31622,15 +31622,15 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AP$37,MATCH(PROSPECT!$B8,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AP$6,FALSE))))</f>
         <v>WK</v>
       </c>
-      <c r="S39" s="808"/>
+      <c r="S39" s="781"/>
       <c r="T39" s="281"/>
       <c r="U39" s="279"/>
-      <c r="V39" s="817"/>
-      <c r="W39" s="817"/>
-      <c r="X39" s="817"/>
-      <c r="Y39" s="817"/>
-      <c r="Z39" s="817"/>
-      <c r="AA39" s="818"/>
+      <c r="V39" s="790"/>
+      <c r="W39" s="790"/>
+      <c r="X39" s="790"/>
+      <c r="Y39" s="790"/>
+      <c r="Z39" s="790"/>
+      <c r="AA39" s="791"/>
     </row>
     <row r="40" spans="2:27" ht="15.4">
       <c r="B40" s="104" t="str">
@@ -31665,7 +31665,7 @@
         <f>Planner!K$59</f>
         <v/>
       </c>
-      <c r="J40" s="808"/>
+      <c r="J40" s="781"/>
       <c r="K40" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"$ prévus","Projected $")</f>
         <v>Projected $</v>
@@ -31698,15 +31698,15 @@
         <f>Planner!K$71</f>
         <v/>
       </c>
-      <c r="S40" s="808"/>
+      <c r="S40" s="781"/>
       <c r="T40" s="282"/>
       <c r="U40" s="275"/>
-      <c r="V40" s="819"/>
-      <c r="W40" s="819"/>
-      <c r="X40" s="819"/>
-      <c r="Y40" s="819"/>
-      <c r="Z40" s="819"/>
-      <c r="AA40" s="820"/>
+      <c r="V40" s="792"/>
+      <c r="W40" s="792"/>
+      <c r="X40" s="792"/>
+      <c r="Y40" s="792"/>
+      <c r="Z40" s="792"/>
+      <c r="AA40" s="793"/>
     </row>
     <row r="41" spans="2:27" ht="15.4">
       <c r="B41" s="104" t="str">
@@ -31741,7 +31741,7 @@
         <f>Planner!K$60</f>
         <v/>
       </c>
-      <c r="J41" s="808"/>
+      <c r="J41" s="781"/>
       <c r="K41" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"NC","G.C.")</f>
         <v>G.C.</v>
@@ -31774,15 +31774,15 @@
         <f>Planner!K$72</f>
         <v/>
       </c>
-      <c r="S41" s="808"/>
+      <c r="S41" s="781"/>
       <c r="T41" s="282"/>
       <c r="U41" s="275"/>
-      <c r="V41" s="819"/>
-      <c r="W41" s="819"/>
-      <c r="X41" s="819"/>
-      <c r="Y41" s="819"/>
-      <c r="Z41" s="819"/>
-      <c r="AA41" s="820"/>
+      <c r="V41" s="792"/>
+      <c r="W41" s="792"/>
+      <c r="X41" s="792"/>
+      <c r="Y41" s="792"/>
+      <c r="Z41" s="792"/>
+      <c r="AA41" s="793"/>
     </row>
     <row r="42" spans="2:27" ht="15.4">
       <c r="B42" s="104" t="s">
@@ -31809,7 +31809,7 @@
       <c r="I42" s="93">
         <v>45284</v>
       </c>
-      <c r="J42" s="808"/>
+      <c r="J42" s="781"/>
       <c r="K42" s="104" t="s">
         <v>32</v>
       </c>
@@ -31834,15 +31834,15 @@
       <c r="R42" s="93">
         <v>45291</v>
       </c>
-      <c r="S42" s="808"/>
+      <c r="S42" s="781"/>
       <c r="T42" s="282"/>
       <c r="U42" s="276"/>
-      <c r="V42" s="821"/>
-      <c r="W42" s="821"/>
-      <c r="X42" s="821"/>
-      <c r="Y42" s="821"/>
-      <c r="Z42" s="821"/>
-      <c r="AA42" s="822"/>
+      <c r="V42" s="794"/>
+      <c r="W42" s="794"/>
+      <c r="X42" s="794"/>
+      <c r="Y42" s="794"/>
+      <c r="Z42" s="794"/>
+      <c r="AA42" s="795"/>
     </row>
     <row r="43" spans="2:27" ht="15.4">
       <c r="B43" s="104" t="str">
@@ -31876,7 +31876,7 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="J43" s="808"/>
+      <c r="J43" s="781"/>
       <c r="K43" s="104" t="str">
         <f>IF('Enter Projections'!$A$1,"Nom","Name")</f>
         <v>Name</v>
@@ -31909,15 +31909,15 @@
         <f>IF('Enter Projections'!$A$1,"DIM","SUN")</f>
         <v>SUN</v>
       </c>
-      <c r="S43" s="808"/>
+      <c r="S43" s="781"/>
       <c r="T43" s="282"/>
       <c r="U43" s="277"/>
-      <c r="V43" s="823"/>
-      <c r="W43" s="823"/>
-      <c r="X43" s="823"/>
-      <c r="Y43" s="823"/>
-      <c r="Z43" s="823"/>
-      <c r="AA43" s="824"/>
+      <c r="V43" s="796"/>
+      <c r="W43" s="796"/>
+      <c r="X43" s="796"/>
+      <c r="Y43" s="796"/>
+      <c r="Z43" s="796"/>
+      <c r="AA43" s="797"/>
     </row>
     <row r="44" spans="2:27" ht="15.4">
       <c r="B44" s="111" t="str">
@@ -31952,14 +31952,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J44" s="808"/>
+      <c r="J44" s="781"/>
       <c r="K44" s="111" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D7=0,"",'Enter (Vac BFs TrCl MB'!$D7)</f>
         <v>Brittney</v>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M44" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -31985,15 +31985,15 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B44,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S44" s="808"/>
+      <c r="S44" s="781"/>
       <c r="T44" s="283"/>
       <c r="U44" s="274"/>
-      <c r="V44" s="781"/>
-      <c r="W44" s="781"/>
-      <c r="X44" s="781"/>
-      <c r="Y44" s="781"/>
-      <c r="Z44" s="781"/>
-      <c r="AA44" s="782"/>
+      <c r="V44" s="798"/>
+      <c r="W44" s="798"/>
+      <c r="X44" s="798"/>
+      <c r="Y44" s="798"/>
+      <c r="Z44" s="798"/>
+      <c r="AA44" s="799"/>
     </row>
     <row r="45" spans="2:27" ht="15">
       <c r="B45" s="111" t="str">
@@ -32028,14 +32028,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B45,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B45,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J45" s="808"/>
+      <c r="J45" s="781"/>
       <c r="K45" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D8=0,"",'Enter (Vac BFs TrCl MB'!$D8)</f>
         <v>Jayda</v>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B45,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B45,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M45" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B45,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B45,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32058,15 +32058,15 @@
         <v>0</v>
       </c>
       <c r="R45" s="154"/>
-      <c r="S45" s="808"/>
+      <c r="S45" s="781"/>
       <c r="T45" s="283"/>
       <c r="U45" s="274"/>
-      <c r="V45" s="781"/>
-      <c r="W45" s="781"/>
-      <c r="X45" s="781"/>
-      <c r="Y45" s="781"/>
-      <c r="Z45" s="781"/>
-      <c r="AA45" s="782"/>
+      <c r="V45" s="798"/>
+      <c r="W45" s="798"/>
+      <c r="X45" s="798"/>
+      <c r="Y45" s="798"/>
+      <c r="Z45" s="798"/>
+      <c r="AA45" s="799"/>
     </row>
     <row r="46" spans="2:27" ht="15">
       <c r="B46" s="111" t="str">
@@ -32101,14 +32101,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B46,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B46,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J46" s="808"/>
+      <c r="J46" s="781"/>
       <c r="K46" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D9=0,"",'Enter (Vac BFs TrCl MB'!$D9)</f>
         <v>Harkaml</v>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B46,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B46,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M46" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B46,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B46,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32131,15 +32131,15 @@
         <v>0</v>
       </c>
       <c r="R46" s="266"/>
-      <c r="S46" s="808"/>
+      <c r="S46" s="781"/>
       <c r="T46" s="283"/>
       <c r="U46" s="274"/>
-      <c r="V46" s="781"/>
-      <c r="W46" s="781"/>
-      <c r="X46" s="781"/>
-      <c r="Y46" s="781"/>
-      <c r="Z46" s="781"/>
-      <c r="AA46" s="782"/>
+      <c r="V46" s="798"/>
+      <c r="W46" s="798"/>
+      <c r="X46" s="798"/>
+      <c r="Y46" s="798"/>
+      <c r="Z46" s="798"/>
+      <c r="AA46" s="799"/>
     </row>
     <row r="47" spans="2:27" ht="15">
       <c r="B47" s="111" t="str">
@@ -32174,14 +32174,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B47,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B47,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J47" s="808"/>
+      <c r="J47" s="781"/>
       <c r="K47" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D10=0,"",'Enter (Vac BFs TrCl MB'!$D10)</f>
         <v>Chehal</v>
       </c>
-      <c r="L47" s="153" t="str">
+      <c r="L47" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B47,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B47,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M47" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B47,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B47,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32204,15 +32204,15 @@
         <v>0</v>
       </c>
       <c r="R47" s="154"/>
-      <c r="S47" s="808"/>
+      <c r="S47" s="781"/>
       <c r="T47" s="283"/>
       <c r="U47" s="274"/>
-      <c r="V47" s="781"/>
-      <c r="W47" s="781"/>
-      <c r="X47" s="781"/>
-      <c r="Y47" s="781"/>
-      <c r="Z47" s="781"/>
-      <c r="AA47" s="782"/>
+      <c r="V47" s="798"/>
+      <c r="W47" s="798"/>
+      <c r="X47" s="798"/>
+      <c r="Y47" s="798"/>
+      <c r="Z47" s="798"/>
+      <c r="AA47" s="799"/>
     </row>
     <row r="48" spans="2:27" ht="15">
       <c r="B48" s="111" t="str">
@@ -32247,14 +32247,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J48" s="808"/>
+      <c r="J48" s="781"/>
       <c r="K48" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D11=0,"",'Enter (Vac BFs TrCl MB'!$D11)</f>
         <v>Alex</v>
       </c>
-      <c r="L48" s="153" t="str">
+      <c r="L48" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M48" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B48,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32277,15 +32277,15 @@
         <v>0</v>
       </c>
       <c r="R48" s="154"/>
-      <c r="S48" s="808"/>
+      <c r="S48" s="781"/>
       <c r="T48" s="283"/>
       <c r="U48" s="274"/>
-      <c r="V48" s="781"/>
-      <c r="W48" s="781"/>
-      <c r="X48" s="781"/>
-      <c r="Y48" s="781"/>
-      <c r="Z48" s="781"/>
-      <c r="AA48" s="782"/>
+      <c r="V48" s="798"/>
+      <c r="W48" s="798"/>
+      <c r="X48" s="798"/>
+      <c r="Y48" s="798"/>
+      <c r="Z48" s="798"/>
+      <c r="AA48" s="799"/>
     </row>
     <row r="49" spans="2:27" ht="15">
       <c r="B49" s="111" t="str">
@@ -32320,14 +32320,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J49" s="808"/>
+      <c r="J49" s="781"/>
       <c r="K49" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D12=0,"",'Enter (Vac BFs TrCl MB'!$D12)</f>
         <v>Akansha</v>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M49" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32353,15 +32353,15 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B49,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!R$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="S49" s="808"/>
+      <c r="S49" s="781"/>
       <c r="T49" s="283"/>
       <c r="U49" s="274"/>
-      <c r="V49" s="781"/>
-      <c r="W49" s="781"/>
-      <c r="X49" s="781"/>
-      <c r="Y49" s="781"/>
-      <c r="Z49" s="781"/>
-      <c r="AA49" s="782"/>
+      <c r="V49" s="798"/>
+      <c r="W49" s="798"/>
+      <c r="X49" s="798"/>
+      <c r="Y49" s="798"/>
+      <c r="Z49" s="798"/>
+      <c r="AA49" s="799"/>
     </row>
     <row r="50" spans="2:27" ht="15">
       <c r="B50" s="111" t="str">
@@ -32396,14 +32396,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J50" s="808"/>
+      <c r="J50" s="781"/>
       <c r="K50" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D13=0,"",'Enter (Vac BFs TrCl MB'!$D13)</f>
         <v>Kiran</v>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M50" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B50,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32426,15 +32426,15 @@
         <v>0</v>
       </c>
       <c r="R50" s="266"/>
-      <c r="S50" s="808"/>
+      <c r="S50" s="781"/>
       <c r="T50" s="283"/>
       <c r="U50" s="274"/>
-      <c r="V50" s="781"/>
-      <c r="W50" s="781"/>
-      <c r="X50" s="781"/>
-      <c r="Y50" s="781"/>
-      <c r="Z50" s="781"/>
-      <c r="AA50" s="782"/>
+      <c r="V50" s="798"/>
+      <c r="W50" s="798"/>
+      <c r="X50" s="798"/>
+      <c r="Y50" s="798"/>
+      <c r="Z50" s="798"/>
+      <c r="AA50" s="799"/>
     </row>
     <row r="51" spans="2:27" ht="15">
       <c r="B51" s="111" t="str">
@@ -32469,14 +32469,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J51" s="808"/>
+      <c r="J51" s="781"/>
       <c r="K51" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D14=0,"",'Enter (Vac BFs TrCl MB'!$D14)</f>
         <v>Mahshid</v>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M51" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B51,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32499,15 +32499,15 @@
         <v>0</v>
       </c>
       <c r="R51" s="266"/>
-      <c r="S51" s="808"/>
+      <c r="S51" s="781"/>
       <c r="T51" s="283"/>
       <c r="U51" s="274"/>
-      <c r="V51" s="781"/>
-      <c r="W51" s="781"/>
-      <c r="X51" s="781"/>
-      <c r="Y51" s="781"/>
-      <c r="Z51" s="781"/>
-      <c r="AA51" s="782"/>
+      <c r="V51" s="798"/>
+      <c r="W51" s="798"/>
+      <c r="X51" s="798"/>
+      <c r="Y51" s="798"/>
+      <c r="Z51" s="798"/>
+      <c r="AA51" s="799"/>
     </row>
     <row r="52" spans="2:27" ht="15">
       <c r="B52" s="111" t="str">
@@ -32542,14 +32542,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>H</v>
       </c>
-      <c r="J52" s="808"/>
+      <c r="J52" s="781"/>
       <c r="K52" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D15=0,"",'Enter (Vac BFs TrCl MB'!$D15)</f>
         <v>Harry</v>
       </c>
-      <c r="L52" s="153" t="str">
+      <c r="L52" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M52" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B52,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32572,15 +32572,15 @@
         <v>0</v>
       </c>
       <c r="R52" s="266"/>
-      <c r="S52" s="808"/>
+      <c r="S52" s="781"/>
       <c r="T52" s="283"/>
       <c r="U52" s="274"/>
-      <c r="V52" s="781"/>
-      <c r="W52" s="781"/>
-      <c r="X52" s="781"/>
-      <c r="Y52" s="781"/>
-      <c r="Z52" s="781"/>
-      <c r="AA52" s="782"/>
+      <c r="V52" s="798"/>
+      <c r="W52" s="798"/>
+      <c r="X52" s="798"/>
+      <c r="Y52" s="798"/>
+      <c r="Z52" s="798"/>
+      <c r="AA52" s="799"/>
     </row>
     <row r="53" spans="2:27" ht="15">
       <c r="B53" s="111" t="str">
@@ -32615,14 +32615,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J53" s="808"/>
+      <c r="J53" s="781"/>
       <c r="K53" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D16=0,"",'Enter (Vac BFs TrCl MB'!$D16)</f>
         <v>Parm</v>
       </c>
-      <c r="L53" s="153" t="str">
+      <c r="L53" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M53" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B53,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32645,15 +32645,15 @@
         <v>0</v>
       </c>
       <c r="R53" s="266"/>
-      <c r="S53" s="808"/>
+      <c r="S53" s="781"/>
       <c r="T53" s="283"/>
       <c r="U53" s="274"/>
-      <c r="V53" s="781"/>
-      <c r="W53" s="781"/>
-      <c r="X53" s="781"/>
-      <c r="Y53" s="781"/>
-      <c r="Z53" s="781"/>
-      <c r="AA53" s="782"/>
+      <c r="V53" s="798"/>
+      <c r="W53" s="798"/>
+      <c r="X53" s="798"/>
+      <c r="Y53" s="798"/>
+      <c r="Z53" s="798"/>
+      <c r="AA53" s="799"/>
     </row>
     <row r="54" spans="2:27" ht="15">
       <c r="B54" s="111" t="str">
@@ -32688,14 +32688,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J54" s="808"/>
+      <c r="J54" s="781"/>
       <c r="K54" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D17=0,"",'Enter (Vac BFs TrCl MB'!$D17)</f>
         <v>Harmik</v>
       </c>
-      <c r="L54" s="153" t="str">
+      <c r="L54" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M54" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B54,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32718,15 +32718,15 @@
         <v>0</v>
       </c>
       <c r="R54" s="266"/>
-      <c r="S54" s="808"/>
+      <c r="S54" s="781"/>
       <c r="T54" s="283"/>
       <c r="U54" s="274"/>
-      <c r="V54" s="781"/>
-      <c r="W54" s="781"/>
-      <c r="X54" s="781"/>
-      <c r="Y54" s="781"/>
-      <c r="Z54" s="781"/>
-      <c r="AA54" s="782"/>
+      <c r="V54" s="798"/>
+      <c r="W54" s="798"/>
+      <c r="X54" s="798"/>
+      <c r="Y54" s="798"/>
+      <c r="Z54" s="798"/>
+      <c r="AA54" s="799"/>
     </row>
     <row r="55" spans="2:27" ht="15">
       <c r="B55" s="111" t="str">
@@ -32761,14 +32761,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J55" s="808"/>
+      <c r="J55" s="781"/>
       <c r="K55" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D18=0,"",'Enter (Vac BFs TrCl MB'!$D18)</f>
         <v>Ruby</v>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M55" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B55,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32791,15 +32791,15 @@
         <v>0</v>
       </c>
       <c r="R55" s="266"/>
-      <c r="S55" s="808"/>
+      <c r="S55" s="781"/>
       <c r="T55" s="283"/>
       <c r="U55" s="274"/>
-      <c r="V55" s="781"/>
-      <c r="W55" s="781"/>
-      <c r="X55" s="781"/>
-      <c r="Y55" s="781"/>
-      <c r="Z55" s="781"/>
-      <c r="AA55" s="782"/>
+      <c r="V55" s="798"/>
+      <c r="W55" s="798"/>
+      <c r="X55" s="798"/>
+      <c r="Y55" s="798"/>
+      <c r="Z55" s="798"/>
+      <c r="AA55" s="799"/>
     </row>
     <row r="56" spans="2:27" ht="15">
       <c r="B56" s="111" t="str">
@@ -32834,14 +32834,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J56" s="808"/>
+      <c r="J56" s="781"/>
       <c r="K56" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D19=0,"",'Enter (Vac BFs TrCl MB'!$D19)</f>
         <v>Taran</v>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M56" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B56,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32864,15 +32864,15 @@
         <v>0</v>
       </c>
       <c r="R56" s="266"/>
-      <c r="S56" s="808"/>
+      <c r="S56" s="781"/>
       <c r="T56" s="283"/>
       <c r="U56" s="274"/>
-      <c r="V56" s="781"/>
-      <c r="W56" s="781"/>
-      <c r="X56" s="781"/>
-      <c r="Y56" s="781"/>
-      <c r="Z56" s="781"/>
-      <c r="AA56" s="782"/>
+      <c r="V56" s="798"/>
+      <c r="W56" s="798"/>
+      <c r="X56" s="798"/>
+      <c r="Y56" s="798"/>
+      <c r="Z56" s="798"/>
+      <c r="AA56" s="799"/>
     </row>
     <row r="57" spans="2:27" ht="15">
       <c r="B57" s="111" t="str">
@@ -32907,14 +32907,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J57" s="808"/>
+      <c r="J57" s="781"/>
       <c r="K57" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D20=0,"",'Enter (Vac BFs TrCl MB'!$D20)</f>
         <v>Jinse</v>
       </c>
-      <c r="L57" s="153" t="str">
+      <c r="L57" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M57" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B57,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -32937,15 +32937,15 @@
         <v>0</v>
       </c>
       <c r="R57" s="154"/>
-      <c r="S57" s="808"/>
+      <c r="S57" s="781"/>
       <c r="T57" s="283"/>
       <c r="U57" s="274"/>
-      <c r="V57" s="781"/>
-      <c r="W57" s="781"/>
-      <c r="X57" s="781"/>
-      <c r="Y57" s="781"/>
-      <c r="Z57" s="781"/>
-      <c r="AA57" s="782"/>
+      <c r="V57" s="798"/>
+      <c r="W57" s="798"/>
+      <c r="X57" s="798"/>
+      <c r="Y57" s="798"/>
+      <c r="Z57" s="798"/>
+      <c r="AA57" s="799"/>
     </row>
     <row r="58" spans="2:27" ht="15">
       <c r="B58" s="111" t="str">
@@ -32980,14 +32980,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J58" s="808"/>
+      <c r="J58" s="781"/>
       <c r="K58" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D21=0,"",'Enter (Vac BFs TrCl MB'!$D21)</f>
         <v>Marija</v>
       </c>
-      <c r="L58" s="153" t="str">
+      <c r="L58" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M58" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B58,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -33010,15 +33010,15 @@
         <v>0</v>
       </c>
       <c r="R58" s="154"/>
-      <c r="S58" s="808"/>
+      <c r="S58" s="781"/>
       <c r="T58" s="283"/>
       <c r="U58" s="274"/>
-      <c r="V58" s="781"/>
-      <c r="W58" s="781"/>
-      <c r="X58" s="781"/>
-      <c r="Y58" s="781"/>
-      <c r="Z58" s="781"/>
-      <c r="AA58" s="782"/>
+      <c r="V58" s="798"/>
+      <c r="W58" s="798"/>
+      <c r="X58" s="798"/>
+      <c r="Y58" s="798"/>
+      <c r="Z58" s="798"/>
+      <c r="AA58" s="799"/>
     </row>
     <row r="59" spans="2:27" ht="15">
       <c r="B59" s="111" t="str">
@@ -33053,7 +33053,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B59,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B59,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J59" s="808"/>
+      <c r="J59" s="781"/>
       <c r="K59" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D22=0,"",'Enter (Vac BFs TrCl MB'!$D22)</f>
         <v>Ravneet</v>
@@ -33083,15 +33083,15 @@
         <v/>
       </c>
       <c r="R59" s="154"/>
-      <c r="S59" s="808"/>
+      <c r="S59" s="781"/>
       <c r="T59" s="283"/>
       <c r="U59" s="274"/>
-      <c r="V59" s="781"/>
-      <c r="W59" s="781"/>
-      <c r="X59" s="781"/>
-      <c r="Y59" s="781"/>
-      <c r="Z59" s="781"/>
-      <c r="AA59" s="782"/>
+      <c r="V59" s="798"/>
+      <c r="W59" s="798"/>
+      <c r="X59" s="798"/>
+      <c r="Y59" s="798"/>
+      <c r="Z59" s="798"/>
+      <c r="AA59" s="799"/>
     </row>
     <row r="60" spans="2:27" ht="15">
       <c r="B60" s="111" t="str">
@@ -33126,7 +33126,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B60,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J60" s="808"/>
+      <c r="J60" s="781"/>
       <c r="K60" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D23=0,"",'Enter (Vac BFs TrCl MB'!$D23)</f>
         <v/>
@@ -33156,15 +33156,15 @@
         <v/>
       </c>
       <c r="R60" s="154"/>
-      <c r="S60" s="808"/>
+      <c r="S60" s="781"/>
       <c r="T60" s="283"/>
       <c r="U60" s="274"/>
-      <c r="V60" s="781"/>
-      <c r="W60" s="781"/>
-      <c r="X60" s="781"/>
-      <c r="Y60" s="781"/>
-      <c r="Z60" s="781"/>
-      <c r="AA60" s="782"/>
+      <c r="V60" s="798"/>
+      <c r="W60" s="798"/>
+      <c r="X60" s="798"/>
+      <c r="Y60" s="798"/>
+      <c r="Z60" s="798"/>
+      <c r="AA60" s="799"/>
     </row>
     <row r="61" spans="2:27" ht="15">
       <c r="B61" s="111" t="str">
@@ -33199,14 +33199,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J61" s="808"/>
+      <c r="J61" s="781"/>
       <c r="K61" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D24=0,"",'Enter (Vac BFs TrCl MB'!$D24)</f>
         <v>Open/close</v>
       </c>
-      <c r="L61" s="153" t="str">
+      <c r="L61" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M61" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B61,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -33229,15 +33229,15 @@
         <v>0</v>
       </c>
       <c r="R61" s="154"/>
-      <c r="S61" s="808"/>
+      <c r="S61" s="781"/>
       <c r="T61" s="283"/>
       <c r="U61" s="274"/>
-      <c r="V61" s="781"/>
-      <c r="W61" s="781"/>
-      <c r="X61" s="781"/>
-      <c r="Y61" s="781"/>
-      <c r="Z61" s="781"/>
-      <c r="AA61" s="782"/>
+      <c r="V61" s="798"/>
+      <c r="W61" s="798"/>
+      <c r="X61" s="798"/>
+      <c r="Y61" s="798"/>
+      <c r="Z61" s="798"/>
+      <c r="AA61" s="799"/>
     </row>
     <row r="62" spans="2:27" ht="15">
       <c r="B62" s="111" t="str">
@@ -33272,7 +33272,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B62,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B62,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J62" s="808"/>
+      <c r="J62" s="781"/>
       <c r="K62" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D25=0,"",'Enter (Vac BFs TrCl MB'!$D25)</f>
         <v>Jinse</v>
@@ -33302,15 +33302,15 @@
         <v/>
       </c>
       <c r="R62" s="154"/>
-      <c r="S62" s="808"/>
+      <c r="S62" s="781"/>
       <c r="T62" s="283"/>
       <c r="U62" s="274"/>
-      <c r="V62" s="781"/>
-      <c r="W62" s="781"/>
-      <c r="X62" s="781"/>
-      <c r="Y62" s="781"/>
-      <c r="Z62" s="781"/>
-      <c r="AA62" s="782"/>
+      <c r="V62" s="798"/>
+      <c r="W62" s="798"/>
+      <c r="X62" s="798"/>
+      <c r="Y62" s="798"/>
+      <c r="Z62" s="798"/>
+      <c r="AA62" s="799"/>
     </row>
     <row r="63" spans="2:27" ht="15">
       <c r="B63" s="111" t="str">
@@ -33345,7 +33345,7 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B63,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v/>
       </c>
-      <c r="J63" s="808"/>
+      <c r="J63" s="781"/>
       <c r="K63" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D26=0,"",'Enter (Vac BFs TrCl MB'!$D26)</f>
         <v/>
@@ -33375,15 +33375,15 @@
         <v/>
       </c>
       <c r="R63" s="154"/>
-      <c r="S63" s="808"/>
+      <c r="S63" s="781"/>
       <c r="T63" s="283"/>
       <c r="U63" s="274"/>
-      <c r="V63" s="781"/>
-      <c r="W63" s="781"/>
-      <c r="X63" s="781"/>
-      <c r="Y63" s="781"/>
-      <c r="Z63" s="781"/>
-      <c r="AA63" s="782"/>
+      <c r="V63" s="798"/>
+      <c r="W63" s="798"/>
+      <c r="X63" s="798"/>
+      <c r="Y63" s="798"/>
+      <c r="Z63" s="798"/>
+      <c r="AA63" s="799"/>
     </row>
     <row r="64" spans="2:27" ht="17.2" customHeight="1">
       <c r="B64" s="111" t="str">
@@ -33418,14 +33418,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J64" s="808"/>
+      <c r="J64" s="781"/>
       <c r="K64" s="112" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D27=0,"",'Enter (Vac BFs TrCl MB'!$D27)</f>
         <v xml:space="preserve">TL </v>
       </c>
-      <c r="L64" s="153" t="str">
+      <c r="L64" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M64" s="153">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B64,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -33448,15 +33448,15 @@
         <v>0</v>
       </c>
       <c r="R64" s="154"/>
-      <c r="S64" s="808"/>
+      <c r="S64" s="781"/>
       <c r="T64" s="283"/>
       <c r="U64" s="274"/>
-      <c r="V64" s="781"/>
-      <c r="W64" s="781"/>
-      <c r="X64" s="781"/>
-      <c r="Y64" s="781"/>
-      <c r="Z64" s="781"/>
-      <c r="AA64" s="782"/>
+      <c r="V64" s="798"/>
+      <c r="W64" s="798"/>
+      <c r="X64" s="798"/>
+      <c r="Y64" s="798"/>
+      <c r="Z64" s="798"/>
+      <c r="AA64" s="799"/>
     </row>
     <row r="65" spans="2:27" ht="15.4" thickBot="1">
       <c r="B65" s="111" t="str">
@@ -33488,14 +33488,14 @@
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!I$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
         <v>0</v>
       </c>
-      <c r="J65" s="808"/>
+      <c r="J65" s="781"/>
       <c r="K65" s="113" t="str">
         <f>IF('Enter (Vac BFs TrCl MB'!$D28=0,"",'Enter (Vac BFs TrCl MB'!$D28)</f>
         <v>Lakshay</v>
       </c>
-      <c r="L65" s="155" t="str">
+      <c r="L65" s="155">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!L$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M65" s="155">
         <f>IF(ISERROR(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))),"",(INDEX('Enter (Vac BFs TrCl MB'!$F$7:$AU$37,MATCH(PROSPECT!$B65,'Enter (Vac BFs TrCl MB'!$D$7:$D$37,FALSE),MATCH(PROSPECT!M$42,'Enter (Vac BFs TrCl MB'!$F$6:$AU$6,FALSE))))</f>
@@ -33518,38 +33518,37 @@
         <v>0</v>
       </c>
       <c r="R65" s="156"/>
-      <c r="S65" s="808"/>
+      <c r="S65" s="781"/>
       <c r="T65" s="284"/>
       <c r="U65" s="285"/>
-      <c r="V65" s="783"/>
-      <c r="W65" s="783"/>
-      <c r="X65" s="783"/>
-      <c r="Y65" s="783"/>
-      <c r="Z65" s="783"/>
-      <c r="AA65" s="784"/>
+      <c r="V65" s="825"/>
+      <c r="W65" s="825"/>
+      <c r="X65" s="825"/>
+      <c r="Y65" s="825"/>
+      <c r="Z65" s="825"/>
+      <c r="AA65" s="826"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J34"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="S5:S34"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B4:AA4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="V65:AA65"/>
+    <mergeCell ref="V59:AA59"/>
+    <mergeCell ref="V60:AA60"/>
+    <mergeCell ref="V61:AA61"/>
+    <mergeCell ref="V62:AA62"/>
+    <mergeCell ref="V63:AA63"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="V47:AA47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:AA49"/>
+    <mergeCell ref="V50:AA50"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V57:AA57"/>
     <mergeCell ref="V46:AA46"/>
     <mergeCell ref="B35:AA35"/>
     <mergeCell ref="B36:B37"/>
@@ -33566,25 +33565,26 @@
     <mergeCell ref="V43:AA43"/>
     <mergeCell ref="V44:AA44"/>
     <mergeCell ref="V45:AA45"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="V47:AA47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:AA49"/>
-    <mergeCell ref="V50:AA50"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="V65:AA65"/>
-    <mergeCell ref="V59:AA59"/>
-    <mergeCell ref="V60:AA60"/>
-    <mergeCell ref="V61:AA61"/>
-    <mergeCell ref="V62:AA62"/>
-    <mergeCell ref="V63:AA63"/>
-    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B4:AA4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J34"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="S5:S34"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:I8">
     <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
@@ -33661,6 +33661,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f81d923e-5925-4a68-8bab-0834cd39ee8f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F2ACA83067C6949AFC5BD7D884C7324" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="930bdbfb79bd80d4d1c9a7b54a46e11a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f81d923e-5925-4a68-8bab-0834cd39ee8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9918198fb88a9f434bb3c03549513ae4" ns3:_="">
     <xsd:import namespace="f81d923e-5925-4a68-8bab-0834cd39ee8f"/>
@@ -33838,24 +33855,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF2E044-C73D-46D2-BB82-D5474882944F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f81d923e-5925-4a68-8bab-0834cd39ee8f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f81d923e-5925-4a68-8bab-0834cd39ee8f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D30C37EA-A4A1-4F95-BF13-947A7183734C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E88F104-2780-4D20-9849-D9FC2286EAD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33871,28 +33895,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D30C37EA-A4A1-4F95-BF13-947A7183734C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF2E044-C73D-46D2-BB82-D5474882944F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f81d923e-5925-4a68-8bab-0834cd39ee8f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>